--- a/code/figure_2_subplots/dynamics2.xlsx
+++ b/code/figure_2_subplots/dynamics2.xlsx
@@ -13,187 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
-  <si>
-    <t>cycle_1</t>
-  </si>
-  <si>
-    <t>cycle_2</t>
-  </si>
-  <si>
-    <t>cycle_3</t>
-  </si>
-  <si>
-    <t>cycle_4</t>
-  </si>
-  <si>
-    <t>cycle_5</t>
-  </si>
-  <si>
-    <t>cycle_6</t>
-  </si>
-  <si>
-    <t>cycle_7</t>
-  </si>
-  <si>
-    <t>cycle_8</t>
-  </si>
-  <si>
-    <t>cycle_9</t>
-  </si>
-  <si>
-    <t>cycle_10</t>
-  </si>
-  <si>
-    <t>cycle_11</t>
-  </si>
-  <si>
-    <t>cycle_12</t>
-  </si>
-  <si>
-    <t>cycle_13</t>
-  </si>
-  <si>
-    <t>cycle_14</t>
-  </si>
-  <si>
-    <t>cycle_15</t>
-  </si>
-  <si>
-    <t>cycle_16</t>
-  </si>
-  <si>
-    <t>cycle_17</t>
-  </si>
-  <si>
-    <t>cycle_18</t>
-  </si>
-  <si>
-    <t>cycle_19</t>
-  </si>
-  <si>
-    <t>cycle_20</t>
-  </si>
-  <si>
-    <t>cycle_21</t>
-  </si>
-  <si>
-    <t>cycle_22</t>
-  </si>
-  <si>
-    <t>cycle_23</t>
-  </si>
-  <si>
-    <t>cycle_24</t>
-  </si>
-  <si>
-    <t>cycle_25</t>
-  </si>
-  <si>
-    <t>cycle_26</t>
-  </si>
-  <si>
-    <t>cycle_27</t>
-  </si>
-  <si>
-    <t>cycle_28</t>
-  </si>
-  <si>
-    <t>cycle_29</t>
-  </si>
-  <si>
-    <t>cycle_30</t>
-  </si>
-  <si>
-    <t>cycle_31</t>
-  </si>
-  <si>
-    <t>cycle_32</t>
-  </si>
-  <si>
-    <t>cycle_33</t>
-  </si>
-  <si>
-    <t>cycle_34</t>
-  </si>
-  <si>
-    <t>cycle_35</t>
-  </si>
-  <si>
-    <t>cycle_36</t>
-  </si>
-  <si>
-    <t>cycle_37</t>
-  </si>
-  <si>
-    <t>cycle_38</t>
-  </si>
-  <si>
-    <t>cycle_39</t>
-  </si>
-  <si>
-    <t>cycle_40</t>
-  </si>
-  <si>
-    <t>cycle_41</t>
-  </si>
-  <si>
-    <t>cycle_42</t>
-  </si>
-  <si>
-    <t>cycle_43</t>
-  </si>
-  <si>
-    <t>cycle_44</t>
-  </si>
-  <si>
-    <t>cycle_45</t>
-  </si>
-  <si>
-    <t>cycle_46</t>
-  </si>
-  <si>
-    <t>cycle_47</t>
-  </si>
-  <si>
-    <t>cycle_48</t>
-  </si>
-  <si>
-    <t>cycle_49</t>
-  </si>
-  <si>
-    <t>cycle_50</t>
-  </si>
-  <si>
-    <t>cycle_51</t>
-  </si>
-  <si>
-    <t>cycle_52</t>
-  </si>
-  <si>
-    <t>cycle_53</t>
-  </si>
-  <si>
-    <t>cycle_54</t>
-  </si>
-  <si>
-    <t>cycle_55</t>
-  </si>
-  <si>
-    <t>cycle_56</t>
-  </si>
-  <si>
-    <t>cycle_57</t>
-  </si>
-  <si>
-    <t>cycle_58</t>
-  </si>
-  <si>
-    <t>cycle_59</t>
-  </si>
-  <si>
-    <t>cycle_60</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>cycle_1</t>
   </si>
@@ -485,184 +305,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -849,5462 +669,5462 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>121.2013439790281</v>
+        <v>689.18111503444254</v>
       </c>
       <c r="B3" s="0">
-        <v>621.24829266282052</v>
+        <v>655.30854681986887</v>
       </c>
       <c r="C3" s="0">
-        <v>592.5868246497414</v>
+        <v>624.32307294979421</v>
       </c>
       <c r="D3" s="0">
-        <v>564.57412745367549</v>
+        <v>596.47010323117229</v>
       </c>
       <c r="E3" s="0">
-        <v>540.31152659584438</v>
+        <v>571.37055449718196</v>
       </c>
       <c r="F3" s="0">
-        <v>519.11324848977665</v>
+        <v>548.71173043456338</v>
       </c>
       <c r="G3" s="0">
-        <v>500.44972929941912</v>
+        <v>528.23974044280305</v>
       </c>
       <c r="H3" s="0">
-        <v>483.91418887056591</v>
+        <v>509.7195884548135</v>
       </c>
       <c r="I3" s="0">
-        <v>469.18384397422517</v>
+        <v>492.93713529505447</v>
       </c>
       <c r="J3" s="0">
-        <v>455.99694630939121</v>
+        <v>477.70567374131059</v>
       </c>
       <c r="K3" s="0">
-        <v>444.13934601594025</v>
+        <v>463.85369701199124</v>
       </c>
       <c r="L3" s="0">
-        <v>433.43328477254164</v>
+        <v>451.23142756467797</v>
       </c>
       <c r="M3" s="0">
-        <v>423.73460066560273</v>
+        <v>439.70930293601174</v>
       </c>
       <c r="N3" s="0">
-        <v>414.91469520859539</v>
+        <v>429.16549570566025</v>
       </c>
       <c r="O3" s="0">
-        <v>406.86855465898935</v>
+        <v>419.49881684835276</v>
       </c>
       <c r="P3" s="0">
-        <v>399.51011645605797</v>
+        <v>410.61549448573692</v>
       </c>
       <c r="Q3" s="0">
-        <v>392.760794222453</v>
+        <v>402.43272401580884</v>
       </c>
       <c r="R3" s="0">
-        <v>386.55507467616388</v>
+        <v>394.88408147026786</v>
       </c>
       <c r="S3" s="0">
-        <v>380.83521381412226</v>
+        <v>387.90326310496954</v>
       </c>
       <c r="T3" s="0">
-        <v>375.55182101080158</v>
+        <v>381.43542904556881</v>
       </c>
       <c r="U3" s="0">
-        <v>370.6628683509108</v>
+        <v>375.43026251848767</v>
       </c>
       <c r="V3" s="0">
-        <v>366.12657298248479</v>
+        <v>369.84433166294042</v>
       </c>
       <c r="W3" s="0">
-        <v>361.91236314414738</v>
+        <v>364.63783267624279</v>
       </c>
       <c r="X3" s="0">
-        <v>357.99002607437291</v>
+        <v>359.77618164586028</v>
       </c>
       <c r="Y3" s="0">
-        <v>354.33323464807171</v>
+        <v>355.22899261950164</v>
       </c>
       <c r="Z3" s="0">
-        <v>350.91901982638137</v>
+        <v>350.96860923811016</v>
       </c>
       <c r="AA3" s="0">
-        <v>347.72635855836648</v>
+        <v>346.97058369686584</v>
       </c>
       <c r="AB3" s="0">
-        <v>344.73671531188535</v>
+        <v>343.21307181810283</v>
       </c>
       <c r="AC3" s="0">
-        <v>341.93345923957526</v>
+        <v>339.67657421067406</v>
       </c>
       <c r="AD3" s="0">
-        <v>339.30162623058561</v>
+        <v>336.34361792678038</v>
       </c>
       <c r="AE3" s="0">
-        <v>336.82771026296371</v>
+        <v>333.19862084798444</v>
       </c>
       <c r="AF3" s="0">
-        <v>334.49955061544085</v>
+        <v>330.22759645870099</v>
       </c>
       <c r="AG3" s="0">
-        <v>332.3061254508375</v>
+        <v>327.41799008197938</v>
       </c>
       <c r="AH3" s="0">
-        <v>330.23745203158603</v>
+        <v>324.75711421752641</v>
       </c>
       <c r="AI3" s="0">
-        <v>328.28448154513336</v>
+        <v>322.23779912279321</v>
       </c>
       <c r="AJ3" s="0">
-        <v>326.43886256010194</v>
+        <v>319.84940113508884</v>
       </c>
       <c r="AK3" s="0">
-        <v>324.69317144687244</v>
+        <v>317.5837557770181</v>
       </c>
       <c r="AL3" s="0">
-        <v>323.04050524667889</v>
+        <v>315.43346209250382</v>
       </c>
       <c r="AM3" s="0">
-        <v>321.47457590018189</v>
+        <v>313.39187004813891</v>
       </c>
       <c r="AN3" s="0">
-        <v>319.98963671170316</v>
+        <v>311.45295611429958</v>
       </c>
       <c r="AO3" s="0">
-        <v>318.58041190563978</v>
+        <v>309.61190020059502</v>
       </c>
       <c r="AP3" s="0">
-        <v>317.24205441709847</v>
+        <v>307.86216155644837</v>
       </c>
       <c r="AQ3" s="0">
-        <v>315.97011391887969</v>
+        <v>306.20036752781681</v>
       </c>
       <c r="AR3" s="0">
-        <v>314.76049220897767</v>
+        <v>304.62634653448322</v>
       </c>
       <c r="AS3" s="0">
-        <v>313.60941216157408</v>
+        <v>303.12861525960056</v>
       </c>
       <c r="AT3" s="0">
-        <v>312.5133910854467</v>
+        <v>301.70756714455223</v>
       </c>
       <c r="AU3" s="0">
-        <v>311.46920989767972</v>
+        <v>300.36075689422432</v>
       </c>
       <c r="AV3" s="0">
-        <v>310.47389323946487</v>
+        <v>299.08426002452183</v>
       </c>
       <c r="AW3" s="0">
-        <v>309.52468672723222</v>
+        <v>297.87622142231749</v>
       </c>
       <c r="AX3" s="0">
-        <v>308.61903905294656</v>
+        <v>296.73114908929966</v>
       </c>
       <c r="AY3" s="0">
-        <v>307.75458281835552</v>
+        <v>295.65263783453412</v>
       </c>
       <c r="AZ3" s="0">
-        <v>306.92911179650099</v>
+        <v>294.63666944935642</v>
       </c>
       <c r="BA3" s="0">
-        <v>306.14059746390592</v>
+        <v>293.68053774154015</v>
       </c>
       <c r="BB3" s="0">
-        <v>305.38713518720738</v>
+        <v>292.78584520045405</v>
       </c>
       <c r="BC3" s="0">
-        <v>304.6669502711751</v>
+        <v>291.94449281084803</v>
       </c>
       <c r="BD3" s="0">
-        <v>303.97839363426579</v>
+        <v>291.15854716214761</v>
       </c>
       <c r="BE3" s="0">
-        <v>303.31992514203927</v>
+        <v>290.42312144518809</v>
       </c>
       <c r="BF3" s="0">
-        <v>302.69010512777589</v>
+        <v>289.74751001058615</v>
       </c>
       <c r="BG3" s="0">
-        <v>302.08758734429847</v>
+        <v>289.11562181032082</v>
       </c>
       <c r="BH3" s="0">
-        <v>301.51110981602966</v>
+        <v>288.53771982049381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>199.17991761049319</v>
+        <v>689.19195358935838</v>
       </c>
       <c r="B4" s="0">
-        <v>620.70856464391397</v>
+        <v>654.47463749105486</v>
       </c>
       <c r="C4" s="0">
-        <v>591.59363040362962</v>
+        <v>623.57311036437363</v>
       </c>
       <c r="D4" s="0">
-        <v>563.70922344010341</v>
+        <v>595.8001278956167</v>
       </c>
       <c r="E4" s="0">
-        <v>539.55589300541101</v>
+        <v>570.76614185463188</v>
       </c>
       <c r="F4" s="0">
-        <v>518.44676242896674</v>
+        <v>548.1707594611072</v>
       </c>
       <c r="G4" s="0">
-        <v>499.85819633911854</v>
+        <v>527.75345812396699</v>
       </c>
       <c r="H4" s="0">
-        <v>483.38610623965957</v>
+        <v>509.28046849847823</v>
       </c>
       <c r="I4" s="0">
-        <v>468.70959706914937</v>
+        <v>492.54126200292882</v>
       </c>
       <c r="J4" s="0">
-        <v>455.56910912306182</v>
+        <v>477.34713920766762</v>
       </c>
       <c r="K4" s="0">
-        <v>443.75203400103015</v>
+        <v>463.52964781835925</v>
       </c>
       <c r="L4" s="0">
-        <v>433.08234833754358</v>
+        <v>450.93906460436011</v>
       </c>
       <c r="M4" s="0">
-        <v>423.41314451828066</v>
+        <v>439.44278170467601</v>
       </c>
       <c r="N4" s="0">
-        <v>414.620893728</v>
+        <v>428.92349171126995</v>
       </c>
       <c r="O4" s="0">
-        <v>406.60099084058754</v>
+        <v>419.2776064462451</v>
       </c>
       <c r="P4" s="0">
-        <v>399.26434267695441</v>
+        <v>410.4136580647488</v>
       </c>
       <c r="Q4" s="0">
-        <v>392.53460433421839</v>
+        <v>402.25086667627738</v>
       </c>
       <c r="R4" s="0">
-        <v>386.34607011629379</v>
+        <v>394.7179005849535</v>
       </c>
       <c r="S4" s="0">
-        <v>380.6418252902871</v>
+        <v>387.75168336778449</v>
       </c>
       <c r="T4" s="0">
-        <v>375.37239497904818</v>
+        <v>381.29638705410463</v>
       </c>
       <c r="U4" s="0">
-        <v>370.49460363115287</v>
+        <v>375.30258965644293</v>
       </c>
       <c r="V4" s="0">
-        <v>365.97058032523233</v>
+        <v>369.72646068146264</v>
       </c>
       <c r="W4" s="0">
-        <v>361.76692514712516</v>
+        <v>364.52911791425964</v>
       </c>
       <c r="X4" s="0">
-        <v>357.85422895959164</v>
+        <v>359.67598971085005</v>
       </c>
       <c r="Y4" s="0">
-        <v>354.20638849008918</v>
+        <v>355.13634307918647</v>
       </c>
       <c r="Z4" s="0">
-        <v>350.80020592258518</v>
+        <v>350.88280312001098</v>
       </c>
       <c r="AA4" s="0">
-        <v>347.61498500568246</v>
+        <v>346.89097057902245</v>
       </c>
       <c r="AB4" s="0">
-        <v>344.63221667859608</v>
+        <v>343.13907284139253</v>
       </c>
       <c r="AC4" s="0">
-        <v>341.83530970804378</v>
+        <v>339.60766163142756</v>
       </c>
       <c r="AD4" s="0">
-        <v>339.20934652333261</v>
+        <v>336.27934701327473</v>
       </c>
       <c r="AE4" s="0">
-        <v>336.74089057718442</v>
+        <v>333.13856436292082</v>
       </c>
       <c r="AF4" s="0">
-        <v>334.41780729665885</v>
+        <v>330.17136863400754</v>
       </c>
       <c r="AG4" s="0">
-        <v>332.22911131335758</v>
+        <v>327.36525373744365</v>
       </c>
       <c r="AH4" s="0">
-        <v>330.16485104252655</v>
+        <v>324.70900268072012</v>
       </c>
       <c r="AI4" s="0">
-        <v>328.21596337960574</v>
+        <v>322.19251021190638</v>
       </c>
       <c r="AJ4" s="0">
-        <v>326.37426519351499</v>
+        <v>319.80670983262581</v>
       </c>
       <c r="AK4" s="0">
-        <v>324.63220012189294</v>
+        <v>317.54343147276001</v>
       </c>
       <c r="AL4" s="0">
-        <v>322.98294173040256</v>
+        <v>315.39531158928435</v>
       </c>
       <c r="AM4" s="0">
-        <v>321.4202244402673</v>
+        <v>313.3557062351548</v>
       </c>
       <c r="AN4" s="0">
-        <v>319.93831059369137</v>
+        <v>311.41861435965745</v>
       </c>
       <c r="AO4" s="0">
-        <v>318.53194027902447</v>
+        <v>309.57860866884664</v>
       </c>
       <c r="AP4" s="0">
-        <v>317.1962860486513</v>
+        <v>307.83077705325951</v>
       </c>
       <c r="AQ4" s="0">
-        <v>315.92690692056556</v>
+        <v>306.17066521509935</v>
       </c>
       <c r="AR4" s="0">
-        <v>314.71971573191394</v>
+        <v>304.59422981932153</v>
       </c>
       <c r="AS4" s="0">
-        <v>313.57094577575214</v>
+        <v>303.0977963269641</v>
       </c>
       <c r="AT4" s="0">
-        <v>312.47712323167286</v>
+        <v>301.67801841501614</v>
       </c>
       <c r="AU4" s="0">
-        <v>311.43503756288254</v>
+        <v>300.33184385871562</v>
       </c>
       <c r="AV4" s="0">
-        <v>310.44172096382192</v>
+        <v>299.0564868160933</v>
       </c>
       <c r="AW4" s="0">
-        <v>309.49442607439875</v>
+        <v>297.84939542673692</v>
       </c>
       <c r="AX4" s="0">
-        <v>308.59060760440866</v>
+        <v>296.70822841506794</v>
       </c>
       <c r="AY4" s="0">
-        <v>307.72790325533407</v>
+        <v>295.63083526785192</v>
       </c>
       <c r="AZ4" s="0">
-        <v>306.9041192366339</v>
+        <v>294.61523589999274</v>
       </c>
       <c r="BA4" s="0">
-        <v>306.11722089532446</v>
+        <v>293.65959947513841</v>
       </c>
       <c r="BB4" s="0">
-        <v>305.36531205435818</v>
+        <v>292.76223007571895</v>
       </c>
       <c r="BC4" s="0">
-        <v>304.64662337755601</v>
+        <v>291.92155271413588</v>
       </c>
       <c r="BD4" s="0">
-        <v>303.95950877525559</v>
+        <v>291.13609912670921</v>
       </c>
       <c r="BE4" s="0">
-        <v>303.30243139806907</v>
+        <v>290.40449634244061</v>
       </c>
       <c r="BF4" s="0">
-        <v>302.67395433669236</v>
+        <v>289.72545627383846</v>
       </c>
       <c r="BG4" s="0">
-        <v>302.07273399403118</v>
+        <v>289.09776591979931</v>
       </c>
       <c r="BH4" s="0">
-        <v>301.49751137823313</v>
+        <v>288.52027809373772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>265.88692387674831</v>
+        <v>688.1794999378269</v>
       </c>
       <c r="B5" s="0">
-        <v>620.06457132527441</v>
+        <v>653.58142341106372</v>
       </c>
       <c r="C5" s="0">
-        <v>590.59294344743523</v>
+        <v>622.77884043579104</v>
       </c>
       <c r="D5" s="0">
-        <v>562.84257880970893</v>
+        <v>595.09043781589492</v>
       </c>
       <c r="E5" s="0">
-        <v>538.79959184607424</v>
+        <v>570.13112768616043</v>
       </c>
       <c r="F5" s="0">
-        <v>517.78112578244327</v>
+        <v>547.60234814543685</v>
       </c>
       <c r="G5" s="0">
-        <v>499.26833016161504</v>
+        <v>527.24434638575292</v>
       </c>
       <c r="H5" s="0">
-        <v>482.86032502518088</v>
+        <v>508.82407448361414</v>
       </c>
       <c r="I5" s="0">
-        <v>468.23852357594035</v>
+        <v>492.13175982960342</v>
       </c>
       <c r="J5" s="0">
-        <v>455.14510385069491</v>
+        <v>476.97927736070318</v>
       </c>
       <c r="K5" s="0">
-        <v>443.36879759474596</v>
+        <v>463.19874401286745</v>
       </c>
       <c r="L5" s="0">
-        <v>432.73464236766654</v>
+        <v>450.64098273713302</v>
       </c>
       <c r="M5" s="0">
-        <v>423.09657451494257</v>
+        <v>439.17384818742994</v>
       </c>
       <c r="N5" s="0">
-        <v>414.33174780804546</v>
+        <v>428.68047764029524</v>
       </c>
       <c r="O5" s="0">
-        <v>406.33611428460569</v>
+        <v>419.05766249182386</v>
       </c>
       <c r="P5" s="0">
-        <v>399.02103690288533</v>
+        <v>410.21426979582105</v>
       </c>
       <c r="Q5" s="0">
-        <v>392.31055207351756</v>
+        <v>402.06982632707991</v>
       </c>
       <c r="R5" s="0">
-        <v>386.13926334025456</v>
+        <v>394.55323983275656</v>
       </c>
       <c r="S5" s="0">
-        <v>380.45052347638585</v>
+        <v>387.60166313378426</v>
       </c>
       <c r="T5" s="0">
-        <v>375.19508137210926</v>
+        <v>381.15948477224214</v>
       </c>
       <c r="U5" s="0">
-        <v>370.32994055320472</v>
+        <v>375.17744911017257</v>
       </c>
       <c r="V5" s="0">
-        <v>365.81739847084089</v>
+        <v>369.61188640223361</v>
       </c>
       <c r="W5" s="0">
-        <v>361.62419625938281</v>
+        <v>364.42403389133352</v>
       </c>
       <c r="X5" s="0">
-        <v>357.72103901217605</v>
+        <v>359.57944807736618</v>
       </c>
       <c r="Y5" s="0">
-        <v>354.08192605673122</v>
+        <v>355.04749645311296</v>
       </c>
       <c r="Z5" s="0">
-        <v>350.68374518584591</v>
+        <v>350.80089800026957</v>
       </c>
       <c r="AA5" s="0">
-        <v>347.50588187923694</v>
+        <v>346.81533405510135</v>
       </c>
       <c r="AB5" s="0">
-        <v>344.52989110112418</v>
+        <v>343.06910351998584</v>
       </c>
       <c r="AC5" s="0">
-        <v>341.73924142391769</v>
+        <v>339.54282133010651</v>
       </c>
       <c r="AD5" s="0">
-        <v>339.11906736943632</v>
+        <v>336.21915365208952</v>
       </c>
       <c r="AE5" s="0">
-        <v>336.65597785132093</v>
+        <v>333.08258541695454</v>
       </c>
       <c r="AF5" s="0">
-        <v>334.33787867066752</v>
+        <v>330.11921570467206</v>
       </c>
       <c r="AG5" s="0">
-        <v>332.15382084686354</v>
+        <v>327.31657762312182</v>
       </c>
       <c r="AH5" s="0">
-        <v>330.09388409395615</v>
+        <v>324.66348190306746</v>
       </c>
       <c r="AI5" s="0">
-        <v>328.14903634087312</v>
+        <v>322.14986894684449</v>
       </c>
       <c r="AJ5" s="0">
-        <v>326.31111348116019</v>
+        <v>319.76669252829896</v>
       </c>
       <c r="AK5" s="0">
-        <v>324.57258881941368</v>
+        <v>317.50580737873213</v>
       </c>
       <c r="AL5" s="0">
-        <v>322.92665349345663</v>
+        <v>315.35987208810985</v>
       </c>
       <c r="AM5" s="0">
-        <v>321.36706056455199</v>
+        <v>313.3222625101215</v>
       </c>
       <c r="AN5" s="0">
-        <v>319.88808919768877</v>
+        <v>311.38699534100215</v>
       </c>
       <c r="AO5" s="0">
-        <v>318.48449448553629</v>
+        <v>309.54865889848907</v>
       </c>
       <c r="AP5" s="0">
-        <v>317.15146229389643</v>
+        <v>307.8023562056195</v>
       </c>
       <c r="AQ5" s="0">
-        <v>315.88456401615866</v>
+        <v>306.14364495255012</v>
       </c>
       <c r="AR5" s="0">
-        <v>314.67972362368715</v>
+        <v>304.56849390355904</v>
       </c>
       <c r="AS5" s="0">
-        <v>313.53318452414481</v>
+        <v>303.07323825405746</v>
       </c>
       <c r="AT5" s="0">
-        <v>312.44148192101972</v>
+        <v>301.65454135364888</v>
       </c>
       <c r="AU5" s="0">
-        <v>311.40141369754366</v>
+        <v>300.30935999991243</v>
       </c>
       <c r="AV5" s="0">
-        <v>310.41001962593094</v>
+        <v>299.03491477869483</v>
       </c>
       <c r="AW5" s="0">
-        <v>309.46455926521145</v>
+        <v>297.82866129872008</v>
       </c>
       <c r="AX5" s="0">
-        <v>308.56249357787453</v>
+        <v>296.68826343178796</v>
       </c>
       <c r="AY5" s="0">
-        <v>307.70146612516072</v>
+        <v>295.61157841809955</v>
       </c>
       <c r="AZ5" s="0">
-        <v>306.87928850718981</v>
+        <v>294.59662997020115</v>
       </c>
       <c r="BA5" s="0">
-        <v>306.09393045040844</v>
+        <v>293.64159203135199</v>
       </c>
       <c r="BB5" s="0">
-        <v>305.34350013305664</v>
+        <v>292.74477303472833</v>
       </c>
       <c r="BC5" s="0">
-        <v>304.62623256238351</v>
+        <v>291.90460145832549</v>
       </c>
       <c r="BD5" s="0">
-        <v>303.94048518995925</v>
+        <v>291.1196125610665</v>
       </c>
       <c r="BE5" s="0">
-        <v>303.28472443079846</v>
+        <v>290.38843649763368</v>
       </c>
       <c r="BF5" s="0">
-        <v>302.65751645856955</v>
+        <v>289.70978813394879</v>
       </c>
       <c r="BG5" s="0">
-        <v>302.05752041791811</v>
+        <v>289.08245685532154</v>
       </c>
       <c r="BH5" s="0">
-        <v>301.48347989375583</v>
+        <v>288.50529794733779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>322.83950686229718</v>
+        <v>687.15782984117072</v>
       </c>
       <c r="B6" s="0">
-        <v>619.34744882077985</v>
+        <v>652.69044949589704</v>
       </c>
       <c r="C6" s="0">
-        <v>589.5977635238944</v>
+        <v>621.98647675115512</v>
       </c>
       <c r="D6" s="0">
-        <v>561.98132772437259</v>
+        <v>594.38245039000651</v>
       </c>
       <c r="E6" s="0">
-        <v>538.04822653926601</v>
+        <v>569.4977368919632</v>
       </c>
       <c r="F6" s="0">
-        <v>517.12009230279079</v>
+        <v>547.03538957313413</v>
       </c>
       <c r="G6" s="0">
-        <v>498.68280357227962</v>
+        <v>526.73656280051659</v>
       </c>
       <c r="H6" s="0">
-        <v>482.33866130568714</v>
+        <v>508.36893239382715</v>
       </c>
       <c r="I6" s="0">
-        <v>467.77137258085736</v>
+        <v>491.72338999674912</v>
       </c>
       <c r="J6" s="0">
-        <v>454.72484546626652</v>
+        <v>476.61243320870381</v>
       </c>
       <c r="K6" s="0">
-        <v>442.9891468596208</v>
+        <v>462.86875908039821</v>
       </c>
       <c r="L6" s="0">
-        <v>432.39037204587368</v>
+        <v>450.34372260795413</v>
       </c>
       <c r="M6" s="0">
-        <v>422.78329939112115</v>
+        <v>438.90565895272653</v>
       </c>
       <c r="N6" s="0">
-        <v>414.04576381348517</v>
+        <v>428.43813494260269</v>
       </c>
       <c r="O6" s="0">
-        <v>406.07427295847657</v>
+        <v>418.8383229258568</v>
       </c>
       <c r="P6" s="0">
-        <v>398.78064558744029</v>
+        <v>410.01542600726958</v>
       </c>
       <c r="Q6" s="0">
-        <v>392.08929812638632</v>
+        <v>401.88926646432344</v>
       </c>
       <c r="R6" s="0">
-        <v>385.93514381777658</v>
+        <v>394.38901111991566</v>
       </c>
       <c r="S6" s="0">
-        <v>380.26180112371929</v>
+        <v>387.4520399587667</v>
       </c>
       <c r="T6" s="0">
-        <v>375.02024274633692</v>
+        <v>381.02294065874071</v>
       </c>
       <c r="U6" s="0">
-        <v>370.16765737906087</v>
+        <v>375.05263197153437</v>
       </c>
       <c r="V6" s="0">
-        <v>365.66649967323394</v>
+        <v>369.49759717231615</v>
       </c>
       <c r="W6" s="0">
-        <v>361.48365688745241</v>
+        <v>364.31920770637748</v>
       </c>
       <c r="X6" s="0">
-        <v>357.58994765097185</v>
+        <v>359.48313813757784</v>
       </c>
       <c r="Y6" s="0">
-        <v>353.95947315941083</v>
+        <v>354.9588597616584</v>
       </c>
       <c r="Z6" s="0">
-        <v>350.569209339888</v>
+        <v>350.71918303603809</v>
       </c>
       <c r="AA6" s="0">
-        <v>347.39861820571349</v>
+        <v>346.73986998114248</v>
       </c>
       <c r="AB6" s="0">
-        <v>344.4293225216158</v>
+        <v>342.99929076937298</v>
       </c>
       <c r="AC6" s="0">
-        <v>341.64484937629624</v>
+        <v>339.47812337208399</v>
       </c>
       <c r="AD6" s="0">
-        <v>339.03038521432109</v>
+        <v>336.15908978301474</v>
       </c>
       <c r="AE6" s="0">
-        <v>336.57258431458683</v>
+        <v>333.02672443795819</v>
       </c>
       <c r="AF6" s="0">
-        <v>334.259392746066</v>
+        <v>330.06717037123627</v>
       </c>
       <c r="AG6" s="0">
-        <v>332.07989774728117</v>
+        <v>327.26799976395353</v>
       </c>
       <c r="AH6" s="0">
-        <v>330.02421030896392</v>
+        <v>324.6180580873671</v>
       </c>
       <c r="AI6" s="0">
-        <v>328.08332899323119</v>
+        <v>322.10731679638207</v>
       </c>
       <c r="AJ6" s="0">
-        <v>326.24910940594134</v>
+        <v>319.72675727375832</v>
       </c>
       <c r="AK6" s="0">
-        <v>324.51405361743952</v>
+        <v>317.46825893329873</v>
       </c>
       <c r="AL6" s="0">
-        <v>322.87137061438779</v>
+        <v>315.32450242937381</v>
       </c>
       <c r="AM6" s="0">
-        <v>321.31483200477373</v>
+        <v>313.28888336014819</v>
       </c>
       <c r="AN6" s="0">
-        <v>319.83873368949691</v>
+        <v>311.35543610777916</v>
       </c>
       <c r="AO6" s="0">
-        <v>318.43784570756679</v>
+        <v>309.51876484833338</v>
       </c>
       <c r="AP6" s="0">
-        <v>317.10736721523091</v>
+        <v>307.77398683583607</v>
       </c>
       <c r="AQ6" s="0">
-        <v>315.8428819224622</v>
+        <v>306.11667254396838</v>
       </c>
       <c r="AR6" s="0">
-        <v>314.64032489178516</v>
+        <v>304.54280223401793</v>
       </c>
       <c r="AS6" s="0">
-        <v>313.49594960586074</v>
+        <v>303.04872144311054</v>
       </c>
       <c r="AT6" s="0">
-        <v>312.40630027638781</v>
+        <v>301.63110283927358</v>
       </c>
       <c r="AU6" s="0">
-        <v>311.36818316819551</v>
+        <v>300.28691162148306</v>
       </c>
       <c r="AV6" s="0">
-        <v>310.37864560763688</v>
+        <v>299.01337594974041</v>
       </c>
       <c r="AW6" s="0">
-        <v>309.43495405073998</v>
+        <v>297.80795827705981</v>
       </c>
       <c r="AX6" s="0">
-        <v>308.53457570031918</v>
+        <v>296.66832866042193</v>
       </c>
       <c r="AY6" s="0">
-        <v>307.6751599493964</v>
+        <v>295.59234993439333</v>
       </c>
       <c r="AZ6" s="0">
-        <v>306.85452375963013</v>
+        <v>294.57805086950009</v>
       </c>
       <c r="BA6" s="0">
-        <v>306.07064127558834</v>
+        <v>293.62360999507501</v>
       </c>
       <c r="BB6" s="0">
-        <v>305.32162502597987</v>
+        <v>292.72733990183156</v>
       </c>
       <c r="BC6" s="0">
-        <v>304.60571431678233</v>
+        <v>291.88767283714657</v>
       </c>
       <c r="BD6" s="0">
-        <v>303.92127015146104</v>
+        <v>291.10314748437003</v>
       </c>
       <c r="BE6" s="0">
-        <v>303.26676221775739</v>
+        <v>290.37239710828766</v>
       </c>
       <c r="BF6" s="0">
-        <v>302.64075977032411</v>
+        <v>289.69413940400182</v>
       </c>
       <c r="BG6" s="0">
-        <v>302.04192470445338</v>
+        <v>289.06716632709464</v>
       </c>
       <c r="BH6" s="0">
-        <v>301.46900318369813</v>
+        <v>288.49033550773993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>371.3209524604361</v>
+        <v>686.14081989098486</v>
       </c>
       <c r="B7" s="0">
-        <v>618.56907599498652</v>
+        <v>651.80258886905449</v>
       </c>
       <c r="C7" s="0">
-        <v>588.60804915736276</v>
+        <v>621.19666177808574</v>
       </c>
       <c r="D7" s="0">
-        <v>561.12527708662844</v>
+        <v>593.67669040406986</v>
       </c>
       <c r="E7" s="0">
-        <v>537.30156012958287</v>
+        <v>568.86632601398446</v>
       </c>
       <c r="F7" s="0">
-        <v>516.46339348003323</v>
+        <v>546.47019412930149</v>
       </c>
       <c r="G7" s="0">
-        <v>498.10132546419607</v>
+        <v>526.23034776593784</v>
       </c>
       <c r="H7" s="0">
-        <v>481.82080841500829</v>
+        <v>507.9151839181423</v>
       </c>
       <c r="I7" s="0">
-        <v>467.30782765120875</v>
+        <v>491.31625617175621</v>
       </c>
       <c r="J7" s="0">
-        <v>454.30801191620827</v>
+        <v>476.24668440888922</v>
       </c>
       <c r="K7" s="0">
-        <v>442.61275790229149</v>
+        <v>462.53974484189558</v>
       </c>
       <c r="L7" s="0">
-        <v>432.04921439847078</v>
+        <v>450.04732294174488</v>
       </c>
       <c r="M7" s="0">
-        <v>422.47299925142761</v>
+        <v>438.63823295088889</v>
       </c>
       <c r="N7" s="0">
-        <v>413.76262654290235</v>
+        <v>428.19646983432568</v>
       </c>
       <c r="O7" s="0">
-        <v>405.81515798907537</v>
+        <v>418.6195855308261</v>
       </c>
       <c r="P7" s="0">
-        <v>398.54286705365331</v>
+        <v>409.81711797934634</v>
       </c>
       <c r="Q7" s="0">
-        <v>391.87054892934793</v>
+        <v>401.70918379313861</v>
       </c>
       <c r="R7" s="0">
-        <v>385.73342645404125</v>
+        <v>394.22520800664779</v>
       </c>
       <c r="S7" s="0">
-        <v>380.07538288154421</v>
+        <v>387.3027968961955</v>
       </c>
       <c r="T7" s="0">
-        <v>374.84761399087068</v>
+        <v>380.88673641803604</v>
       </c>
       <c r="U7" s="0">
-        <v>370.00749363336439</v>
+        <v>374.92811910322757</v>
       </c>
       <c r="V7" s="0">
-        <v>365.51763366227516</v>
+        <v>369.38358063011526</v>
       </c>
       <c r="W7" s="0">
-        <v>361.34506599537104</v>
+        <v>364.214626233937</v>
       </c>
       <c r="X7" s="0">
-        <v>357.4607230833322</v>
+        <v>359.387048055192</v>
       </c>
       <c r="Y7" s="0">
-        <v>353.83880772703156</v>
+        <v>354.870420828313</v>
       </c>
       <c r="Z7" s="0">
-        <v>350.45638382725059</v>
+        <v>350.63764614935951</v>
       </c>
       <c r="AA7" s="0">
-        <v>347.29298968432727</v>
+        <v>346.66456643743709</v>
       </c>
       <c r="AB7" s="0">
-        <v>344.33031566182689</v>
+        <v>342.9296228848408</v>
       </c>
       <c r="AC7" s="0">
-        <v>341.55194722067267</v>
+        <v>339.41355628077002</v>
       </c>
       <c r="AD7" s="0">
-        <v>338.94312255572891</v>
+        <v>336.09914425476609</v>
       </c>
       <c r="AE7" s="0">
-        <v>336.49054120933357</v>
+        <v>332.97097058038128</v>
       </c>
       <c r="AF7" s="0">
-        <v>334.18218940804201</v>
+        <v>330.01522209940259</v>
       </c>
       <c r="AG7" s="0">
-        <v>332.00719044807505</v>
+        <v>327.2195099371956</v>
       </c>
       <c r="AH7" s="0">
-        <v>329.95568656623072</v>
+        <v>324.57271422191235</v>
       </c>
       <c r="AI7" s="0">
-        <v>328.0187065938623</v>
+        <v>322.06483729985501</v>
       </c>
       <c r="AJ7" s="0">
-        <v>326.18812645541448</v>
+        <v>319.68688810591533</v>
       </c>
       <c r="AK7" s="0">
-        <v>324.45647617870299</v>
+        <v>317.43077065843812</v>
       </c>
       <c r="AL7" s="0">
-        <v>322.81698284083546</v>
+        <v>315.28918760725225</v>
       </c>
       <c r="AM7" s="0">
-        <v>321.26343651072256</v>
+        <v>313.25555423390978</v>
       </c>
       <c r="AN7" s="0">
-        <v>319.79014974488109</v>
+        <v>311.32392255232429</v>
       </c>
       <c r="AO7" s="0">
-        <v>318.39190747535781</v>
+        <v>309.4889125497437</v>
       </c>
       <c r="AP7" s="0">
-        <v>317.06392212709409</v>
+        <v>307.74565566543498</v>
       </c>
       <c r="AQ7" s="0">
-        <v>315.80178967345353</v>
+        <v>306.08973512173458</v>
       </c>
       <c r="AR7" s="0">
-        <v>314.6014562294128</v>
+        <v>304.51714264055749</v>
       </c>
       <c r="AS7" s="0">
-        <v>313.45918531737675</v>
+        <v>303.02423407306333</v>
       </c>
       <c r="AT7" s="0">
-        <v>312.37153014346626</v>
+        <v>301.607691377447</v>
       </c>
       <c r="AU7" s="0">
-        <v>311.33530532057244</v>
+        <v>300.2644881284042</v>
       </c>
       <c r="AV7" s="0">
-        <v>310.34756570898799</v>
+        <v>298.99186004158901</v>
       </c>
       <c r="AW7" s="0">
-        <v>309.40558464311601</v>
+        <v>297.78727639338871</v>
       </c>
       <c r="AX7" s="0">
-        <v>308.50683555630479</v>
+        <v>296.64841341152078</v>
       </c>
       <c r="AY7" s="0">
-        <v>307.64897364994181</v>
+        <v>295.57313950335958</v>
       </c>
       <c r="AZ7" s="0">
-        <v>306.82982122323131</v>
+        <v>294.55948848701559</v>
       </c>
       <c r="BA7" s="0">
-        <v>306.04735687436806</v>
+        <v>293.60564346488115</v>
       </c>
       <c r="BB7" s="0">
-        <v>305.29969748022688</v>
+        <v>292.7099211732509</v>
       </c>
       <c r="BC7" s="0">
-        <v>304.58508660794456</v>
+        <v>291.87075762028388</v>
       </c>
       <c r="BD7" s="0">
-        <v>303.90188882432426</v>
+        <v>291.08669490382061</v>
       </c>
       <c r="BE7" s="0">
-        <v>303.24857709931933</v>
+        <v>290.35636939108048</v>
       </c>
       <c r="BF7" s="0">
-        <v>302.62372376901357</v>
+        <v>289.67850159720814</v>
       </c>
       <c r="BG7" s="0">
-        <v>302.02599348949747</v>
+        <v>289.05188604389679</v>
       </c>
       <c r="BH7" s="0">
-        <v>301.45413500698101</v>
+        <v>288.4753826978058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>412.54929925566233</v>
+        <v>685.12856309722781</v>
       </c>
       <c r="B8" s="0">
-        <v>617.73952575350552</v>
+        <v>650.91782967516508</v>
       </c>
       <c r="C8" s="0">
-        <v>587.62372747073834</v>
+        <v>620.40939329126252</v>
       </c>
       <c r="D8" s="0">
-        <v>560.27424382848642</v>
+        <v>592.9731570010789</v>
       </c>
       <c r="E8" s="0">
-        <v>536.55937981931413</v>
+        <v>568.23689294244309</v>
       </c>
       <c r="F8" s="0">
-        <v>515.8107929429292</v>
+        <v>545.90675956110977</v>
       </c>
       <c r="G8" s="0">
-        <v>497.52364180631616</v>
+        <v>525.72569861208581</v>
       </c>
       <c r="H8" s="0">
-        <v>481.30649993685313</v>
+        <v>507.46282563286178</v>
       </c>
       <c r="I8" s="0">
-        <v>466.84761440031309</v>
+        <v>490.91035503050784</v>
       </c>
       <c r="J8" s="0">
-        <v>453.89432446019691</v>
+        <v>475.88202792724206</v>
       </c>
       <c r="K8" s="0">
-        <v>442.23935047093477</v>
+        <v>462.21169844265069</v>
       </c>
       <c r="L8" s="0">
-        <v>431.71088995538781</v>
+        <v>449.7517811069589</v>
       </c>
       <c r="M8" s="0">
-        <v>422.16539718983682</v>
+        <v>438.3715677777638</v>
       </c>
       <c r="N8" s="0">
-        <v>413.48206304504953</v>
+        <v>427.95548012455504</v>
       </c>
       <c r="O8" s="0">
-        <v>405.55850146340765</v>
+        <v>418.40144832907976</v>
       </c>
       <c r="P8" s="0">
-        <v>398.30743925323912</v>
+        <v>409.61934393191598</v>
       </c>
       <c r="Q8" s="0">
-        <v>391.65404897125808</v>
+        <v>401.52957677438616</v>
       </c>
       <c r="R8" s="0">
-        <v>385.53386270547179</v>
+        <v>394.06182912070534</v>
       </c>
       <c r="S8" s="0">
-        <v>379.89102751953396</v>
+        <v>387.15393267438498</v>
       </c>
       <c r="T8" s="0">
-        <v>374.67696146724086</v>
+        <v>380.75087091320063</v>
       </c>
       <c r="U8" s="0">
-        <v>369.84922339632783</v>
+        <v>374.80390948845553</v>
       </c>
       <c r="V8" s="0">
-        <v>365.3705822828461</v>
+        <v>369.26983590768037</v>
       </c>
       <c r="W8" s="0">
-        <v>361.20821332357434</v>
+        <v>364.11028869774532</v>
       </c>
       <c r="X8" s="0">
-        <v>357.33316296786001</v>
+        <v>359.29117714198458</v>
       </c>
       <c r="Y8" s="0">
-        <v>353.71973534039887</v>
+        <v>354.78217903666769</v>
       </c>
       <c r="Z8" s="0">
-        <v>350.34508208109702</v>
+        <v>350.55628678846955</v>
       </c>
       <c r="AA8" s="0">
-        <v>347.18881760271506</v>
+        <v>346.58942292947279</v>
       </c>
       <c r="AB8" s="0">
-        <v>344.23269959129641</v>
+        <v>342.860099422676</v>
       </c>
       <c r="AC8" s="0">
-        <v>341.4603717441455</v>
+        <v>339.34911965749097</v>
       </c>
       <c r="AD8" s="0">
-        <v>338.85712383138343</v>
+        <v>336.0393167089108</v>
       </c>
       <c r="AE8" s="0">
-        <v>336.4097005494753</v>
+        <v>332.91532352151108</v>
       </c>
       <c r="AF8" s="0">
-        <v>334.10612816907974</v>
+        <v>329.96337059827459</v>
       </c>
       <c r="AG8" s="0">
-        <v>331.93556588845308</v>
+        <v>327.17110788032585</v>
       </c>
       <c r="AH8" s="0">
-        <v>329.88818715182191</v>
+        <v>324.5274500397706</v>
       </c>
       <c r="AI8" s="0">
-        <v>327.95505073029329</v>
+        <v>322.02243021444093</v>
       </c>
       <c r="AJ8" s="0">
-        <v>326.12805339142079</v>
+        <v>319.64708480357592</v>
       </c>
       <c r="AK8" s="0">
-        <v>324.39975240348639</v>
+        <v>317.39334235240017</v>
       </c>
       <c r="AL8" s="0">
-        <v>322.76339314074772</v>
+        <v>315.25392743748824</v>
       </c>
       <c r="AM8" s="0">
-        <v>321.21278405303173</v>
+        <v>313.22227496291356</v>
       </c>
       <c r="AN8" s="0">
-        <v>319.74225427813042</v>
+        <v>311.29245452035872</v>
       </c>
       <c r="AO8" s="0">
-        <v>318.34660359126275</v>
+        <v>309.45910186031313</v>
       </c>
       <c r="AP8" s="0">
-        <v>317.02105766463791</v>
+        <v>307.71736256466727</v>
       </c>
       <c r="AQ8" s="0">
-        <v>315.76122468644991</v>
+        <v>306.06283256648419</v>
       </c>
       <c r="AR8" s="0">
-        <v>314.56306178880334</v>
+        <v>304.49151501450268</v>
       </c>
       <c r="AS8" s="0">
-        <v>313.42284250199066</v>
+        <v>302.99977604377955</v>
       </c>
       <c r="AT8" s="0">
-        <v>312.33712901400452</v>
+        <v>301.58430687576094</v>
       </c>
       <c r="AU8" s="0">
-        <v>311.30274425616125</v>
+        <v>300.24208943680435</v>
       </c>
       <c r="AV8" s="0">
-        <v>310.3167506051019</v>
+        <v>298.97036697670916</v>
       </c>
       <c r="AW8" s="0">
-        <v>309.37642825766778</v>
+        <v>297.76661557596742</v>
       </c>
       <c r="AX8" s="0">
-        <v>308.479256869827</v>
+        <v>296.62851761576223</v>
       </c>
       <c r="AY8" s="0">
-        <v>307.62289743158362</v>
+        <v>295.5539470607863</v>
       </c>
       <c r="AZ8" s="0">
-        <v>306.80517755959534</v>
+        <v>294.54094276283945</v>
       </c>
       <c r="BA8" s="0">
-        <v>306.02408033834161</v>
+        <v>293.58769238488134</v>
       </c>
       <c r="BB8" s="0">
-        <v>305.27772699225403</v>
+        <v>292.69251679754967</v>
       </c>
       <c r="BC8" s="0">
-        <v>304.56436531796351</v>
+        <v>291.85385575968155</v>
       </c>
       <c r="BD8" s="0">
-        <v>303.88236345738125</v>
+        <v>291.07025477449929</v>
       </c>
       <c r="BE8" s="0">
-        <v>303.23019767281454</v>
+        <v>290.34035330345006</v>
       </c>
       <c r="BF8" s="0">
-        <v>302.6064433840117</v>
+        <v>289.6628746743142</v>
       </c>
       <c r="BG8" s="0">
-        <v>302.00976801875692</v>
+        <v>289.03661596821991</v>
       </c>
       <c r="BH8" s="0">
-        <v>301.43892291144607</v>
+        <v>288.46043948227003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>447.58786780983286</v>
+        <v>684.12096129561371</v>
       </c>
       <c r="B9" s="0">
-        <v>616.86736560578026</v>
+        <v>650.03614726634953</v>
       </c>
       <c r="C9" s="0">
-        <v>586.64473001675572</v>
+        <v>619.62466023625984</v>
       </c>
       <c r="D9" s="0">
-        <v>559.4280673835907</v>
+        <v>592.27184264383936</v>
       </c>
       <c r="E9" s="0">
-        <v>535.82150049819586</v>
+        <v>567.60943135792184</v>
       </c>
       <c r="F9" s="0">
-        <v>515.16208582880438</v>
+        <v>545.34508021823194</v>
       </c>
       <c r="G9" s="0">
-        <v>496.94953280218999</v>
+        <v>525.22261021979398</v>
       </c>
       <c r="H9" s="0">
-        <v>480.79550551662265</v>
+        <v>507.01185291153445</v>
       </c>
       <c r="I9" s="0">
-        <v>466.39049561144719</v>
+        <v>490.50568242861385</v>
       </c>
       <c r="J9" s="0">
-        <v>453.48354206792555</v>
+        <v>475.51846007636425</v>
       </c>
       <c r="K9" s="0">
-        <v>441.86868212780229</v>
+        <v>461.88461661606061</v>
       </c>
       <c r="L9" s="0">
-        <v>431.3751568228559</v>
+        <v>449.4570942193385</v>
       </c>
       <c r="M9" s="0">
-        <v>421.86025338011626</v>
+        <v>438.10566089235317</v>
       </c>
       <c r="N9" s="0">
-        <v>413.20383675614499</v>
+        <v>427.71516357682634</v>
       </c>
       <c r="O9" s="0">
-        <v>405.30407101626975</v>
+        <v>418.18390935285129</v>
       </c>
       <c r="P9" s="0">
-        <v>398.07413473838454</v>
+        <v>409.42210213318992</v>
       </c>
       <c r="Q9" s="0">
-        <v>391.43957631071231</v>
+        <v>401.3504438833105</v>
       </c>
       <c r="R9" s="0">
-        <v>385.33623651894277</v>
+        <v>393.89887311810867</v>
       </c>
       <c r="S9" s="0">
-        <v>379.70852518145625</v>
+        <v>387.00544610708488</v>
       </c>
       <c r="T9" s="0">
-        <v>374.50808176581978</v>
+        <v>380.61534309612199</v>
       </c>
       <c r="U9" s="0">
-        <v>369.69264984227607</v>
+        <v>374.68000219993161</v>
       </c>
       <c r="V9" s="0">
-        <v>365.22515533285781</v>
+        <v>369.15636218373498</v>
       </c>
       <c r="W9" s="0">
-        <v>361.07291542229092</v>
+        <v>364.00619436922375</v>
       </c>
       <c r="X9" s="0">
-        <v>357.20709063912142</v>
+        <v>359.19552475075517</v>
       </c>
       <c r="Y9" s="0">
-        <v>353.60208612588201</v>
+        <v>354.69413381101793</v>
       </c>
       <c r="Z9" s="0">
-        <v>350.23514100580735</v>
+        <v>350.47510444059378</v>
       </c>
       <c r="AA9" s="0">
-        <v>347.08594561117121</v>
+        <v>346.51443899994075</v>
       </c>
       <c r="AB9" s="0">
-        <v>344.13632467290273</v>
+        <v>342.79071997453229</v>
       </c>
       <c r="AC9" s="0">
-        <v>341.36997997693976</v>
+        <v>339.28481313718476</v>
       </c>
       <c r="AD9" s="0">
-        <v>338.77225269094538</v>
+        <v>335.97960681870313</v>
       </c>
       <c r="AE9" s="0">
-        <v>336.32993254919671</v>
+        <v>332.85978296857002</v>
       </c>
       <c r="AF9" s="0">
-        <v>334.03108574974391</v>
+        <v>329.91161560523079</v>
       </c>
       <c r="AG9" s="0">
-        <v>331.86490724183039</v>
+        <v>327.12279335752521</v>
       </c>
       <c r="AH9" s="0">
-        <v>329.82160163099428</v>
+        <v>324.48226532886582</v>
       </c>
       <c r="AI9" s="0">
-        <v>327.89225732844915</v>
+        <v>321.98009534932447</v>
       </c>
       <c r="AJ9" s="0">
-        <v>326.06879239710526</v>
+        <v>319.60734719489409</v>
       </c>
       <c r="AK9" s="0">
-        <v>324.34379070847837</v>
+        <v>317.35597386028013</v>
       </c>
       <c r="AL9" s="0">
-        <v>322.71051610957892</v>
+        <v>315.21872178032237</v>
       </c>
       <c r="AM9" s="0">
-        <v>321.16279535581856</v>
+        <v>313.18904542095294</v>
       </c>
       <c r="AN9" s="0">
-        <v>319.69497409674489</v>
+        <v>311.2610318978181</v>
       </c>
       <c r="AO9" s="0">
-        <v>318.30186690350621</v>
+        <v>309.42933267686152</v>
       </c>
       <c r="AP9" s="0">
-        <v>316.9787126740444</v>
+        <v>307.68910744012567</v>
       </c>
       <c r="AQ9" s="0">
-        <v>315.72113176651061</v>
+        <v>306.03596479358441</v>
       </c>
       <c r="AR9" s="0">
-        <v>314.52509229741298</v>
+        <v>304.46591927911157</v>
       </c>
       <c r="AS9" s="0">
-        <v>313.38687777569282</v>
+        <v>302.97534728561243</v>
       </c>
       <c r="AT9" s="0">
-        <v>312.30305935938799</v>
+        <v>301.56094927095489</v>
       </c>
       <c r="AU9" s="0">
-        <v>311.27046827167243</v>
+        <v>300.21971548917844</v>
       </c>
       <c r="AV9" s="0">
-        <v>310.2861743898938</v>
+        <v>298.94889670277922</v>
       </c>
       <c r="AW9" s="0">
-        <v>309.34746475940352</v>
+        <v>297.74597577714701</v>
       </c>
       <c r="AX9" s="0">
-        <v>308.45182525218559</v>
+        <v>296.60864122970617</v>
       </c>
       <c r="AY9" s="0">
-        <v>307.5969226300038</v>
+        <v>295.53477256703917</v>
       </c>
       <c r="AZ9" s="0">
-        <v>306.7805898099864</v>
+        <v>294.52241366077271</v>
       </c>
       <c r="BA9" s="0">
-        <v>306.00081439269331</v>
+        <v>293.56975672197564</v>
       </c>
       <c r="BB9" s="0">
-        <v>305.25572195066832</v>
+        <v>292.67512674443174</v>
       </c>
       <c r="BC9" s="0">
-        <v>304.54356448325848</v>
+        <v>291.83696722757225</v>
       </c>
       <c r="BD9" s="0">
-        <v>303.86271371921259</v>
+        <v>291.05382707092298</v>
       </c>
       <c r="BE9" s="0">
-        <v>303.21164922358679</v>
+        <v>290.32434882197396</v>
       </c>
       <c r="BF9" s="0">
-        <v>302.58894950328471</v>
+        <v>289.64725861376184</v>
       </c>
       <c r="BG9" s="0">
-        <v>301.99328476901144</v>
+        <v>289.02135608018546</v>
       </c>
       <c r="BH9" s="0">
-        <v>301.42340894989559</v>
+        <v>288.44550584277198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>477.28115776626805</v>
+        <v>683.1179197167877</v>
       </c>
       <c r="B10" s="0">
-        <v>615.95988127869748</v>
+        <v>649.15751762126899</v>
       </c>
       <c r="C10" s="0">
-        <v>585.67099231448697</v>
+        <v>618.84245162543573</v>
       </c>
       <c r="D10" s="0">
-        <v>558.58660649553178</v>
+        <v>591.57273976554166</v>
       </c>
       <c r="E10" s="0">
-        <v>535.0877607908468</v>
+        <v>566.98393491433262</v>
       </c>
       <c r="F10" s="0">
-        <v>514.51709430284427</v>
+        <v>544.78515042834783</v>
       </c>
       <c r="G10" s="0">
-        <v>496.37880805051117</v>
+        <v>524.72107745853259</v>
       </c>
       <c r="H10" s="0">
-        <v>480.28762579728163</v>
+        <v>506.56226113068448</v>
       </c>
       <c r="I10" s="0">
-        <v>465.93626605393928</v>
+        <v>490.10223422790307</v>
       </c>
       <c r="J10" s="0">
-        <v>453.07545619532476</v>
+        <v>475.15597717534678</v>
       </c>
       <c r="K10" s="0">
-        <v>441.50054304634369</v>
+        <v>461.55849610328318</v>
       </c>
       <c r="L10" s="0">
-        <v>431.04180554763172</v>
+        <v>449.16325940294155</v>
       </c>
       <c r="M10" s="0">
-        <v>421.55736004111907</v>
+        <v>437.84050976158778</v>
       </c>
       <c r="N10" s="0">
-        <v>412.92774259094699</v>
+        <v>427.4755179622419</v>
       </c>
       <c r="O10" s="0">
-        <v>405.05166506491963</v>
+        <v>417.96696664136221</v>
       </c>
       <c r="P10" s="0">
-        <v>397.84275605218119</v>
+        <v>409.22539085774054</v>
       </c>
       <c r="Q10" s="0">
-        <v>391.22693813109288</v>
+        <v>401.1717836005455</v>
       </c>
       <c r="R10" s="0">
-        <v>385.14036005551162</v>
+        <v>393.73633865965849</v>
       </c>
       <c r="S10" s="0">
-        <v>379.52769328164476</v>
+        <v>386.85733601254697</v>
       </c>
       <c r="T10" s="0">
-        <v>374.34079777995157</v>
+        <v>380.48015192267729</v>
       </c>
       <c r="U10" s="0">
-        <v>369.53760147252086</v>
+        <v>374.55639631390159</v>
       </c>
       <c r="V10" s="0">
-        <v>365.0811869659056</v>
+        <v>369.04315863990143</v>
       </c>
       <c r="W10" s="0">
-        <v>360.939012219662</v>
+        <v>363.90234252235251</v>
       </c>
       <c r="X10" s="0">
-        <v>357.08235183796256</v>
+        <v>359.10009023653998</v>
       </c>
       <c r="Y10" s="0">
-        <v>353.48571165364262</v>
+        <v>354.60628457763755</v>
       </c>
       <c r="Z10" s="0">
-        <v>350.12641799952695</v>
+        <v>350.39409859470436</v>
       </c>
       <c r="AA10" s="0">
-        <v>346.98423691688362</v>
+        <v>346.43961419307988</v>
       </c>
       <c r="AB10" s="0">
-        <v>344.0410599037819</v>
+        <v>342.72148413343479</v>
       </c>
       <c r="AC10" s="0">
-        <v>341.28064667600017</v>
+        <v>339.22063635600364</v>
       </c>
       <c r="AD10" s="0">
-        <v>338.68838961836974</v>
+        <v>335.92001425847837</v>
       </c>
       <c r="AE10" s="0">
-        <v>336.2511233801996</v>
+        <v>332.80434862974414</v>
       </c>
       <c r="AF10" s="0">
-        <v>333.95695396702865</v>
+        <v>329.85995685850583</v>
       </c>
       <c r="AG10" s="0">
-        <v>331.79511193173454</v>
+        <v>327.07456613373881</v>
       </c>
       <c r="AH10" s="0">
-        <v>329.75583298811677</v>
+        <v>324.43715987791336</v>
       </c>
       <c r="AI10" s="0">
-        <v>327.83023491369403</v>
+        <v>321.93783251440618</v>
       </c>
       <c r="AJ10" s="0">
-        <v>326.01025745510702</v>
+        <v>319.56767510866916</v>
       </c>
       <c r="AK10" s="0">
-        <v>324.28851051961169</v>
+        <v>317.31866502775216</v>
       </c>
       <c r="AL10" s="0">
-        <v>322.6582765748829</v>
+        <v>315.18357049651928</v>
       </c>
       <c r="AM10" s="0">
-        <v>321.11340061033923</v>
+        <v>313.15586548229874</v>
       </c>
       <c r="AN10" s="0">
-        <v>319.64824472166015</v>
+        <v>311.22965457107102</v>
       </c>
       <c r="AO10" s="0">
-        <v>318.25763823064517</v>
+        <v>309.39960489660439</v>
       </c>
       <c r="AP10" s="0">
-        <v>316.93683323899654</v>
+        <v>307.66089019876051</v>
       </c>
       <c r="AQ10" s="0">
-        <v>315.681462232863</v>
+        <v>306.00913171872753</v>
       </c>
       <c r="AR10" s="0">
-        <v>314.48750428239543</v>
+        <v>304.4403553579358</v>
       </c>
       <c r="AS10" s="0">
-        <v>313.35125284792673</v>
+        <v>302.9509477291823</v>
       </c>
       <c r="AT10" s="0">
-        <v>312.26928804603153</v>
+        <v>301.53761850001172</v>
       </c>
       <c r="AU10" s="0">
-        <v>311.23844936756529</v>
+        <v>300.19736622823984</v>
       </c>
       <c r="AV10" s="0">
-        <v>310.25581417634402</v>
+        <v>298.92744916767731</v>
       </c>
       <c r="AW10" s="0">
-        <v>309.3186763537737</v>
+        <v>297.72535694946293</v>
       </c>
       <c r="AX10" s="0">
-        <v>308.42452798209411</v>
+        <v>296.5887842100887</v>
       </c>
       <c r="AY10" s="0">
-        <v>307.57104158022867</v>
+        <v>295.51561598264351</v>
       </c>
       <c r="AZ10" s="0">
-        <v>306.75605535123697</v>
+        <v>294.50390114476147</v>
       </c>
       <c r="BA10" s="0">
-        <v>305.97756143873391</v>
+        <v>293.55183644320249</v>
       </c>
       <c r="BB10" s="0">
-        <v>305.23368976466219</v>
+        <v>292.65775098372353</v>
       </c>
       <c r="BC10" s="0">
-        <v>304.52269650833313</v>
+        <v>291.82009199630306</v>
       </c>
       <c r="BD10" s="0">
-        <v>303.84295699673794</v>
+        <v>291.03741176771479</v>
       </c>
       <c r="BE10" s="0">
-        <v>303.19295410801232</v>
+        <v>290.30835592333165</v>
       </c>
       <c r="BF10" s="0">
-        <v>302.57126944053067</v>
+        <v>289.63165339408567</v>
       </c>
       <c r="BG10" s="0">
-        <v>301.97657599915505</v>
+        <v>289.00610636000181</v>
       </c>
       <c r="BH10" s="0">
-        <v>301.40763031491048</v>
+        <v>288.43058176102983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>502.39113775454945</v>
+        <v>682.11934891687417</v>
       </c>
       <c r="B11" s="0">
-        <v>615.02326711365743</v>
+        <v>648.28191750957239</v>
       </c>
       <c r="C11" s="0">
-        <v>584.70245336365679</v>
+        <v>618.06275665407134</v>
       </c>
       <c r="D11" s="0">
-        <v>557.74973645746343</v>
+        <v>590.87584085285528</v>
       </c>
       <c r="E11" s="0">
-        <v>534.35801966373913</v>
+        <v>566.36039728769015</v>
       </c>
       <c r="F11" s="0">
-        <v>513.87566371315779</v>
+        <v>544.22696453380649</v>
       </c>
       <c r="G11" s="0">
-        <v>495.81130238956933</v>
+        <v>524.2210952110413</v>
       </c>
       <c r="H11" s="0">
-        <v>479.78268806661822</v>
+        <v>506.11404567988774</v>
       </c>
       <c r="I11" s="0">
-        <v>465.48474802222779</v>
+        <v>489.70000630283317</v>
       </c>
       <c r="J11" s="0">
-        <v>452.66988628468937</v>
+        <v>474.79457555518047</v>
       </c>
       <c r="K11" s="0">
-        <v>441.13475152445648</v>
+        <v>461.23333365645237</v>
       </c>
       <c r="L11" s="0">
-        <v>430.71065468336423</v>
+        <v>448.87027379177374</v>
       </c>
       <c r="M11" s="0">
-        <v>421.2565370857875</v>
+        <v>437.57611186128861</v>
       </c>
       <c r="N11" s="0">
-        <v>412.65360269608385</v>
+        <v>427.23654105978096</v>
       </c>
       <c r="O11" s="0">
-        <v>404.8011086824398</v>
+        <v>417.75061824077255</v>
       </c>
       <c r="P11" s="0">
-        <v>397.61313173290273</v>
+        <v>409.02920838622657</v>
       </c>
       <c r="Q11" s="0">
-        <v>391.01596688369267</v>
+        <v>400.99359441204763</v>
       </c>
       <c r="R11" s="0">
-        <v>384.94606997625698</v>
+        <v>393.57422441080809</v>
       </c>
       <c r="S11" s="0">
-        <v>379.34837293588652</v>
+        <v>386.70960121309025</v>
       </c>
       <c r="T11" s="0">
-        <v>374.17495528301953</v>
+        <v>380.34529635229745</v>
       </c>
       <c r="U11" s="0">
-        <v>369.38392883771428</v>
+        <v>374.43309090972031</v>
       </c>
       <c r="V11" s="0">
-        <v>364.93853255644092</v>
+        <v>368.93022446052333</v>
       </c>
       <c r="W11" s="0">
-        <v>360.80636402872642</v>
+        <v>363.7987324334984</v>
       </c>
       <c r="X11" s="0">
-        <v>356.9588118577567</v>
+        <v>359.00487295647093</v>
       </c>
       <c r="Y11" s="0">
-        <v>353.37048222040079</v>
+        <v>354.5186307646415</v>
       </c>
       <c r="Z11" s="0">
-        <v>350.01878836966063</v>
+        <v>350.31326874139432</v>
       </c>
       <c r="AA11" s="0">
-        <v>346.88357182976915</v>
+        <v>346.36494805455862</v>
       </c>
       <c r="AB11" s="0">
-        <v>343.94679058789455</v>
+        <v>342.65239149367056</v>
       </c>
       <c r="AC11" s="0">
-        <v>341.19226212099511</v>
+        <v>339.15658895121817</v>
       </c>
       <c r="AD11" s="0">
-        <v>338.60542984813662</v>
+        <v>335.86053870356153</v>
       </c>
       <c r="AE11" s="0">
-        <v>336.17317320495437</v>
+        <v>332.74902021409594</v>
       </c>
       <c r="AF11" s="0">
-        <v>333.88363788150326</v>
+        <v>329.80839409711376</v>
       </c>
       <c r="AG11" s="0">
-        <v>331.72608988988901</v>
+        <v>327.02642597460562</v>
       </c>
       <c r="AH11" s="0">
-        <v>329.6907959927475</v>
+        <v>324.39213347625156</v>
       </c>
       <c r="AI11" s="0">
-        <v>327.76890308250506</v>
+        <v>321.89564152013958</v>
       </c>
       <c r="AJ11" s="0">
-        <v>325.95237292148386</v>
+        <v>319.52806837419161</v>
       </c>
       <c r="AK11" s="0">
-        <v>324.23384094616819</v>
+        <v>317.28141570093578</v>
       </c>
       <c r="AL11" s="0">
-        <v>322.60660836817186</v>
+        <v>315.14847344724029</v>
       </c>
       <c r="AM11" s="0">
-        <v>321.064538342346</v>
+        <v>313.1227350215737</v>
       </c>
       <c r="AN11" s="0">
-        <v>319.60200934801065</v>
+        <v>311.19832242680121</v>
       </c>
       <c r="AO11" s="0">
-        <v>318.21386541377836</v>
+        <v>309.36991841704082</v>
       </c>
       <c r="AP11" s="0">
-        <v>316.89537182246391</v>
+        <v>307.63271074777566</v>
       </c>
       <c r="AQ11" s="0">
-        <v>315.64217314853613</v>
+        <v>305.98233325783769</v>
       </c>
       <c r="AR11" s="0">
-        <v>314.45025938647359</v>
+        <v>304.41482317473429</v>
       </c>
       <c r="AS11" s="0">
-        <v>313.31593392221532</v>
+        <v>302.92657730529567</v>
       </c>
       <c r="AT11" s="0">
-        <v>312.23578581936272</v>
+        <v>301.51431450008278</v>
       </c>
       <c r="AU11" s="0">
-        <v>311.20666281411559</v>
+        <v>300.17504159685546</v>
       </c>
       <c r="AV11" s="0">
-        <v>310.22564974348847</v>
+        <v>298.90602431942011</v>
       </c>
       <c r="AW11" s="0">
-        <v>309.29004731351114</v>
+        <v>297.70475904557429</v>
       </c>
       <c r="AX11" s="0">
-        <v>308.39735381140667</v>
+        <v>296.56894651375899</v>
       </c>
       <c r="AY11" s="0">
-        <v>307.54524750037842</v>
+        <v>295.49647726822974</v>
       </c>
       <c r="AZ11" s="0">
-        <v>306.7315718567815</v>
+        <v>294.48540517884845</v>
       </c>
       <c r="BA11" s="0">
-        <v>305.9543235915018</v>
+        <v>293.53393151568389</v>
       </c>
       <c r="BB11" s="0">
-        <v>305.21163697755708</v>
+        <v>292.64038948533175</v>
       </c>
       <c r="BC11" s="0">
-        <v>304.50177235477281</v>
+        <v>291.8032300382925</v>
       </c>
       <c r="BD11" s="0">
-        <v>303.82310865924421</v>
+        <v>291.02100883956331</v>
       </c>
       <c r="BE11" s="0">
-        <v>303.17413209220496</v>
+        <v>290.29237458426013</v>
       </c>
       <c r="BF11" s="0">
-        <v>302.5534273482931</v>
+        <v>289.61605899387291</v>
       </c>
       <c r="BG11" s="0">
-        <v>301.95967023751814</v>
+        <v>288.99086678792628</v>
       </c>
       <c r="BH11" s="0">
-        <v>301.39161990026457</v>
+        <v>288.41566721880838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>523.58643159794292</v>
+        <v>681.12516431009271</v>
       </c>
       <c r="B12" s="0">
-        <v>614.06278821300327</v>
+        <v>647.40932445486226</v>
       </c>
       <c r="C12" s="0">
-        <v>583.73905522718837</v>
+        <v>617.2855646943035</v>
       </c>
       <c r="D12" s="0">
-        <v>556.91734675191879</v>
+        <v>590.18113844515301</v>
       </c>
       <c r="E12" s="0">
-        <v>533.63215352070927</v>
+        <v>565.73881217623762</v>
       </c>
       <c r="F12" s="0">
-        <v>513.23765929519027</v>
+        <v>543.6705168919309</v>
       </c>
       <c r="G12" s="0">
-        <v>495.24687233086433</v>
+        <v>523.72265837356679</v>
       </c>
       <c r="H12" s="0">
-        <v>479.2805425169546</v>
+        <v>505.66720196185594</v>
       </c>
       <c r="I12" s="0">
-        <v>465.03578749796355</v>
+        <v>489.29899454053083</v>
       </c>
       <c r="J12" s="0">
-        <v>452.26667588875256</v>
+        <v>474.43425155878151</v>
       </c>
       <c r="K12" s="0">
-        <v>440.77115011546374</v>
+        <v>460.90912603867798</v>
       </c>
       <c r="L12" s="0">
-        <v>430.38154696316855</v>
+        <v>448.57813452976785</v>
       </c>
       <c r="M12" s="0">
-        <v>420.9576283610624</v>
+        <v>437.31246467614659</v>
       </c>
       <c r="N12" s="0">
-        <v>412.38126277632432</v>
+        <v>426.99823065627658</v>
       </c>
       <c r="O12" s="0">
-        <v>404.55225002425755</v>
+        <v>417.53486220415408</v>
       </c>
       <c r="P12" s="0">
-        <v>397.38511285051362</v>
+        <v>408.83355300536874</v>
       </c>
       <c r="Q12" s="0">
-        <v>390.80651694141687</v>
+        <v>400.81587480907928</v>
       </c>
       <c r="R12" s="0">
-        <v>384.75322421683785</v>
+        <v>393.41252904164696</v>
       </c>
       <c r="S12" s="0">
-        <v>379.17042585915078</v>
+        <v>386.56224053508367</v>
       </c>
       <c r="T12" s="0">
-        <v>374.0104199506552</v>
+        <v>380.21077534795398</v>
       </c>
       <c r="U12" s="0">
-        <v>369.23150168406738</v>
+        <v>374.31008506983864</v>
       </c>
       <c r="V12" s="0">
-        <v>364.79706596810792</v>
+        <v>368.81755883265549</v>
       </c>
       <c r="W12" s="0">
-        <v>360.67484893726561</v>
+        <v>363.69536338140455</v>
       </c>
       <c r="X12" s="0">
-        <v>356.83635305378232</v>
+        <v>358.90987226976443</v>
       </c>
       <c r="Y12" s="0">
-        <v>353.25628447608091</v>
+        <v>354.43117180197964</v>
       </c>
       <c r="Z12" s="0">
-        <v>349.91214307428555</v>
+        <v>350.23261437287431</v>
       </c>
       <c r="AA12" s="0">
-        <v>346.78384561596067</v>
+        <v>346.2904401314691</v>
       </c>
       <c r="AB12" s="0">
-        <v>343.85341629897749</v>
+        <v>342.58344165078478</v>
       </c>
       <c r="AC12" s="0">
-        <v>341.10473018404826</v>
+        <v>339.0926705612124</v>
       </c>
       <c r="AD12" s="0">
-        <v>338.52328153912475</v>
+        <v>335.801179830264</v>
       </c>
       <c r="AE12" s="0">
-        <v>336.09599445208215</v>
+        <v>332.69379743156367</v>
       </c>
       <c r="AF12" s="0">
-        <v>333.81105417160393</v>
+        <v>329.75692706084698</v>
       </c>
       <c r="AG12" s="0">
-        <v>331.65776202698271</v>
+        <v>326.97837264645705</v>
       </c>
       <c r="AH12" s="0">
-        <v>329.62641576443201</v>
+        <v>324.34718591383142</v>
       </c>
       <c r="AI12" s="0">
-        <v>327.70819115932943</v>
+        <v>321.85352217752609</v>
       </c>
       <c r="AJ12" s="0">
-        <v>325.89507227180525</v>
+        <v>319.48852682124385</v>
       </c>
       <c r="AK12" s="0">
-        <v>324.17971961439684</v>
+        <v>317.24422572638463</v>
       </c>
       <c r="AL12" s="0">
-        <v>322.55545324403545</v>
+        <v>315.11343049403803</v>
       </c>
       <c r="AM12" s="0">
-        <v>321.01615441481817</v>
+        <v>313.08965391375483</v>
       </c>
       <c r="AN12" s="0">
-        <v>319.55621792972408</v>
+        <v>311.16703535200975</v>
       </c>
       <c r="AO12" s="0">
-        <v>318.17050248136081</v>
+        <v>309.34027313595368</v>
       </c>
       <c r="AP12" s="0">
-        <v>316.85428651016906</v>
+        <v>307.60456899463247</v>
       </c>
       <c r="AQ12" s="0">
-        <v>315.60322664102517</v>
+        <v>305.95556932706546</v>
       </c>
       <c r="AR12" s="0">
-        <v>314.4133237644549</v>
+        <v>304.3893226534712</v>
       </c>
       <c r="AS12" s="0">
-        <v>313.28089116727034</v>
+        <v>302.90223594494711</v>
       </c>
       <c r="AT12" s="0">
-        <v>312.20252684835549</v>
+        <v>301.49103720848899</v>
       </c>
       <c r="AU12" s="0">
-        <v>311.17508676829999</v>
+        <v>300.15274153804353</v>
       </c>
       <c r="AV12" s="0">
-        <v>310.19566322466386</v>
+        <v>298.88462210616149</v>
       </c>
       <c r="AW12" s="0">
-        <v>309.26156373734625</v>
+        <v>297.68418201826665</v>
       </c>
       <c r="AX12" s="0">
-        <v>308.370292793472</v>
+        <v>296.54912809767887</v>
       </c>
       <c r="AY12" s="0">
-        <v>307.51953438894014</v>
+        <v>295.47735638452718</v>
       </c>
       <c r="AZ12" s="0">
-        <v>306.70713726221265</v>
+        <v>294.46692572716756</v>
       </c>
       <c r="BA12" s="0">
-        <v>305.93110271300094</v>
+        <v>293.51604190662704</v>
       </c>
       <c r="BB12" s="0">
-        <v>305.18956936718507</v>
+        <v>292.62304221923659</v>
       </c>
       <c r="BC12" s="0">
-        <v>304.48080170834947</v>
+        <v>291.78638132602833</v>
       </c>
       <c r="BD12" s="0">
-        <v>303.80318229184911</v>
+        <v>291.00461826121898</v>
       </c>
       <c r="BE12" s="0">
-        <v>303.15520065153584</v>
+        <v>290.27640478155558</v>
       </c>
       <c r="BF12" s="0">
-        <v>302.53544458329901</v>
+        <v>289.6004753917648</v>
       </c>
       <c r="BG12" s="0">
-        <v>301.94259271285193</v>
+        <v>288.97563734426706</v>
       </c>
       <c r="BH12" s="0">
-        <v>301.37540679743779</v>
+        <v>288.40076219791575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>541.44144507305862</v>
+        <v>680.13528579918591</v>
       </c>
       <c r="B13" s="0">
-        <v>613.08291852427544</v>
+        <v>646.5397166968454</v>
       </c>
       <c r="C13" s="0">
-        <v>582.78074267233296</v>
+        <v>616.51086528772692</v>
       </c>
       <c r="D13" s="0">
-        <v>556.08933903274817</v>
+        <v>589.48862513274344</v>
       </c>
       <c r="E13" s="0">
-        <v>532.91005371662686</v>
+        <v>565.11917330002063</v>
       </c>
       <c r="F13" s="0">
-        <v>512.60296334697546</v>
+        <v>543.11580187493746</v>
       </c>
       <c r="G13" s="0">
-        <v>494.68539299833969</v>
+        <v>523.22576185585922</v>
       </c>
       <c r="H13" s="0">
-        <v>478.78105903114636</v>
+        <v>505.22172539243394</v>
       </c>
       <c r="I13" s="0">
-        <v>464.58925084814888</v>
+        <v>488.89919484078121</v>
       </c>
       <c r="J13" s="0">
-        <v>451.86568933220701</v>
+        <v>474.0750015409721</v>
       </c>
       <c r="K13" s="0">
-        <v>440.40960229182394</v>
+        <v>460.58587002402038</v>
       </c>
       <c r="L13" s="0">
-        <v>430.05434599558117</v>
+        <v>448.28683877075855</v>
       </c>
       <c r="M13" s="0">
-        <v>420.66049839850893</v>
+        <v>437.04956569969318</v>
       </c>
       <c r="N13" s="0">
-        <v>412.11058891655699</v>
+        <v>426.76058454638934</v>
       </c>
       <c r="O13" s="0">
-        <v>404.30495723374554</v>
+        <v>417.31969659146893</v>
       </c>
       <c r="P13" s="0">
-        <v>397.15857000459783</v>
+        <v>408.63842300792845</v>
       </c>
       <c r="Q13" s="0">
-        <v>390.59846169554748</v>
+        <v>400.63862328818584</v>
       </c>
       <c r="R13" s="0">
-        <v>384.56169918654308</v>
+        <v>393.25125122688229</v>
       </c>
       <c r="S13" s="0">
-        <v>378.99373166921117</v>
+        <v>386.41525280893262</v>
       </c>
       <c r="T13" s="0">
-        <v>373.84707477030469</v>
+        <v>380.07658787614582</v>
       </c>
       <c r="U13" s="0">
-        <v>369.08020646872416</v>
+        <v>374.18737787979359</v>
       </c>
       <c r="V13" s="0">
-        <v>364.6566771734847</v>
+        <v>368.70516094605472</v>
       </c>
       <c r="W13" s="0">
-        <v>360.54436053162448</v>
+        <v>363.59223464718252</v>
       </c>
       <c r="X13" s="0">
-        <v>356.71487266961799</v>
+        <v>358.81508753771874</v>
       </c>
       <c r="Y13" s="0">
-        <v>353.14301935100286</v>
+        <v>354.34390712142914</v>
       </c>
       <c r="Z13" s="0">
-        <v>349.80638674814634</v>
+        <v>350.15213498296259</v>
       </c>
       <c r="AA13" s="0">
-        <v>346.68496662045175</v>
+        <v>346.21608997232499</v>
       </c>
       <c r="AB13" s="0">
-        <v>343.76084909773039</v>
+        <v>342.51463420157785</v>
       </c>
       <c r="AC13" s="0">
-        <v>341.01796663927502</v>
+        <v>339.02888082547867</v>
       </c>
       <c r="AD13" s="0">
-        <v>338.44186417434804</v>
+        <v>335.74193731587985</v>
       </c>
       <c r="AE13" s="0">
-        <v>336.01951030411732</v>
+        <v>332.63867999295769</v>
       </c>
       <c r="AF13" s="0">
-        <v>333.73912970729737</v>
+        <v>329.70555549027267</v>
       </c>
       <c r="AG13" s="0">
-        <v>331.59005889021932</v>
+        <v>326.93040591631285</v>
       </c>
       <c r="AH13" s="0">
-        <v>329.5626265121137</v>
+        <v>324.30231698121867</v>
       </c>
       <c r="AI13" s="0">
-        <v>327.64803701623333</v>
+        <v>321.81147429811568</v>
       </c>
       <c r="AJ13" s="0">
-        <v>325.83829699866834</v>
+        <v>319.44905028009822</v>
       </c>
       <c r="AK13" s="0">
-        <v>324.12609164149762</v>
+        <v>317.2070949510931</v>
       </c>
       <c r="AL13" s="0">
-        <v>322.50475992889807</v>
+        <v>315.07844149885699</v>
       </c>
       <c r="AM13" s="0">
-        <v>320.96820114991868</v>
+        <v>313.05662203416745</v>
       </c>
       <c r="AN13" s="0">
-        <v>319.51082637321662</v>
+        <v>311.13579323401183</v>
       </c>
       <c r="AO13" s="0">
-        <v>318.12750891326908</v>
+        <v>309.31066895141021</v>
       </c>
       <c r="AP13" s="0">
-        <v>316.81354034370645</v>
+        <v>307.57646484704458</v>
       </c>
       <c r="AQ13" s="0">
-        <v>315.56458930324976</v>
+        <v>305.9288398427928</v>
       </c>
       <c r="AR13" s="0">
-        <v>314.37666755089282</v>
+        <v>304.36385371831869</v>
       </c>
       <c r="AS13" s="0">
-        <v>313.24609825031376</v>
+        <v>302.877923579315</v>
       </c>
       <c r="AT13" s="0">
-        <v>312.1694883235196</v>
+        <v>301.46778656271761</v>
       </c>
       <c r="AU13" s="0">
-        <v>311.14370193554885</v>
+        <v>300.13046599497352</v>
       </c>
       <c r="AV13" s="0">
-        <v>310.16583883219994</v>
+        <v>298.86324247619194</v>
       </c>
       <c r="AW13" s="0">
-        <v>309.23321333687466</v>
+        <v>297.66362582044718</v>
       </c>
       <c r="AX13" s="0">
-        <v>308.34333613148817</v>
+        <v>296.52932891892124</v>
       </c>
       <c r="AY13" s="0">
-        <v>307.49389693399081</v>
+        <v>295.45825329237141</v>
       </c>
       <c r="AZ13" s="0">
-        <v>306.68274973484307</v>
+        <v>294.44846275394593</v>
       </c>
       <c r="BA13" s="0">
-        <v>305.90790044157995</v>
+        <v>293.49816758332253</v>
       </c>
       <c r="BB13" s="0">
-        <v>305.16749203463428</v>
+        <v>292.60570915549783</v>
       </c>
       <c r="BC13" s="0">
-        <v>304.45979312677343</v>
+        <v>291.76954583206879</v>
       </c>
       <c r="BD13" s="0">
-        <v>303.78318990194788</v>
+        <v>290.98824000749795</v>
       </c>
       <c r="BE13" s="0">
-        <v>303.13617523550579</v>
+        <v>290.26044649207086</v>
       </c>
       <c r="BF13" s="0">
-        <v>302.51734002955732</v>
+        <v>289.58490256645632</v>
       </c>
       <c r="BG13" s="0">
-        <v>301.92536573548915</v>
+        <v>288.96041800937792</v>
       </c>
       <c r="BH13" s="0">
-        <v>301.35901673474467</v>
+        <v>288.38586668020605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>556.44860765664316</v>
+        <v>679.14963746101193</v>
       </c>
       <c r="B14" s="0">
-        <v>612.08745843076815</v>
+        <v>645.67307315559765</v>
       </c>
       <c r="C14" s="0">
-        <v>581.82746286189581</v>
+        <v>615.73864813830983</v>
       </c>
       <c r="D14" s="0">
-        <v>555.26562539948418</v>
+        <v>588.7982935551712</v>
       </c>
       <c r="E14" s="0">
-        <v>532.191624428968</v>
+        <v>564.50147440047442</v>
       </c>
       <c r="F14" s="0">
-        <v>511.97147280793757</v>
+        <v>542.56281386985165</v>
       </c>
       <c r="G14" s="0">
-        <v>494.1267555015516</v>
+        <v>522.7304005811626</v>
       </c>
       <c r="H14" s="0">
-        <v>478.28412442081117</v>
+        <v>504.77761140059869</v>
       </c>
       <c r="I14" s="0">
-        <v>464.14502198446218</v>
+        <v>488.50060311601851</v>
       </c>
       <c r="J14" s="0">
-        <v>451.46680883618563</v>
+        <v>473.71682186846232</v>
       </c>
       <c r="K14" s="0">
-        <v>440.04998956824005</v>
+        <v>460.26356239746769</v>
       </c>
       <c r="L14" s="0">
-        <v>429.72893341236028</v>
+        <v>447.99638367845466</v>
       </c>
       <c r="M14" s="0">
-        <v>420.36502960633442</v>
+        <v>436.7874124342743</v>
       </c>
       <c r="N14" s="0">
-        <v>411.84146483263686</v>
+        <v>426.52360053258116</v>
       </c>
       <c r="O14" s="0">
-        <v>404.05911576273451</v>
+        <v>417.10511946954267</v>
       </c>
       <c r="P14" s="0">
-        <v>396.9333907222952</v>
+        <v>408.44381669268557</v>
       </c>
       <c r="Q14" s="0">
-        <v>390.39169103697157</v>
+        <v>400.46183835117904</v>
       </c>
       <c r="R14" s="0">
-        <v>384.37138733603626</v>
+        <v>393.09038964582356</v>
       </c>
       <c r="S14" s="0">
-        <v>378.81818554311923</v>
+        <v>386.26863686906137</v>
       </c>
       <c r="T14" s="0">
-        <v>373.68481778783922</v>
+        <v>379.94273290688557</v>
       </c>
       <c r="U14" s="0">
-        <v>368.92994419657964</v>
+        <v>374.06496842819348</v>
       </c>
       <c r="V14" s="0">
-        <v>364.51727018009802</v>
+        <v>368.59302999316759</v>
       </c>
       <c r="W14" s="0">
-        <v>360.41480591184387</v>
+        <v>363.48934551430381</v>
       </c>
       <c r="X14" s="0">
-        <v>356.59428094026782</v>
+        <v>358.72051812370211</v>
       </c>
       <c r="Y14" s="0">
-        <v>353.03060024562598</v>
+        <v>354.25683615658977</v>
       </c>
       <c r="Z14" s="0">
-        <v>349.70143597746028</v>
+        <v>350.07183006708328</v>
       </c>
       <c r="AA14" s="0">
-        <v>346.58685462521964</v>
+        <v>346.14189712705331</v>
       </c>
       <c r="AB14" s="0">
-        <v>343.66901197156483</v>
+        <v>342.44596874409973</v>
       </c>
       <c r="AC14" s="0">
-        <v>340.93189768238807</v>
+        <v>338.96521938461666</v>
       </c>
       <c r="AD14" s="0">
-        <v>338.36110715866272</v>
+        <v>335.68281083868334</v>
       </c>
       <c r="AE14" s="0">
-        <v>335.94365337155239</v>
+        <v>332.58366760995801</v>
       </c>
       <c r="AF14" s="0">
-        <v>333.66780029870756</v>
+        <v>329.65427912673016</v>
       </c>
       <c r="AG14" s="0">
-        <v>331.52291948487772</v>
+        <v>326.88252555188149</v>
       </c>
       <c r="AH14" s="0">
-        <v>329.49937042694893</v>
+        <v>324.25752646959387</v>
       </c>
       <c r="AI14" s="0">
-        <v>327.58838603565152</v>
+        <v>321.76949769400551</v>
       </c>
       <c r="AJ14" s="0">
-        <v>325.78199564238872</v>
+        <v>319.40963858151309</v>
       </c>
       <c r="AK14" s="0">
-        <v>324.07290873310592</v>
+        <v>317.17002322249056</v>
       </c>
       <c r="AL14" s="0">
-        <v>322.45448328389239</v>
+        <v>315.04350632403276</v>
       </c>
       <c r="AM14" s="0">
-        <v>320.92063655594865</v>
+        <v>313.02363925848999</v>
       </c>
       <c r="AN14" s="0">
-        <v>319.46579582721273</v>
+        <v>311.10459596043876</v>
       </c>
       <c r="AO14" s="0">
-        <v>318.08484899234196</v>
+        <v>309.28110576175698</v>
       </c>
       <c r="AP14" s="0">
-        <v>316.77310073270877</v>
+        <v>307.54839821298123</v>
       </c>
       <c r="AQ14" s="0">
-        <v>315.52623166532652</v>
+        <v>305.90214472162842</v>
       </c>
       <c r="AR14" s="0">
-        <v>314.34026439052343</v>
+        <v>304.33841629365384</v>
       </c>
       <c r="AS14" s="0">
-        <v>313.21153192529738</v>
+        <v>302.8536401397651</v>
       </c>
       <c r="AT14" s="0">
-        <v>312.13665010207507</v>
+        <v>301.44456250042373</v>
       </c>
       <c r="AU14" s="0">
-        <v>311.11249127112313</v>
+        <v>300.10821491096749</v>
       </c>
       <c r="AV14" s="0">
-        <v>310.13616261429576</v>
+        <v>298.84188537793966</v>
       </c>
       <c r="AW14" s="0">
-        <v>309.20498524829958</v>
+        <v>297.64309040514951</v>
       </c>
       <c r="AX14" s="0">
-        <v>308.31647604452343</v>
+        <v>296.50954893467309</v>
       </c>
       <c r="AY14" s="0">
-        <v>307.46833043298028</v>
+        <v>295.43916795269598</v>
       </c>
       <c r="AZ14" s="0">
-        <v>306.65840764679939</v>
+        <v>294.43001622350204</v>
       </c>
       <c r="BA14" s="0">
-        <v>305.88471821790392</v>
+        <v>293.48030851314599</v>
       </c>
       <c r="BB14" s="0">
-        <v>305.14540948270485</v>
+        <v>292.5883902642496</v>
       </c>
       <c r="BC14" s="0">
-        <v>304.43875417033206</v>
+        <v>291.75272352904153</v>
       </c>
       <c r="BD14" s="0">
-        <v>303.76314210176412</v>
+        <v>290.97187405327901</v>
       </c>
       <c r="BE14" s="0">
-        <v>303.11706950198561</v>
+        <v>290.24449969271888</v>
       </c>
       <c r="BF14" s="0">
-        <v>302.49913038410187</v>
+        <v>289.56934049669434</v>
       </c>
       <c r="BG14" s="0">
-        <v>301.90800903445501</v>
+        <v>288.94520876366357</v>
       </c>
       <c r="BH14" s="0">
-        <v>301.34247246571636</v>
+        <v>288.37098064757834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>569.0293788670939</v>
+        <v>678.1681472635388</v>
       </c>
       <c r="B15" s="0">
-        <v>611.07963488835742</v>
+        <v>644.8093733978526</v>
       </c>
       <c r="C15" s="0">
-        <v>580.87916508831142</v>
+        <v>614.96890310565311</v>
       </c>
       <c r="D15" s="0">
-        <v>554.44612692165401</v>
+        <v>588.11013639959049</v>
       </c>
       <c r="E15" s="0">
-        <v>531.47678083572578</v>
+        <v>563.88570924003352</v>
       </c>
       <c r="F15" s="0">
-        <v>511.34309718355951</v>
+        <v>542.01154727843391</v>
       </c>
       <c r="G15" s="0">
-        <v>493.57086468123345</v>
+        <v>522.23656948620896</v>
       </c>
       <c r="H15" s="0">
-        <v>477.78964005316311</v>
+        <v>504.33485542845921</v>
       </c>
       <c r="I15" s="0">
-        <v>463.70299991935758</v>
+        <v>488.10321529131318</v>
       </c>
       <c r="J15" s="0">
-        <v>451.06993204150371</v>
+        <v>473.35970891982794</v>
       </c>
       <c r="K15" s="0">
-        <v>439.69220902093673</v>
+        <v>459.94219995490795</v>
       </c>
       <c r="L15" s="0">
-        <v>429.40520640636396</v>
+        <v>447.70676642641223</v>
       </c>
       <c r="M15" s="0">
-        <v>420.07111984286877</v>
+        <v>436.52600239102401</v>
       </c>
       <c r="N15" s="0">
-        <v>411.57378949326977</v>
+        <v>426.28727642508835</v>
       </c>
       <c r="O15" s="0">
-        <v>403.81462605134283</v>
+        <v>416.89112891204257</v>
       </c>
       <c r="P15" s="0">
-        <v>396.7094772029879</v>
+        <v>408.24973236441713</v>
       </c>
       <c r="Q15" s="0">
-        <v>390.18610917101074</v>
+        <v>400.28551850511678</v>
       </c>
       <c r="R15" s="0">
-        <v>384.18219504531521</v>
+        <v>392.92994298236471</v>
       </c>
       <c r="S15" s="0">
-        <v>378.64369618039245</v>
+        <v>386.12239155390063</v>
       </c>
       <c r="T15" s="0">
-        <v>373.52356014740093</v>
+        <v>379.80920941368669</v>
       </c>
       <c r="U15" s="0">
-        <v>368.78062853703824</v>
+        <v>373.94285580671135</v>
       </c>
       <c r="V15" s="0">
-        <v>364.37876122335132</v>
+        <v>368.48116516912376</v>
       </c>
       <c r="W15" s="0">
-        <v>360.28610396087566</v>
+        <v>363.38669526859024</v>
       </c>
       <c r="X15" s="0">
-        <v>356.47449943684188</v>
+        <v>358.62616339314729</v>
       </c>
       <c r="Y15" s="0">
-        <v>352.91895144964451</v>
+        <v>354.16995834287638</v>
       </c>
       <c r="Z15" s="0">
-        <v>349.59721779221275</v>
+        <v>349.99169912225869</v>
       </c>
       <c r="AA15" s="0">
-        <v>346.48943941333334</v>
+        <v>346.06786114699293</v>
       </c>
       <c r="AB15" s="0">
-        <v>343.57783746918119</v>
+        <v>342.37744487764593</v>
       </c>
       <c r="AC15" s="0">
-        <v>340.8464586343112</v>
+        <v>338.90168588032719</v>
       </c>
       <c r="AD15" s="0">
-        <v>338.28094859000697</v>
+        <v>335.6238000779249</v>
       </c>
       <c r="AE15" s="0">
-        <v>335.86836453025785</v>
+        <v>332.5287599951107</v>
       </c>
       <c r="AF15" s="0">
-        <v>333.59700959828189</v>
+        <v>329.60309771232954</v>
       </c>
       <c r="AG15" s="0">
-        <v>331.45629023987334</v>
+        <v>326.83473132155558</v>
       </c>
       <c r="AH15" s="0">
-        <v>329.43659670989081</v>
+        <v>324.21281417074619</v>
       </c>
       <c r="AI15" s="0">
-        <v>327.52919019891692</v>
+        <v>321.72759217783579</v>
       </c>
       <c r="AJ15" s="0">
-        <v>325.726122938804</v>
+        <v>319.37029155673611</v>
       </c>
       <c r="AK15" s="0">
-        <v>324.02012838943887</v>
+        <v>317.13301038844241</v>
       </c>
       <c r="AL15" s="0">
-        <v>322.40458356818505</v>
+        <v>315.00862483229099</v>
       </c>
       <c r="AM15" s="0">
-        <v>320.87342364676027</v>
+        <v>312.99070546274714</v>
       </c>
       <c r="AN15" s="0">
-        <v>319.42109205724068</v>
+        <v>311.0734434192313</v>
       </c>
       <c r="AO15" s="0">
-        <v>318.04249123300991</v>
+        <v>309.2515834656254</v>
       </c>
       <c r="AP15" s="0">
-        <v>316.73293893669768</v>
+        <v>307.52036900066321</v>
       </c>
       <c r="AQ15" s="0">
-        <v>315.48812772879734</v>
+        <v>305.8754838804096</v>
       </c>
       <c r="AR15" s="0">
-        <v>314.30409102407782</v>
+        <v>304.31301030405854</v>
       </c>
       <c r="AS15" s="0">
-        <v>313.17717166956828</v>
+        <v>302.82938555784648</v>
       </c>
       <c r="AT15" s="0">
-        <v>312.10399439478044</v>
+        <v>301.42136495942992</v>
       </c>
       <c r="AU15" s="0">
-        <v>311.08143971647019</v>
+        <v>300.08598822949682</v>
       </c>
       <c r="AV15" s="0">
-        <v>310.10662224032086</v>
+        <v>298.82055075996857</v>
       </c>
       <c r="AW15" s="0">
-        <v>309.17686986614279</v>
+        <v>297.62257572552875</v>
       </c>
       <c r="AX15" s="0">
-        <v>308.28970564914869</v>
+        <v>296.48978810223292</v>
       </c>
       <c r="AY15" s="0">
-        <v>307.44283072184834</v>
+        <v>295.42010032653758</v>
       </c>
       <c r="AZ15" s="0">
-        <v>306.63410955124539</v>
+        <v>294.41158610024758</v>
       </c>
       <c r="BA15" s="0">
-        <v>305.86155730791194</v>
+        <v>293.46246466355564</v>
       </c>
       <c r="BB15" s="0">
-        <v>305.12332568527387</v>
+        <v>292.57108551570371</v>
       </c>
       <c r="BC15" s="0">
-        <v>304.41769151739902</v>
+        <v>291.73591438964331</v>
       </c>
       <c r="BD15" s="0">
-        <v>303.74304826977772</v>
+        <v>290.95552037350444</v>
       </c>
       <c r="BE15" s="0">
-        <v>303.09789552436223</v>
+        <v>290.22856436046897</v>
       </c>
       <c r="BF15" s="0">
-        <v>302.48083040970477</v>
+        <v>289.55378916127938</v>
       </c>
       <c r="BG15" s="0">
-        <v>301.89054005562127</v>
+        <v>288.93000958757767</v>
       </c>
       <c r="BH15" s="0">
-        <v>301.32579411261048</v>
+        <v>288.35610408197533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>579.54401027187214</v>
+        <v>677.19074680674396</v>
       </c>
       <c r="B16" s="0">
-        <v>610.06218669807276</v>
+        <v>643.94859760517772</v>
       </c>
       <c r="C16" s="0">
-        <v>579.93580054438178</v>
+        <v>614.20162019855604</v>
       </c>
       <c r="D16" s="0">
-        <v>553.63077237673383</v>
+        <v>587.42414639920844</v>
       </c>
       <c r="E16" s="0">
-        <v>530.76544755551765</v>
+        <v>563.27187160175254</v>
       </c>
       <c r="F16" s="0">
-        <v>510.71775676648986</v>
+        <v>541.46199651710583</v>
       </c>
       <c r="G16" s="0">
-        <v>493.01763717445442</v>
+        <v>521.74426352121395</v>
       </c>
       <c r="H16" s="0">
-        <v>477.29751981175855</v>
+        <v>503.89345293125098</v>
       </c>
       <c r="I16" s="0">
-        <v>463.26309666352341</v>
+        <v>487.7070273043621</v>
       </c>
       <c r="J16" s="0">
-        <v>450.67496987537896</v>
+        <v>473.00365908549327</v>
       </c>
       <c r="K16" s="0">
-        <v>439.33617114855923</v>
+        <v>459.62177950310638</v>
       </c>
       <c r="L16" s="0">
-        <v>429.0830756061805</v>
+        <v>447.41798419800529</v>
       </c>
       <c r="M16" s="0">
-        <v>419.77868031971565</v>
+        <v>436.26533308983346</v>
       </c>
       <c r="N16" s="0">
-        <v>411.3074750628715</v>
+        <v>426.05161004189631</v>
       </c>
       <c r="O16" s="0">
-        <v>403.5714015189688</v>
+        <v>416.67772299945329</v>
       </c>
       <c r="P16" s="0">
-        <v>396.48674436356617</v>
+        <v>408.05616833387552</v>
       </c>
       <c r="Q16" s="0">
-        <v>389.98163272170041</v>
+        <v>400.10966226228368</v>
       </c>
       <c r="R16" s="0">
-        <v>383.99404078976573</v>
+        <v>392.76990992496758</v>
       </c>
       <c r="S16" s="0">
-        <v>378.47018403283266</v>
+        <v>385.97651570587226</v>
       </c>
       <c r="T16" s="0">
-        <v>373.36322438636847</v>
+        <v>379.6760163735504</v>
       </c>
       <c r="U16" s="0">
-        <v>368.63218418450225</v>
+        <v>373.82103911006971</v>
       </c>
       <c r="V16" s="0">
-        <v>364.24107719205807</v>
+        <v>368.36956567172416</v>
       </c>
       <c r="W16" s="0">
-        <v>360.15818383539749</v>
+        <v>363.28428319820767</v>
       </c>
       <c r="X16" s="0">
-        <v>356.35545962206521</v>
+        <v>358.5320227135449</v>
       </c>
       <c r="Y16" s="0">
-        <v>352.80800676141757</v>
+        <v>354.08327311751276</v>
       </c>
       <c r="Z16" s="0">
-        <v>349.49366834855402</v>
+        <v>349.91174164710395</v>
       </c>
       <c r="AA16" s="0">
-        <v>346.39265951324097</v>
+        <v>345.99398158488697</v>
       </c>
       <c r="AB16" s="0">
-        <v>343.48726650567653</v>
+        <v>342.30906220275409</v>
       </c>
       <c r="AC16" s="0">
-        <v>340.76159280596704</v>
+        <v>338.8382799554106</v>
       </c>
       <c r="AD16" s="0">
-        <v>338.20133418272394</v>
+        <v>335.56490471382898</v>
       </c>
       <c r="AE16" s="0">
-        <v>335.79359190217241</v>
+        <v>332.47395686182614</v>
       </c>
       <c r="AF16" s="0">
-        <v>333.5267081376889</v>
+        <v>329.55201098994763</v>
       </c>
       <c r="AG16" s="0">
-        <v>331.39012409976027</v>
+        <v>326.7870229944113</v>
       </c>
       <c r="AH16" s="0">
-        <v>329.37426071766464</v>
+        <v>324.16817987707259</v>
       </c>
       <c r="AI16" s="0">
-        <v>327.47040728533881</v>
+        <v>321.68575756279063</v>
       </c>
       <c r="AJ16" s="0">
-        <v>325.67063907006127</v>
+        <v>319.33100903749624</v>
       </c>
       <c r="AK16" s="0">
-        <v>323.9677132070388</v>
+        <v>317.09605629724604</v>
       </c>
       <c r="AL16" s="0">
-        <v>322.35502579070959</v>
+        <v>314.9737968867442</v>
       </c>
       <c r="AM16" s="0">
-        <v>320.82652984258635</v>
+        <v>312.95782052331299</v>
       </c>
       <c r="AN16" s="0">
-        <v>319.37668489472281</v>
+        <v>311.0423354986454</v>
       </c>
       <c r="AO16" s="0">
-        <v>318.00040787786361</v>
+        <v>309.2221019619243</v>
       </c>
       <c r="AP16" s="0">
-        <v>316.69302960837013</v>
+        <v>307.49237711856284</v>
       </c>
       <c r="AQ16" s="0">
-        <v>315.4502545559323</v>
+        <v>305.84885723619965</v>
       </c>
       <c r="AR16" s="0">
-        <v>314.26812692294902</v>
+        <v>304.28763567431918</v>
       </c>
       <c r="AS16" s="0">
-        <v>313.14299936329013</v>
+        <v>302.80515976529369</v>
       </c>
       <c r="AT16" s="0">
-        <v>312.07150548952956</v>
+        <v>301.39819387772394</v>
       </c>
       <c r="AU16" s="0">
-        <v>311.05053396646696</v>
+        <v>300.06378589418387</v>
       </c>
       <c r="AV16" s="0">
-        <v>310.07720681122129</v>
+        <v>298.79923857097839</v>
       </c>
       <c r="AW16" s="0">
-        <v>309.14885869636612</v>
+        <v>297.6020817348633</v>
       </c>
       <c r="AX16" s="0">
-        <v>308.26301885486026</v>
+        <v>296.47004637900943</v>
       </c>
       <c r="AY16" s="0">
-        <v>307.41739411238649</v>
+        <v>295.40105037503417</v>
       </c>
       <c r="AZ16" s="0">
-        <v>306.60985416136629</v>
+        <v>294.39317234868685</v>
       </c>
       <c r="BA16" s="0">
-        <v>305.83841882310895</v>
+        <v>293.44463600209497</v>
       </c>
       <c r="BB16" s="0">
-        <v>305.10124414861616</v>
+        <v>292.55379488014677</v>
       </c>
       <c r="BC16" s="0">
-        <v>304.396611066567</v>
+        <v>291.71911838664039</v>
       </c>
       <c r="BD16" s="0">
-        <v>303.72291669347112</v>
+        <v>290.93917894317985</v>
       </c>
       <c r="BE16" s="0">
-        <v>303.07866397473248</v>
+        <v>290.21264047234956</v>
       </c>
       <c r="BF16" s="0">
-        <v>302.46245315837797</v>
+        <v>289.53824853906593</v>
       </c>
       <c r="BG16" s="0">
-        <v>301.87297422540865</v>
+        <v>288.91482046162093</v>
       </c>
       <c r="BH16" s="0">
-        <v>301.30899947023261</v>
+        <v>288.34123696538563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>588.30011795462599</v>
+        <v>676.2173710842402</v>
       </c>
       <c r="B17" s="0">
-        <v>609.03743712000221</v>
+        <v>643.09072654392287</v>
       </c>
       <c r="C17" s="0">
-        <v>578.99732212539368</v>
+        <v>613.43678956888164</v>
       </c>
       <c r="D17" s="0">
-        <v>552.81949717072439</v>
+        <v>586.74031633180061</v>
       </c>
       <c r="E17" s="0">
-        <v>530.05755731211798</v>
+        <v>562.65995528895473</v>
       </c>
       <c r="F17" s="0">
-        <v>510.09538111171855</v>
+        <v>540.91415601688118</v>
       </c>
       <c r="G17" s="0">
-        <v>492.46699975404795</v>
+        <v>521.25347764986805</v>
       </c>
       <c r="H17" s="0">
-        <v>476.8076883441737</v>
+        <v>503.45339937733661</v>
       </c>
       <c r="I17" s="0">
-        <v>462.82523541701539</v>
+        <v>487.31203510547624</v>
       </c>
       <c r="J17" s="0">
-        <v>450.28184471400056</v>
+        <v>472.64866876770884</v>
       </c>
       <c r="K17" s="0">
-        <v>438.98179802766822</v>
+        <v>459.30229785967799</v>
       </c>
       <c r="L17" s="0">
-        <v>428.7624632414649</v>
+        <v>447.13003418640034</v>
       </c>
       <c r="M17" s="0">
-        <v>419.48763378979589</v>
+        <v>436.00540205932788</v>
       </c>
       <c r="N17" s="0">
-        <v>411.04244512211625</v>
+        <v>425.81659920871408</v>
       </c>
       <c r="O17" s="0">
-        <v>403.3293668247407</v>
+        <v>416.46489981905086</v>
       </c>
       <c r="P17" s="0">
-        <v>396.26511814423816</v>
+        <v>407.86312291776699</v>
       </c>
       <c r="Q17" s="0">
-        <v>389.77818908721133</v>
+        <v>399.93426814017221</v>
       </c>
       <c r="R17" s="0">
-        <v>383.80685354771276</v>
+        <v>392.61028916664452</v>
       </c>
       <c r="S17" s="0">
-        <v>378.29757976608727</v>
+        <v>385.83100817137375</v>
       </c>
       <c r="T17" s="0">
-        <v>373.20374295227356</v>
+        <v>379.54315276695399</v>
       </c>
       <c r="U17" s="0">
-        <v>368.48454543109284</v>
+        <v>373.69951743603309</v>
       </c>
       <c r="V17" s="0">
-        <v>364.10415425667333</v>
+        <v>368.25823070143207</v>
       </c>
       <c r="W17" s="0">
-        <v>360.03098364988045</v>
+        <v>363.18210859365513</v>
       </c>
       <c r="X17" s="0">
-        <v>356.23710158980219</v>
+        <v>358.4380954544352</v>
       </c>
       <c r="Y17" s="0">
-        <v>352.69770828236904</v>
+        <v>353.99677991952564</v>
       </c>
       <c r="Z17" s="0">
-        <v>349.39073177737424</v>
+        <v>349.83195714182256</v>
       </c>
       <c r="AA17" s="0">
-        <v>346.29646110066057</v>
+        <v>345.9202579948788</v>
       </c>
       <c r="AB17" s="0">
-        <v>343.39724731691666</v>
+        <v>342.24082032119873</v>
       </c>
       <c r="AC17" s="0">
-        <v>340.67725050422194</v>
+        <v>338.77500125376088</v>
       </c>
       <c r="AD17" s="0">
-        <v>338.12221632417203</v>
+        <v>335.50612442758995</v>
       </c>
       <c r="AE17" s="0">
-        <v>335.71928996163956</v>
+        <v>332.41925792437462</v>
       </c>
       <c r="AF17" s="0">
-        <v>333.45685248293131</v>
+        <v>329.50101870322646</v>
       </c>
       <c r="AG17" s="0">
-        <v>331.3243797277342</v>
+        <v>326.73940034020546</v>
       </c>
       <c r="AH17" s="0">
-        <v>329.31232321273649</v>
+        <v>324.12362338157743</v>
       </c>
       <c r="AI17" s="0">
-        <v>327.41200016844283</v>
+        <v>321.64399366259551</v>
       </c>
       <c r="AJ17" s="0">
-        <v>325.61550900595745</v>
+        <v>319.29179085600884</v>
       </c>
       <c r="AK17" s="0">
-        <v>323.91563026461375</v>
+        <v>317.05916079763279</v>
       </c>
       <c r="AL17" s="0">
-        <v>322.30577913971609</v>
+        <v>314.93902235089178</v>
       </c>
       <c r="AM17" s="0">
-        <v>320.77992644255784</v>
+        <v>312.92498431690882</v>
       </c>
       <c r="AN17" s="0">
-        <v>319.3325477517771</v>
+        <v>311.01127208724739</v>
       </c>
       <c r="AO17" s="0">
-        <v>317.95857445408922</v>
+        <v>309.19266114984299</v>
       </c>
       <c r="AP17" s="0">
-        <v>316.65335039104656</v>
+        <v>307.46442247540534</v>
       </c>
       <c r="AQ17" s="0">
-        <v>315.4125919076057</v>
+        <v>305.82226470628962</v>
       </c>
       <c r="AR17" s="0">
-        <v>314.23235396695497</v>
+        <v>304.2622923294262</v>
       </c>
       <c r="AS17" s="0">
-        <v>313.10899900658751</v>
+        <v>302.78096269402471</v>
       </c>
       <c r="AT17" s="0">
-        <v>312.03916950740069</v>
+        <v>301.37504919346082</v>
       </c>
       <c r="AU17" s="0">
-        <v>311.01976226393776</v>
+        <v>300.04160784880094</v>
       </c>
       <c r="AV17" s="0">
-        <v>310.04790669209473</v>
+        <v>298.77794875980533</v>
       </c>
       <c r="AW17" s="0">
-        <v>309.12094422663603</v>
+        <v>297.58160838655573</v>
       </c>
       <c r="AX17" s="0">
-        <v>308.23641027169089</v>
+        <v>296.45032372252399</v>
       </c>
       <c r="AY17" s="0">
-        <v>307.39201733688878</v>
+        <v>295.38201805942396</v>
       </c>
       <c r="AZ17" s="0">
-        <v>306.58564033179391</v>
+        <v>294.37477493341288</v>
       </c>
       <c r="BA17" s="0">
-        <v>305.8153037385062</v>
+        <v>293.42682249638932</v>
       </c>
       <c r="BB17" s="0">
-        <v>305.07916796561977</v>
+        <v>292.5365183279427</v>
       </c>
       <c r="BC17" s="0">
-        <v>304.37551802695225</v>
+        <v>291.70233549286866</v>
       </c>
       <c r="BD17" s="0">
-        <v>303.7027546955606</v>
+        <v>290.92284973737384</v>
       </c>
       <c r="BE17" s="0">
-        <v>303.05938428591151</v>
+        <v>290.19672800544583</v>
       </c>
       <c r="BF17" s="0">
-        <v>302.44401016904482</v>
+        <v>289.52271860896008</v>
       </c>
       <c r="BG17" s="0">
-        <v>301.85532518402169</v>
+        <v>288.89964136634342</v>
       </c>
       <c r="BH17" s="0">
-        <v>301.29210427467012</v>
+        <v>288.32637927984109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>595.56015646438755</v>
+        <v>675.24795826353864</v>
       </c>
       <c r="B18" s="0">
-        <v>608.00735570703148</v>
+        <v>642.2357415368225</v>
       </c>
       <c r="C18" s="0">
-        <v>578.06368425809944</v>
+        <v>612.67440150570894</v>
       </c>
       <c r="D18" s="0">
-        <v>552.01224241482782</v>
+        <v>586.05863901828889</v>
       </c>
       <c r="E18" s="0">
-        <v>529.3530497910765</v>
+        <v>562.04995412488609</v>
       </c>
       <c r="F18" s="0">
-        <v>509.47590772950804</v>
+        <v>540.36802022330266</v>
       </c>
       <c r="G18" s="0">
-        <v>491.91888790342176</v>
+        <v>520.76420684933578</v>
       </c>
       <c r="H18" s="0">
-        <v>476.32007955622794</v>
+        <v>503.01469024820267</v>
       </c>
       <c r="I18" s="0">
-        <v>462.38934901304896</v>
+        <v>486.91823465756897</v>
       </c>
       <c r="J18" s="0">
-        <v>449.89048879991896</v>
+        <v>472.29473438053208</v>
       </c>
       <c r="K18" s="0">
-        <v>438.62902172225091</v>
+        <v>458.98375185306219</v>
       </c>
       <c r="L18" s="0">
-        <v>428.44330155922444</v>
+        <v>446.84291359452789</v>
       </c>
       <c r="M18" s="0">
-        <v>419.19791298159379</v>
+        <v>435.74620683683577</v>
       </c>
       <c r="N18" s="0">
-        <v>410.77863312869226</v>
+        <v>425.58224175894691</v>
       </c>
       <c r="O18" s="0">
-        <v>403.08845636130076</v>
+        <v>416.25265746488162</v>
       </c>
       <c r="P18" s="0">
-        <v>396.04453404017374</v>
+        <v>407.67059443873018</v>
       </c>
       <c r="Q18" s="0">
-        <v>389.57571501315033</v>
+        <v>399.75933466146313</v>
       </c>
       <c r="R18" s="0">
-        <v>383.6205714177068</v>
+        <v>392.45107940494148</v>
       </c>
       <c r="S18" s="0">
-        <v>378.12582292264193</v>
+        <v>385.68586780076413</v>
       </c>
       <c r="T18" s="0">
-        <v>373.04505691278888</v>
+        <v>379.4106175778374</v>
       </c>
       <c r="U18" s="0">
-        <v>368.33765492414341</v>
+        <v>373.57828988539291</v>
       </c>
       <c r="V18" s="0">
-        <v>363.96793667414659</v>
+        <v>368.14715946136351</v>
       </c>
       <c r="W18" s="0">
-        <v>359.9044493291928</v>
+        <v>363.08017074775927</v>
       </c>
       <c r="X18" s="0">
-        <v>356.11937296516885</v>
+        <v>358.34438098740083</v>
       </c>
       <c r="Y18" s="0">
-        <v>352.58800536421626</v>
+        <v>353.91047818973749</v>
       </c>
       <c r="Z18" s="0">
-        <v>349.28835917810579</v>
+        <v>349.75234510820036</v>
       </c>
       <c r="AA18" s="0">
-        <v>346.20079703830919</v>
+        <v>345.84668993250904</v>
       </c>
       <c r="AB18" s="0">
-        <v>343.30773454454555</v>
+        <v>342.17271883598738</v>
       </c>
       <c r="AC18" s="0">
-        <v>340.59338816146078</v>
+        <v>338.71184942036376</v>
       </c>
       <c r="AD18" s="0">
-        <v>338.04355324814253</v>
+        <v>335.44745890136841</v>
       </c>
       <c r="AE18" s="0">
-        <v>335.64541875191117</v>
+        <v>332.36466289788615</v>
       </c>
       <c r="AF18" s="0">
-        <v>333.38740449318294</v>
+        <v>329.45012059657165</v>
       </c>
       <c r="AG18" s="0">
-        <v>331.25902080607949</v>
+        <v>326.69186312937285</v>
       </c>
       <c r="AH18" s="0">
-        <v>329.25074970462725</v>
+        <v>324.07914447787118</v>
       </c>
       <c r="AI18" s="0">
-        <v>327.3539361975935</v>
+        <v>321.60230029151427</v>
       </c>
       <c r="AJ18" s="0">
-        <v>325.5607019249066</v>
+        <v>319.2526368449694</v>
       </c>
       <c r="AK18" s="0">
-        <v>323.86385058286152</v>
+        <v>317.02232373876399</v>
       </c>
       <c r="AL18" s="0">
-        <v>322.25681648080501</v>
+        <v>314.90430108862012</v>
       </c>
       <c r="AM18" s="0">
-        <v>320.73358816034084</v>
+        <v>312.89219672060079</v>
       </c>
       <c r="AN18" s="0">
-        <v>319.28865719389404</v>
+        <v>310.98025307391396</v>
       </c>
       <c r="AO18" s="0">
-        <v>317.91696938266097</v>
+        <v>309.16326092884952</v>
       </c>
       <c r="AP18" s="0">
-        <v>316.61388156385595</v>
+        <v>307.43650498016609</v>
       </c>
       <c r="AQ18" s="0">
-        <v>315.37512192400368</v>
+        <v>305.79570620819328</v>
       </c>
       <c r="AR18" s="0">
-        <v>314.19675616011665</v>
+        <v>304.23698019457333</v>
       </c>
       <c r="AS18" s="0">
-        <v>313.07515646998121</v>
+        <v>302.75679427613977</v>
       </c>
       <c r="AT18" s="0">
-        <v>312.00697418735041</v>
+        <v>301.35193084495995</v>
       </c>
       <c r="AU18" s="0">
-        <v>310.98911421824448</v>
+        <v>300.01945403726955</v>
       </c>
       <c r="AV18" s="0">
-        <v>310.01871336434664</v>
+        <v>298.75668127541911</v>
       </c>
       <c r="AW18" s="0">
-        <v>309.09311981173016</v>
+        <v>297.56115563412908</v>
       </c>
       <c r="AX18" s="0">
-        <v>308.20987512858432</v>
+        <v>296.4306200904083</v>
       </c>
       <c r="AY18" s="0">
-        <v>307.36669749924101</v>
+        <v>295.36300334104692</v>
       </c>
       <c r="AZ18" s="0">
-        <v>306.56146704219174</v>
+        <v>294.35639381911352</v>
       </c>
       <c r="BA18" s="0">
-        <v>305.79221290847539</v>
+        <v>293.4090241141472</v>
       </c>
       <c r="BB18" s="0">
-        <v>305.05709986371585</v>
+        <v>292.51925582952947</v>
       </c>
       <c r="BC18" s="0">
-        <v>304.35441699804369</v>
+        <v>291.68556568123284</v>
       </c>
       <c r="BD18" s="0">
-        <v>303.68256874561916</v>
+        <v>290.90653273121808</v>
       </c>
       <c r="BE18" s="0">
-        <v>303.04006479470956</v>
+        <v>290.18082693690076</v>
       </c>
       <c r="BF18" s="0">
-        <v>302.42551164236556</v>
+        <v>289.50719934992009</v>
       </c>
       <c r="BG18" s="0">
-        <v>301.83760499174105</v>
+        <v>288.88447228234349</v>
       </c>
       <c r="BH18" s="0">
-        <v>301.27512244098068</v>
+        <v>288.31153100741869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>601.54790025398722</v>
+        <v>674.28244948320787</v>
       </c>
       <c r="B19" s="0">
-        <v>606.97361095825306</v>
+        <v>641.38362443615938</v>
       </c>
       <c r="C19" s="0">
-        <v>577.13484275270207</v>
+        <v>611.91444642975307</v>
       </c>
       <c r="D19" s="0">
-        <v>551.20895413555388</v>
+        <v>585.37910732138278</v>
       </c>
       <c r="E19" s="0">
-        <v>528.65187066075566</v>
+        <v>561.44186195239661</v>
       </c>
       <c r="F19" s="0">
-        <v>508.85928096495957</v>
+        <v>539.8235835963826</v>
       </c>
       <c r="G19" s="0">
-        <v>491.37324459336543</v>
+        <v>520.27644611024891</v>
       </c>
       <c r="H19" s="0">
-        <v>475.83463531805933</v>
+        <v>502.57732103845552</v>
       </c>
       <c r="I19" s="0">
-        <v>461.95537857915156</v>
+        <v>486.52562193614295</v>
       </c>
       <c r="J19" s="0">
-        <v>449.50084287892025</v>
+        <v>471.94185234980506</v>
       </c>
       <c r="K19" s="0">
-        <v>438.27778291228725</v>
+        <v>458.66613832249948</v>
       </c>
       <c r="L19" s="0">
-        <v>428.12553145674428</v>
+        <v>446.55661963505548</v>
       </c>
       <c r="M19" s="0">
-        <v>418.90945924615795</v>
+        <v>435.48774496836347</v>
       </c>
       <c r="N19" s="0">
-        <v>410.51598108585682</v>
+        <v>425.34853553367174</v>
       </c>
       <c r="O19" s="0">
-        <v>402.84861295063354</v>
+        <v>416.04099403773671</v>
       </c>
       <c r="P19" s="0">
-        <v>395.82493582889123</v>
+        <v>407.47858122531437</v>
       </c>
       <c r="Q19" s="0">
-        <v>389.37415535490351</v>
+        <v>399.58486035400779</v>
       </c>
       <c r="R19" s="0">
-        <v>383.43514041792042</v>
+        <v>392.2922793419234</v>
       </c>
       <c r="S19" s="0">
-        <v>377.95486075989328</v>
+        <v>385.54109344834905</v>
       </c>
       <c r="T19" s="0">
-        <v>372.88711483367848</v>
+        <v>379.27840979358905</v>
       </c>
       <c r="U19" s="0">
-        <v>368.19146258457243</v>
+        <v>373.45735556196001</v>
       </c>
       <c r="V19" s="0">
-        <v>363.8323757466751</v>
+        <v>368.03635115727729</v>
       </c>
       <c r="W19" s="0">
-        <v>359.77853360817039</v>
+        <v>362.97846895566272</v>
       </c>
       <c r="X19" s="0">
-        <v>356.00222794479987</v>
+        <v>358.25087868606016</v>
       </c>
       <c r="Y19" s="0">
-        <v>352.47885368966013</v>
+        <v>353.82436737076125</v>
       </c>
       <c r="Z19" s="0">
-        <v>349.18650773946223</v>
+        <v>349.6729050495988</v>
       </c>
       <c r="AA19" s="0">
-        <v>346.10562603618934</v>
+        <v>345.7732769547078</v>
       </c>
       <c r="AB19" s="0">
-        <v>343.21868843532854</v>
+        <v>342.10475735135702</v>
       </c>
       <c r="AC19" s="0">
-        <v>340.50996757342762</v>
+        <v>338.64882410129297</v>
       </c>
       <c r="AD19" s="0">
-        <v>337.96530831063194</v>
+        <v>335.38890781828979</v>
       </c>
       <c r="AE19" s="0">
-        <v>335.57194319826107</v>
+        <v>332.31017149834452</v>
       </c>
       <c r="AF19" s="0">
-        <v>333.3183306706299</v>
+        <v>329.3993164151471</v>
       </c>
       <c r="AG19" s="0">
-        <v>331.1940154221686</v>
+        <v>326.64441113302564</v>
       </c>
       <c r="AH19" s="0">
-        <v>329.18950987146269</v>
+        <v>324.03474296016481</v>
       </c>
       <c r="AI19" s="0">
-        <v>327.29618665465841</v>
+        <v>321.56067726435009</v>
       </c>
       <c r="AJ19" s="0">
-        <v>325.50619070490706</v>
+        <v>319.21354683755584</v>
       </c>
       <c r="AK19" s="0">
-        <v>323.8123486493709</v>
+        <v>316.98554497023059</v>
       </c>
       <c r="AL19" s="0">
-        <v>322.20811391522898</v>
+        <v>314.86963296419992</v>
       </c>
       <c r="AM19" s="0">
-        <v>320.68749271534625</v>
+        <v>312.85945761180045</v>
       </c>
       <c r="AN19" s="0">
-        <v>319.24499256359906</v>
+        <v>310.94927834783141</v>
       </c>
       <c r="AO19" s="0">
-        <v>317.87557363401646</v>
+        <v>309.13390119869086</v>
       </c>
       <c r="AP19" s="0">
-        <v>316.57460572901044</v>
+        <v>307.40862454206928</v>
       </c>
       <c r="AQ19" s="0">
-        <v>315.33782884309909</v>
+        <v>305.76918165965253</v>
       </c>
       <c r="AR19" s="0">
-        <v>314.16131937997096</v>
+        <v>304.21169919515654</v>
       </c>
       <c r="AS19" s="0">
-        <v>313.04145927419773</v>
+        <v>302.73265444392325</v>
       </c>
       <c r="AT19" s="0">
-        <v>311.9749086961952</v>
+        <v>301.32883877070606</v>
       </c>
       <c r="AU19" s="0">
-        <v>310.95858064513902</v>
+        <v>299.99732440366023</v>
       </c>
       <c r="AV19" s="0">
-        <v>309.98961929513376</v>
+        <v>298.73543606692596</v>
       </c>
       <c r="AW19" s="0">
-        <v>309.06537957232308</v>
+        <v>297.54072343122965</v>
       </c>
       <c r="AX19" s="0">
-        <v>308.18340920128338</v>
+        <v>296.41093544040467</v>
       </c>
       <c r="AY19" s="0">
-        <v>307.34143203170231</v>
+        <v>295.34400618134163</v>
       </c>
       <c r="AZ19" s="0">
-        <v>306.5373333827452</v>
+        <v>294.3380289705654</v>
       </c>
       <c r="BA19" s="0">
-        <v>305.76914708076799</v>
+        <v>293.39124082316062</v>
       </c>
       <c r="BB19" s="0">
-        <v>305.03504224725287</v>
+        <v>292.5020073554208</v>
       </c>
       <c r="BC19" s="0">
-        <v>304.3333120403031</v>
+        <v>291.66880892470584</v>
       </c>
       <c r="BD19" s="0">
-        <v>303.6623645587855</v>
+        <v>290.89022789990668</v>
       </c>
       <c r="BE19" s="0">
-        <v>303.0207128686431</v>
+        <v>290.16493724391495</v>
       </c>
       <c r="BF19" s="0">
-        <v>302.40696659536189</v>
+        <v>289.49169074095806</v>
       </c>
       <c r="BG19" s="0">
-        <v>301.81982431138414</v>
+        <v>288.86931319026695</v>
       </c>
       <c r="BH19" s="0">
-        <v>301.25806627343519</v>
+        <v>288.29669213024016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>606.454041573062</v>
+        <v>673.32078866540166</v>
       </c>
       <c r="B20" s="0">
-        <v>605.93761515454605</v>
+        <v>640.53435759837612</v>
       </c>
       <c r="C20" s="0">
-        <v>576.21075467456137</v>
+        <v>611.15691488804214</v>
       </c>
       <c r="D20" s="0">
-        <v>550.40958259890101</v>
+        <v>584.70171414428125</v>
       </c>
       <c r="E20" s="0">
-        <v>527.95397073409811</v>
+        <v>560.83567263362795</v>
       </c>
       <c r="F20" s="0">
-        <v>508.24545103754065</v>
+        <v>539.28084061054392</v>
       </c>
       <c r="G20" s="0">
-        <v>490.83001923221536</v>
+        <v>519.79019043670485</v>
       </c>
       <c r="H20" s="0">
-        <v>475.35130435223618</v>
+        <v>502.14128725581963</v>
       </c>
       <c r="I20" s="0">
-        <v>461.52327238531529</v>
+        <v>486.13419292927972</v>
       </c>
       <c r="J20" s="0">
-        <v>449.11285502594149</v>
+        <v>471.59001911313607</v>
       </c>
       <c r="K20" s="0">
-        <v>437.92802971118715</v>
+        <v>458.34945411800186</v>
       </c>
       <c r="L20" s="0">
-        <v>427.80910130150977</v>
+        <v>446.27114953035812</v>
       </c>
       <c r="M20" s="0">
-        <v>418.62222138795556</v>
+        <v>435.23001400856629</v>
       </c>
       <c r="N20" s="0">
-        <v>410.2544383907379</v>
+        <v>425.11547838160965</v>
       </c>
       <c r="O20" s="0">
-        <v>402.60978671484918</v>
+        <v>415.82990764512817</v>
       </c>
       <c r="P20" s="0">
-        <v>395.60627446731394</v>
+        <v>407.28708161195885</v>
       </c>
       <c r="Q20" s="0">
-        <v>389.17346200397901</v>
+        <v>399.41084375080749</v>
       </c>
       <c r="R20" s="0">
-        <v>383.25051344369427</v>
+        <v>392.13388768415371</v>
       </c>
       <c r="S20" s="0">
-        <v>377.78464724037269</v>
+        <v>385.39668397236647</v>
       </c>
       <c r="T20" s="0">
-        <v>372.7298718028523</v>
+        <v>379.14652840503629</v>
       </c>
       <c r="U20" s="0">
-        <v>368.04592466531045</v>
+        <v>373.33671357255184</v>
       </c>
       <c r="V20" s="0">
-        <v>363.69742891455763</v>
+        <v>367.92580499756616</v>
       </c>
       <c r="W20" s="0">
-        <v>359.6531951593422</v>
+        <v>362.87700251481874</v>
       </c>
       <c r="X20" s="0">
-        <v>355.88562645941801</v>
+        <v>358.1575879260588</v>
       </c>
       <c r="Y20" s="0">
-        <v>352.37021446964161</v>
+        <v>353.73844690699406</v>
       </c>
       <c r="Z20" s="0">
-        <v>349.08513997110549</v>
+        <v>349.59363647095211</v>
       </c>
       <c r="AA20" s="0">
-        <v>346.01091191731018</v>
+        <v>345.7000186197925</v>
       </c>
       <c r="AB20" s="0">
-        <v>343.13007414055221</v>
+        <v>342.03693547276987</v>
       </c>
       <c r="AC20" s="0">
-        <v>340.42695523188075</v>
+        <v>338.58592494370515</v>
       </c>
       <c r="AD20" s="0">
-        <v>337.88744935531315</v>
+        <v>335.33047086243977</v>
       </c>
       <c r="AE20" s="0">
-        <v>335.49883250579683</v>
+        <v>332.25578344258741</v>
       </c>
       <c r="AF20" s="0">
-        <v>333.2496015901487</v>
+        <v>329.34860590487654</v>
       </c>
       <c r="AG20" s="0">
-        <v>331.12933552955047</v>
+        <v>326.59704412295025</v>
       </c>
       <c r="AH20" s="0">
-        <v>329.12857705198763</v>
+        <v>323.99041862327164</v>
       </c>
       <c r="AI20" s="0">
-        <v>327.23872627660904</v>
+        <v>321.51912439643985</v>
       </c>
       <c r="AJ20" s="0">
-        <v>325.45195147606387</v>
+        <v>319.17452066742243</v>
       </c>
       <c r="AK20" s="0">
-        <v>323.76110200076766</v>
+        <v>316.94882434205277</v>
       </c>
       <c r="AL20" s="0">
-        <v>322.15965039123591</v>
+        <v>314.83501784228633</v>
       </c>
       <c r="AM20" s="0">
-        <v>320.64162047286845</v>
+        <v>312.82676686826318</v>
       </c>
       <c r="AN20" s="0">
-        <v>319.20153564901494</v>
+        <v>310.91834779849398</v>
       </c>
       <c r="AO20" s="0">
-        <v>317.83437042469535</v>
+        <v>309.10458185939001</v>
       </c>
       <c r="AP20" s="0">
-        <v>316.53550753617316</v>
+        <v>307.38078107059056</v>
       </c>
       <c r="AQ20" s="0">
-        <v>315.30069875243174</v>
+        <v>305.74269097863157</v>
       </c>
       <c r="AR20" s="0">
-        <v>314.12603115646596</v>
+        <v>304.1864492567737</v>
       </c>
       <c r="AS20" s="0">
-        <v>313.00789639589595</v>
+        <v>302.70854312984153</v>
       </c>
       <c r="AT20" s="0">
-        <v>311.9429634609042</v>
+        <v>301.30577290934843</v>
       </c>
       <c r="AU20" s="0">
-        <v>310.92815342537978</v>
+        <v>299.9752188921924</v>
       </c>
       <c r="AV20" s="0">
-        <v>309.96061782207892</v>
+        <v>298.71421308356628</v>
       </c>
       <c r="AW20" s="0">
-        <v>309.03771830558622</v>
+        <v>297.5203117316251</v>
       </c>
       <c r="AX20" s="0">
-        <v>308.15700874862119</v>
+        <v>296.39126973036588</v>
       </c>
       <c r="AY20" s="0">
-        <v>307.31621865671428</v>
+        <v>295.32502654184782</v>
       </c>
       <c r="AZ20" s="0">
-        <v>306.51323854133972</v>
+        <v>294.31968035263714</v>
       </c>
       <c r="BA20" s="0">
-        <v>305.74610690890438</v>
+        <v>293.37347259130303</v>
       </c>
       <c r="BB20" s="0">
-        <v>305.01299723496118</v>
+        <v>292.48477287620756</v>
       </c>
       <c r="BC20" s="0">
-        <v>304.31220673759293</v>
+        <v>291.65206519632909</v>
       </c>
       <c r="BD20" s="0">
-        <v>303.64214718305573</v>
+        <v>290.87393521869683</v>
       </c>
       <c r="BE20" s="0">
-        <v>303.00133501799343</v>
+        <v>290.14905890374496</v>
       </c>
       <c r="BF20" s="0">
-        <v>302.38838299817115</v>
+        <v>289.47619276113801</v>
       </c>
       <c r="BG20" s="0">
-        <v>301.8019925696907</v>
+        <v>288.85416407080845</v>
       </c>
       <c r="BH20" s="0">
-        <v>301.24094665147919</v>
+        <v>288.28186263046882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>610.44101005061941</v>
+        <v>672.36292234238181</v>
       </c>
       <c r="B21" s="0">
-        <v>604.90056253661908</v>
+        <v>639.68792386006305</v>
       </c>
       <c r="C21" s="0">
-        <v>575.29137823279086</v>
+        <v>610.40179754883866</v>
       </c>
       <c r="D21" s="0">
-        <v>549.61408173204143</v>
+        <v>584.02645242943106</v>
       </c>
       <c r="E21" s="0">
-        <v>527.25930525085141</v>
+        <v>560.23138004972191</v>
       </c>
       <c r="F21" s="0">
-        <v>507.63437321771301</v>
+        <v>538.73978575457215</v>
       </c>
       <c r="G21" s="0">
-        <v>490.28916676478684</v>
+        <v>519.30543484626173</v>
       </c>
       <c r="H21" s="0">
-        <v>474.87004127828891</v>
+        <v>501.70658442113552</v>
       </c>
       <c r="I21" s="0">
-        <v>461.09298485302185</v>
+        <v>485.74394363762315</v>
       </c>
       <c r="J21" s="0">
-        <v>448.72647963380962</v>
+        <v>471.23923111987631</v>
       </c>
       <c r="K21" s="0">
-        <v>437.57971664610011</v>
+        <v>458.03369610033013</v>
       </c>
       <c r="L21" s="0">
-        <v>427.4939659125601</v>
+        <v>445.9865005124941</v>
       </c>
       <c r="M21" s="0">
-        <v>418.33615465459752</v>
+        <v>434.97301152072265</v>
       </c>
       <c r="N21" s="0">
-        <v>409.99396083813548</v>
+        <v>424.88306815910209</v>
       </c>
       <c r="O21" s="0">
-        <v>402.37193409845895</v>
+        <v>415.61939640126678</v>
       </c>
       <c r="P21" s="0">
-        <v>395.38850713586345</v>
+        <v>407.09609393897136</v>
       </c>
       <c r="Q21" s="0">
-        <v>388.97359295662125</v>
+        <v>399.23728338999564</v>
       </c>
       <c r="R21" s="0">
-        <v>383.06664936240321</v>
+        <v>391.975903142682</v>
       </c>
       <c r="S21" s="0">
-        <v>377.61514215422801</v>
+        <v>385.25263823497266</v>
       </c>
       <c r="T21" s="0">
-        <v>372.5732885815093</v>
+        <v>379.01497240642982</v>
       </c>
       <c r="U21" s="0">
-        <v>367.90100293166137</v>
+        <v>373.21636302698101</v>
       </c>
       <c r="V21" s="0">
-        <v>363.56305896587963</v>
+        <v>367.81552019324636</v>
       </c>
       <c r="W21" s="0">
-        <v>359.52839783240717</v>
+        <v>362.77577072498121</v>
       </c>
       <c r="X21" s="0">
-        <v>355.76953344313546</v>
+        <v>358.06450808506452</v>
       </c>
       <c r="Y21" s="0">
-        <v>352.26205374238822</v>
+        <v>353.65271624460996</v>
       </c>
       <c r="Z21" s="0">
-        <v>348.98422303226863</v>
+        <v>349.51453887875908</v>
       </c>
       <c r="AA21" s="0">
-        <v>345.91662297561169</v>
+        <v>345.62691448746114</v>
       </c>
       <c r="AB21" s="0">
-        <v>343.04186110298957</v>
+        <v>341.96925280690749</v>
       </c>
       <c r="AC21" s="0">
-        <v>340.34432174027421</v>
+        <v>338.52315159583844</v>
       </c>
       <c r="AD21" s="0">
-        <v>337.80994815759823</v>
+        <v>335.27214771886122</v>
       </c>
       <c r="AE21" s="0">
-        <v>335.42605963154318</v>
+        <v>332.20149844830132</v>
       </c>
       <c r="AF21" s="0">
-        <v>333.18119139902984</v>
+        <v>329.29798881243704</v>
       </c>
       <c r="AG21" s="0">
-        <v>331.06495647495672</v>
+        <v>326.54976187160463</v>
       </c>
       <c r="AH21" s="0">
-        <v>329.06792779947438</v>
+        <v>323.94617126260351</v>
       </c>
       <c r="AI21" s="0">
-        <v>327.18153283606637</v>
+        <v>321.47764150365845</v>
       </c>
       <c r="AJ21" s="0">
-        <v>325.39796322722282</v>
+        <v>319.13555816870263</v>
       </c>
       <c r="AK21" s="0">
-        <v>323.71009085521399</v>
+        <v>316.91216170467675</v>
       </c>
       <c r="AL21" s="0">
-        <v>322.11140736208648</v>
+        <v>314.80045558791437</v>
       </c>
       <c r="AM21" s="0">
-        <v>320.59595412730056</v>
+        <v>312.79412436808661</v>
       </c>
       <c r="AN21" s="0">
-        <v>319.15827039197575</v>
+        <v>310.88746131570332</v>
       </c>
       <c r="AO21" s="0">
-        <v>317.79334495006907</v>
+        <v>309.07530281124622</v>
       </c>
       <c r="AP21" s="0">
-        <v>316.49657343952396</v>
+        <v>307.35297447545105</v>
       </c>
       <c r="AQ21" s="0">
-        <v>315.26371937025596</v>
+        <v>305.71623408331919</v>
       </c>
       <c r="AR21" s="0">
-        <v>314.0908804769428</v>
+        <v>304.16123030522562</v>
       </c>
       <c r="AS21" s="0">
-        <v>312.97445809626487</v>
+        <v>302.68446026654198</v>
       </c>
       <c r="AT21" s="0">
-        <v>311.91113002059211</v>
+        <v>301.28273319970077</v>
       </c>
       <c r="AU21" s="0">
-        <v>310.89782537991971</v>
+        <v>299.95313744723416</v>
       </c>
       <c r="AV21" s="0">
-        <v>309.93170305146703</v>
+        <v>298.69301227471379</v>
       </c>
       <c r="AW21" s="0">
-        <v>309.01013140622337</v>
+        <v>297.49992048920484</v>
       </c>
       <c r="AX21" s="0">
-        <v>308.1306704562374</v>
+        <v>296.37162291825427</v>
       </c>
       <c r="AY21" s="0">
-        <v>307.29105535315324</v>
+        <v>295.30606438420483</v>
       </c>
       <c r="AZ21" s="0">
-        <v>306.48918179222636</v>
+        <v>294.30134793028765</v>
       </c>
       <c r="BA21" s="0">
-        <v>305.72309296312477</v>
+        <v>293.35571938653231</v>
       </c>
       <c r="BB21" s="0">
-        <v>304.99096669307283</v>
+        <v>292.46755236255285</v>
       </c>
       <c r="BC21" s="0">
-        <v>304.29110425237366</v>
+        <v>291.63533446921321</v>
       </c>
       <c r="BD21" s="0">
-        <v>303.6219210764699</v>
+        <v>290.85765466290729</v>
       </c>
       <c r="BE21" s="0">
-        <v>302.98193699491435</v>
+        <v>290.13319189370566</v>
       </c>
       <c r="BF21" s="0">
-        <v>302.36976789500238</v>
+        <v>289.4607053895752</v>
       </c>
       <c r="BG21" s="0">
-        <v>301.78411810006889</v>
+        <v>288.83902490470916</v>
       </c>
       <c r="BH21" s="0">
-        <v>301.22377319422333</v>
+        <v>288.26704249031536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>613.64711194757888</v>
+        <v>671.40879949581392</v>
       </c>
       <c r="B22" s="0">
-        <v>603.86346181364661</v>
+        <v>638.84430651522484</v>
       </c>
       <c r="C22" s="0">
-        <v>574.3766726833519</v>
+        <v>609.64908519679011</v>
       </c>
       <c r="D22" s="0">
-        <v>548.82240862836545</v>
+        <v>583.35331515734003</v>
       </c>
       <c r="E22" s="0">
-        <v>526.5678332629019</v>
+        <v>559.62897810054005</v>
       </c>
       <c r="F22" s="0">
-        <v>507.02600712106528</v>
+        <v>538.20041353156</v>
       </c>
       <c r="G22" s="0">
-        <v>489.75064689898556</v>
+        <v>518.8221743699379</v>
       </c>
       <c r="H22" s="0">
-        <v>474.39080579164118</v>
+        <v>501.27320806835286</v>
       </c>
       <c r="I22" s="0">
-        <v>460.66447570266814</v>
+        <v>485.35487007436967</v>
       </c>
       <c r="J22" s="0">
-        <v>448.34167654222222</v>
+        <v>470.88948483109914</v>
       </c>
       <c r="K22" s="0">
-        <v>437.23280377865433</v>
+        <v>457.71886114096549</v>
       </c>
       <c r="L22" s="0">
-        <v>427.18008568118523</v>
+        <v>445.70266982317338</v>
       </c>
       <c r="M22" s="0">
-        <v>418.05121986385717</v>
+        <v>434.71673507670556</v>
       </c>
       <c r="N22" s="0">
-        <v>409.73450975881275</v>
+        <v>424.65130273008305</v>
       </c>
       <c r="O22" s="0">
-        <v>402.1350170218173</v>
+        <v>415.40945842703627</v>
       </c>
       <c r="P22" s="0">
-        <v>395.17159641001393</v>
+        <v>406.90561655250622</v>
       </c>
       <c r="Q22" s="0">
-        <v>388.77451150586313</v>
+        <v>399.06417781481917</v>
       </c>
       <c r="R22" s="0">
-        <v>382.88351222756802</v>
+        <v>391.81832443302386</v>
       </c>
       <c r="S22" s="0">
-        <v>377.44631035662883</v>
+        <v>385.10895510222633</v>
       </c>
       <c r="T22" s="0">
-        <v>372.41733086582877</v>
+        <v>378.88374079543274</v>
       </c>
       <c r="U22" s="0">
-        <v>367.75666394781501</v>
+        <v>373.0963030380459</v>
       </c>
       <c r="V22" s="0">
-        <v>363.4292333480023</v>
+        <v>367.70549595794847</v>
       </c>
       <c r="W22" s="0">
-        <v>359.40410999115102</v>
+        <v>362.67477288819708</v>
       </c>
       <c r="X22" s="0">
-        <v>355.65391819589036</v>
+        <v>357.97163854275811</v>
       </c>
       <c r="Y22" s="0">
-        <v>352.15434176135034</v>
+        <v>353.56717483155444</v>
       </c>
       <c r="Z22" s="0">
-        <v>348.88372814509336</v>
+        <v>349.43561178108035</v>
       </c>
       <c r="AA22" s="0">
-        <v>345.82273141452623</v>
+        <v>345.55396411879008</v>
       </c>
       <c r="AB22" s="0">
-        <v>342.95402252049286</v>
+        <v>341.90170896166984</v>
       </c>
       <c r="AC22" s="0">
-        <v>340.26204130214563</v>
+        <v>338.46050370700709</v>
       </c>
       <c r="AD22" s="0">
-        <v>337.73277993757029</v>
+        <v>335.21393807355173</v>
       </c>
       <c r="AE22" s="0">
-        <v>335.35360082163839</v>
+        <v>332.14731623402037</v>
       </c>
       <c r="AF22" s="0">
-        <v>333.11307737814775</v>
+        <v>329.24746488526011</v>
       </c>
       <c r="AG22" s="0">
-        <v>331.00085658317153</v>
+        <v>326.5025641521172</v>
       </c>
       <c r="AH22" s="0">
-        <v>329.00754148998431</v>
+        <v>323.90200067416936</v>
       </c>
       <c r="AI22" s="0">
-        <v>327.12458677276305</v>
+        <v>321.43622840241005</v>
       </c>
       <c r="AJ22" s="0">
-        <v>325.34420746017889</v>
+        <v>319.09665917600563</v>
       </c>
       <c r="AK22" s="0">
-        <v>323.65929778919514</v>
+        <v>316.87555690897449</v>
       </c>
       <c r="AL22" s="0">
-        <v>322.06336848514479</v>
+        <v>314.76594606650264</v>
       </c>
       <c r="AM22" s="0">
-        <v>320.55047842327133</v>
+        <v>312.7615299897106</v>
       </c>
       <c r="AN22" s="0">
-        <v>319.1151826309715</v>
+        <v>310.85661878956904</v>
       </c>
       <c r="AO22" s="0">
-        <v>317.75248414886835</v>
+        <v>309.04606395483432</v>
       </c>
       <c r="AP22" s="0">
-        <v>316.4577914836488</v>
+        <v>307.32520466662226</v>
       </c>
       <c r="AQ22" s="0">
-        <v>315.22687985258148</v>
+        <v>305.68981089212588</v>
       </c>
       <c r="AR22" s="0">
-        <v>314.05585761413715</v>
+        <v>304.13604226651211</v>
       </c>
       <c r="AS22" s="0">
-        <v>312.94113576979896</v>
+        <v>302.66040578685403</v>
       </c>
       <c r="AT22" s="0">
-        <v>311.87940089589392</v>
+        <v>301.25971958073899</v>
       </c>
       <c r="AU22" s="0">
-        <v>310.86759015972171</v>
+        <v>299.93108001330069</v>
       </c>
       <c r="AV22" s="0">
-        <v>309.90286976835159</v>
+        <v>298.67183358987592</v>
       </c>
       <c r="AW22" s="0">
-        <v>308.9826147967272</v>
+        <v>297.4795496579784</v>
       </c>
       <c r="AX22" s="0">
-        <v>308.10439138685257</v>
+        <v>296.35199496214267</v>
       </c>
       <c r="AY22" s="0">
-        <v>307.26594032651104</v>
+        <v>295.28711967015221</v>
       </c>
       <c r="AZ22" s="0">
-        <v>306.46516248600557</v>
+        <v>294.28303166856631</v>
       </c>
       <c r="BA22" s="0">
-        <v>305.70010574007244</v>
+        <v>293.3379811768869</v>
       </c>
       <c r="BB22" s="0">
-        <v>304.96895226460379</v>
+        <v>292.45034578519579</v>
       </c>
       <c r="BC22" s="0">
-        <v>304.27000737451021</v>
+        <v>291.61861671653605</v>
       </c>
       <c r="BD22" s="0">
-        <v>303.6016901753751</v>
+        <v>290.84138620792027</v>
       </c>
       <c r="BE22" s="0">
-        <v>302.96252388107825</v>
+        <v>290.11733619116887</v>
       </c>
       <c r="BF22" s="0">
-        <v>302.35112751111438</v>
+        <v>289.4452286054381</v>
       </c>
       <c r="BG22" s="0">
-        <v>301.76620826885329</v>
+        <v>288.8238956727597</v>
       </c>
       <c r="BH22" s="0">
-        <v>301.20655440594015</v>
+        <v>288.25223169203173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>616.19007817734712</v>
+        <v>670.45837140772687</v>
       </c>
       <c r="B23" s="0">
-        <v>602.82716384395837</v>
+        <v>638.00348929375593</v>
       </c>
       <c r="C23" s="0">
-        <v>573.46659824458629</v>
+        <v>608.89876872830769</v>
       </c>
       <c r="D23" s="0">
-        <v>548.03452312379625</v>
+        <v>582.68229534544344</v>
       </c>
       <c r="E23" s="0">
-        <v>525.87951710786444</v>
+        <v>559.02846070439796</v>
       </c>
       <c r="F23" s="0">
-        <v>506.4203161031611</v>
+        <v>537.66271845886536</v>
       </c>
       <c r="G23" s="0">
-        <v>489.21442344198556</v>
+        <v>518.34040405220833</v>
       </c>
       <c r="H23" s="0">
-        <v>473.91356195803354</v>
+        <v>500.84115374452932</v>
       </c>
       <c r="I23" s="0">
-        <v>460.23770922005696</v>
+        <v>484.96696826525283</v>
       </c>
       <c r="J23" s="0">
-        <v>447.95841028751425</v>
+        <v>470.54077671957816</v>
       </c>
       <c r="K23" s="0">
-        <v>436.88725594679562</v>
+        <v>457.40494612208585</v>
       </c>
       <c r="L23" s="0">
-        <v>426.86742581190566</v>
+        <v>445.4196547137326</v>
       </c>
       <c r="M23" s="0">
-        <v>417.7673826493147</v>
+        <v>434.46118225695528</v>
       </c>
       <c r="N23" s="0">
-        <v>409.47605127414084</v>
+        <v>424.42017996605506</v>
       </c>
       <c r="O23" s="0">
-        <v>401.89900214814884</v>
+        <v>415.2000918499723</v>
       </c>
       <c r="P23" s="0">
-        <v>394.95550954230293</v>
+        <v>406.71564780454293</v>
       </c>
       <c r="Q23" s="0">
-        <v>388.57618554064601</v>
+        <v>398.89152557361859</v>
       </c>
       <c r="R23" s="0">
-        <v>382.70107059649371</v>
+        <v>391.66115027514667</v>
       </c>
       <c r="S23" s="0">
-        <v>377.27812110505863</v>
+        <v>384.96563344407565</v>
       </c>
       <c r="T23" s="0">
-        <v>372.26196864481864</v>
+        <v>378.75283257310718</v>
       </c>
       <c r="U23" s="0">
-        <v>367.61287845576544</v>
+        <v>372.97653272151877</v>
       </c>
       <c r="V23" s="0">
-        <v>363.2959235677373</v>
+        <v>367.59573150790897</v>
       </c>
       <c r="W23" s="0">
-        <v>359.28030393532674</v>
+        <v>362.57400830879806</v>
       </c>
       <c r="X23" s="0">
-        <v>355.53875382715222</v>
+        <v>357.87897868082729</v>
       </c>
       <c r="Y23" s="0">
-        <v>352.04705246076912</v>
+        <v>353.48182211753777</v>
       </c>
       <c r="Z23" s="0">
-        <v>348.78363008200705</v>
+        <v>349.3568546875303</v>
       </c>
       <c r="AA23" s="0">
-        <v>345.72921285605167</v>
+        <v>345.48116707622569</v>
       </c>
       <c r="AB23" s="0">
-        <v>342.86653487664006</v>
+        <v>341.83430354616831</v>
       </c>
       <c r="AC23" s="0">
-        <v>340.18009127316481</v>
+        <v>338.39798092759827</v>
       </c>
       <c r="AD23" s="0">
-        <v>337.65592293325335</v>
+        <v>335.15584161346021</v>
       </c>
       <c r="AE23" s="0">
-        <v>335.28143520561662</v>
+        <v>332.09323651912223</v>
       </c>
       <c r="AF23" s="0">
-        <v>333.04523955703513</v>
+        <v>329.19703387152657</v>
       </c>
       <c r="AG23" s="0">
-        <v>330.93701679268395</v>
+        <v>326.45545073828458</v>
       </c>
       <c r="AH23" s="0">
-        <v>328.94739997836894</v>
+        <v>323.85790665457353</v>
       </c>
       <c r="AI23" s="0">
-        <v>327.06787086974316</v>
+        <v>321.39488490963333</v>
       </c>
       <c r="AJ23" s="0">
-        <v>325.29066788570788</v>
+        <v>319.05782352441412</v>
       </c>
       <c r="AK23" s="0">
-        <v>323.60870745326315</v>
+        <v>316.83900980624293</v>
       </c>
       <c r="AL23" s="0">
-        <v>322.01551935711501</v>
+        <v>314.73148914384979</v>
       </c>
       <c r="AM23" s="0">
-        <v>320.50517991016903</v>
+        <v>312.72898361191614</v>
       </c>
       <c r="AN23" s="0">
-        <v>319.07225987477511</v>
+        <v>310.82582011050533</v>
       </c>
       <c r="AO23" s="0">
-        <v>317.71177649573133</v>
+        <v>309.0168651910048</v>
       </c>
       <c r="AP23" s="0">
-        <v>316.41915111483263</v>
+        <v>307.29747155432131</v>
       </c>
       <c r="AQ23" s="0">
-        <v>315.19017062304511</v>
+        <v>305.66342132368675</v>
       </c>
       <c r="AR23" s="0">
-        <v>314.02095397447584</v>
+        <v>304.11088506683404</v>
       </c>
       <c r="AS23" s="0">
-        <v>312.90792181087522</v>
+        <v>302.63637962378726</v>
       </c>
       <c r="AT23" s="0">
-        <v>311.84776947368471</v>
+        <v>301.23673199160402</v>
       </c>
       <c r="AU23" s="0">
-        <v>310.83744214848701</v>
+        <v>299.90904653505413</v>
       </c>
       <c r="AV23" s="0">
-        <v>309.87411335717326</v>
+        <v>298.65067697869381</v>
       </c>
       <c r="AW23" s="0">
-        <v>308.95516486577571</v>
+        <v>297.45919919207677</v>
       </c>
       <c r="AX23" s="0">
-        <v>308.07816893633969</v>
+        <v>296.33238582021232</v>
       </c>
       <c r="AY23" s="0">
-        <v>307.24087198254438</v>
+        <v>295.26819236152835</v>
       </c>
       <c r="AZ23" s="0">
-        <v>306.44118004077592</v>
+        <v>294.2647315326123</v>
       </c>
       <c r="BA23" s="0">
-        <v>305.67714567135192</v>
+        <v>293.32025793048734</v>
       </c>
       <c r="BB23" s="0">
-        <v>304.94695539524088</v>
+        <v>292.43315311495098</v>
       </c>
       <c r="BC23" s="0">
-        <v>304.24891856442747</v>
+        <v>291.60191191154433</v>
       </c>
       <c r="BD23" s="0">
-        <v>303.58145795478561</v>
+        <v>290.82512982917854</v>
       </c>
       <c r="BE23" s="0">
-        <v>302.94310016519103</v>
+        <v>290.10149177356152</v>
       </c>
       <c r="BF23" s="0">
-        <v>302.33246734743403</v>
+        <v>289.42976238794694</v>
       </c>
       <c r="BG23" s="0">
-        <v>301.74826958698395</v>
+        <v>288.80877635579753</v>
       </c>
       <c r="BH23" s="0">
-        <v>301.18929780476179</v>
+        <v>288.2374302179141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>618.17010081400178</v>
+        <v>669.51159152214416</v>
       </c>
       <c r="B24" s="0">
-        <v>601.792385204369</v>
+        <v>637.16545634105103</v>
       </c>
       <c r="C24" s="0">
-        <v>572.56111602342196</v>
+        <v>608.15083914714614</v>
       </c>
       <c r="D24" s="0">
-        <v>547.2503874340249</v>
+        <v>582.01338604701914</v>
       </c>
       <c r="E24" s="0">
-        <v>525.19432195821798</v>
+        <v>558.42982179781097</v>
       </c>
       <c r="F24" s="0">
-        <v>505.81726674070774</v>
+        <v>537.12669506806719</v>
       </c>
       <c r="G24" s="0">
-        <v>488.68046373043927</v>
+        <v>517.86011895100296</v>
       </c>
       <c r="H24" s="0">
-        <v>473.43827760717693</v>
+        <v>500.41041700982589</v>
       </c>
       <c r="I24" s="0">
-        <v>459.8126536253198</v>
+        <v>484.58023424852917</v>
       </c>
       <c r="J24" s="0">
-        <v>447.57664945646218</v>
+        <v>470.19310326976648</v>
       </c>
       <c r="K24" s="0">
-        <v>436.54304211103181</v>
+        <v>457.09194793653683</v>
       </c>
       <c r="L24" s="0">
-        <v>426.55595566728158</v>
+        <v>445.1374524451054</v>
       </c>
       <c r="M24" s="0">
-        <v>417.48461280851598</v>
+        <v>434.20635065045263</v>
       </c>
       <c r="N24" s="0">
-        <v>409.218555651374</v>
+        <v>424.18969774606103</v>
       </c>
       <c r="O24" s="0">
-        <v>401.66386024890727</v>
+        <v>414.99129480423574</v>
       </c>
       <c r="P24" s="0">
-        <v>394.74021784007738</v>
+        <v>406.5261860528671</v>
       </c>
       <c r="Q24" s="0">
-        <v>388.37858693783488</v>
+        <v>398.71932521981029</v>
       </c>
       <c r="R24" s="0">
-        <v>382.51929693781773</v>
+        <v>391.50437939345238</v>
       </c>
       <c r="S24" s="0">
-        <v>377.11054748341695</v>
+        <v>384.82267213434369</v>
       </c>
       <c r="T24" s="0">
-        <v>372.10717564180112</v>
+        <v>378.62224674390274</v>
       </c>
       <c r="U24" s="0">
-        <v>367.46962083467878</v>
+        <v>372.85705119613556</v>
       </c>
       <c r="V24" s="0">
-        <v>363.16310466879617</v>
+        <v>367.4862260619584</v>
       </c>
       <c r="W24" s="0">
-        <v>359.15695539661482</v>
+        <v>362.47347629339237</v>
       </c>
       <c r="X24" s="0">
-        <v>355.42401677054494</v>
+        <v>357.78652788295909</v>
       </c>
       <c r="Y24" s="0">
-        <v>351.94016298902443</v>
+        <v>353.39665755403047</v>
       </c>
       <c r="Z24" s="0">
-        <v>348.68390671780355</v>
+        <v>349.27826710927366</v>
       </c>
       <c r="AA24" s="0">
-        <v>345.6360459114905</v>
+        <v>345.40852292358346</v>
       </c>
       <c r="AB24" s="0">
-        <v>342.77937753005915</v>
+        <v>341.76703617072326</v>
       </c>
       <c r="AC24" s="0">
-        <v>340.09845176893299</v>
+        <v>338.33558290906876</v>
       </c>
       <c r="AD24" s="0">
-        <v>337.57935802675485</v>
+        <v>335.0978580264827</v>
       </c>
       <c r="AE24" s="0">
-        <v>335.20954444074357</v>
+        <v>332.0392590238273</v>
       </c>
       <c r="AF24" s="0">
-        <v>332.97766037624274</v>
+        <v>329.14669552016602</v>
       </c>
       <c r="AG24" s="0">
-        <v>330.87342033592165</v>
+        <v>326.40842140456851</v>
       </c>
       <c r="AH24" s="0">
-        <v>328.88748729618891</v>
+        <v>323.81388900101354</v>
       </c>
       <c r="AI24" s="0">
-        <v>327.01136996887453</v>
+        <v>321.35361084279208</v>
       </c>
       <c r="AJ24" s="0">
-        <v>325.23733015636702</v>
+        <v>319.01905104948571</v>
       </c>
       <c r="AK24" s="0">
-        <v>323.55830632204027</v>
+        <v>316.80252024820356</v>
       </c>
       <c r="AL24" s="0">
-        <v>321.96784728107809</v>
+        <v>314.69708468613106</v>
       </c>
       <c r="AM24" s="0">
-        <v>320.46004672605488</v>
+        <v>312.69648511382263</v>
       </c>
       <c r="AN24" s="0">
-        <v>319.02949110308356</v>
+        <v>310.79506516923203</v>
       </c>
       <c r="AO24" s="0">
-        <v>317.67121181843794</v>
+        <v>308.9877064208801</v>
       </c>
       <c r="AP24" s="0">
-        <v>316.38064301474247</v>
+        <v>307.26977504901225</v>
       </c>
       <c r="AQ24" s="0">
-        <v>315.15358322291758</v>
+        <v>305.63706529685652</v>
       </c>
       <c r="AR24" s="0">
-        <v>313.98616196428139</v>
+        <v>304.08575863259284</v>
       </c>
       <c r="AS24" s="0">
-        <v>312.87480949604327</v>
+        <v>302.61238171053128</v>
       </c>
       <c r="AT24" s="0">
-        <v>311.81622990533822</v>
+        <v>301.21377037159783</v>
       </c>
       <c r="AU24" s="0">
-        <v>310.80737637678675</v>
+        <v>299.88703695730476</v>
       </c>
       <c r="AV24" s="0">
-        <v>309.8454297316635</v>
+        <v>298.62954239094148</v>
       </c>
       <c r="AW24" s="0">
-        <v>308.92777841382292</v>
+        <v>297.43886904575174</v>
       </c>
       <c r="AX24" s="0">
-        <v>308.05200079491351</v>
+        <v>296.31279545075489</v>
       </c>
       <c r="AY24" s="0">
-        <v>307.21584890398975</v>
+        <v>295.24928242026908</v>
       </c>
       <c r="AZ24" s="0">
-        <v>306.41723393430794</v>
+        <v>294.24644748765536</v>
       </c>
       <c r="BA24" s="0">
-        <v>305.65421313109192</v>
+        <v>293.30254961553641</v>
       </c>
       <c r="BB24" s="0">
-        <v>304.92497735623078</v>
+        <v>292.41597432270561</v>
       </c>
       <c r="BC24" s="0">
-        <v>304.22783999126875</v>
+        <v>291.58522002755154</v>
       </c>
       <c r="BD24" s="0">
-        <v>303.56122748176523</v>
+        <v>290.8088855021885</v>
       </c>
       <c r="BE24" s="0">
-        <v>302.92366981154805</v>
+        <v>290.08565861837025</v>
       </c>
       <c r="BF24" s="0">
-        <v>302.31379226424338</v>
+        <v>289.41430671637306</v>
       </c>
       <c r="BG24" s="0">
-        <v>301.73030780878628</v>
+        <v>288.79366693470752</v>
       </c>
       <c r="BH24" s="0">
-        <v>301.17201003652241</v>
+        <v>288.22263805030389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>619.67242859416376</v>
+        <v>668.56841531649377</v>
       </c>
       <c r="B25" s="0">
-        <v>600.75972825836459</v>
+        <v>636.33019219868368</v>
       </c>
       <c r="C25" s="0">
-        <v>571.66018795076263</v>
+        <v>607.40528756019012</v>
       </c>
       <c r="D25" s="0">
-        <v>546.4699658438426</v>
+        <v>581.34658035015116</v>
       </c>
       <c r="E25" s="0">
-        <v>524.51221543510917</v>
+        <v>557.83305533525652</v>
       </c>
       <c r="F25" s="0">
-        <v>505.21682838671006</v>
+        <v>536.59233790492442</v>
       </c>
       <c r="G25" s="0">
-        <v>488.14873814138491</v>
+        <v>517.381314137706</v>
       </c>
       <c r="H25" s="0">
-        <v>472.96492381167815</v>
+        <v>499.98099343750249</v>
       </c>
       <c r="I25" s="0">
-        <v>459.38928052995561</v>
+        <v>484.19466407496503</v>
       </c>
       <c r="J25" s="0">
-        <v>447.19636612968549</v>
+        <v>469.84646097777267</v>
       </c>
       <c r="K25" s="0">
-        <v>436.20013479071258</v>
+        <v>456.77986348780689</v>
       </c>
       <c r="L25" s="0">
-        <v>426.24564820234588</v>
+        <v>444.85606028779654</v>
       </c>
       <c r="M25" s="0">
-        <v>417.20288373971249</v>
+        <v>433.9522378546913</v>
       </c>
       <c r="N25" s="0">
-        <v>408.96199674597699</v>
+        <v>423.9598539566623</v>
       </c>
       <c r="O25" s="0">
-        <v>401.42956565429188</v>
+        <v>414.78306543059222</v>
       </c>
       <c r="P25" s="0">
-        <v>394.52569612621579</v>
+        <v>406.3372296610475</v>
       </c>
       <c r="Q25" s="0">
-        <v>388.18169103481461</v>
+        <v>398.54757531186732</v>
       </c>
       <c r="R25" s="0">
-        <v>382.33816711711034</v>
+        <v>391.34801051676112</v>
       </c>
       <c r="S25" s="0">
-        <v>376.94356590155485</v>
+        <v>384.68007005071212</v>
       </c>
       <c r="T25" s="0">
-        <v>371.95292882864254</v>
+        <v>378.49198231564282</v>
       </c>
       <c r="U25" s="0">
-        <v>367.32686863028528</v>
+        <v>372.73785758358343</v>
       </c>
       <c r="V25" s="0">
-        <v>363.03075477655722</v>
+        <v>367.37697884151527</v>
       </c>
       <c r="W25" s="0">
-        <v>359.0340430991775</v>
+        <v>362.37317615085658</v>
       </c>
       <c r="X25" s="0">
-        <v>355.30968636034839</v>
+        <v>357.69428553483317</v>
       </c>
       <c r="Y25" s="0">
-        <v>351.83365330117448</v>
+        <v>353.31168059425494</v>
       </c>
       <c r="Z25" s="0">
-        <v>348.58453863825008</v>
+        <v>349.19984855901981</v>
       </c>
       <c r="AA25" s="0">
-        <v>345.54321180610378</v>
+        <v>345.33603122604109</v>
       </c>
       <c r="AB25" s="0">
-        <v>342.69253235509638</v>
+        <v>341.69990644685913</v>
       </c>
       <c r="AC25" s="0">
-        <v>340.01710532158938</v>
+        <v>338.27330930394254</v>
       </c>
       <c r="AD25" s="0">
-        <v>337.50306841673006</v>
+        <v>335.03998700146116</v>
       </c>
       <c r="AE25" s="0">
-        <v>335.13791240022738</v>
+        <v>331.98538346919344</v>
       </c>
       <c r="AF25" s="0">
-        <v>332.9103243911822</v>
+        <v>329.09644958085363</v>
       </c>
       <c r="AG25" s="0">
-        <v>330.81005245860564</v>
+        <v>326.36147592609501</v>
       </c>
       <c r="AH25" s="0">
-        <v>328.82778938645532</v>
+        <v>323.76994751127853</v>
       </c>
       <c r="AI25" s="0">
-        <v>326.95507072090101</v>
+        <v>321.31240601988378</v>
       </c>
       <c r="AJ25" s="0">
-        <v>325.18418163161806</v>
+        <v>318.98034158724869</v>
       </c>
       <c r="AK25" s="0">
-        <v>323.50808247436026</v>
+        <v>316.76608808699626</v>
       </c>
       <c r="AL25" s="0">
-        <v>321.9203410615176</v>
+        <v>314.66273255990222</v>
       </c>
       <c r="AM25" s="0">
-        <v>320.41506840745183</v>
+        <v>312.66403437488941</v>
       </c>
       <c r="AN25" s="0">
-        <v>318.98686659095898</v>
+        <v>310.76435385677178</v>
       </c>
       <c r="AO25" s="0">
-        <v>317.63078113689045</v>
+        <v>308.95858754585862</v>
       </c>
       <c r="AP25" s="0">
-        <v>316.34225895384628</v>
+        <v>307.24211506140364</v>
       </c>
       <c r="AQ25" s="0">
-        <v>315.117110178855</v>
+        <v>305.61074273071114</v>
       </c>
       <c r="AR25" s="0">
-        <v>313.9514748717657</v>
+        <v>304.06066289038785</v>
       </c>
       <c r="AS25" s="0">
-        <v>312.84179288016907</v>
+        <v>302.58841198045565</v>
       </c>
       <c r="AT25" s="0">
-        <v>311.7847770169393</v>
+        <v>301.19083466018543</v>
       </c>
       <c r="AU25" s="0">
-        <v>310.7773884462564</v>
+        <v>299.86505122500887</v>
       </c>
       <c r="AV25" s="0">
-        <v>309.81681527294995</v>
+        <v>298.60842977652578</v>
       </c>
       <c r="AW25" s="0">
-        <v>308.90045260503905</v>
+        <v>297.41855917337364</v>
       </c>
       <c r="AX25" s="0">
-        <v>308.02588491284445</v>
+        <v>296.29322381216872</v>
       </c>
       <c r="AY25" s="0">
-        <v>307.19086982998891</v>
+        <v>295.23038980841051</v>
       </c>
       <c r="AZ25" s="0">
-        <v>306.3933236971306</v>
+        <v>294.22817949901378</v>
       </c>
       <c r="BA25" s="0">
-        <v>305.63130844263338</v>
+        <v>293.28485620031807</v>
       </c>
       <c r="BB25" s="0">
-        <v>304.90301926461365</v>
+        <v>292.3988093794228</v>
       </c>
       <c r="BC25" s="0">
-        <v>304.20677356663623</v>
+        <v>291.56854103793995</v>
       </c>
       <c r="BD25" s="0">
-        <v>303.54100146263124</v>
+        <v>290.79265320251653</v>
       </c>
       <c r="BE25" s="0">
-        <v>302.9042363206616</v>
+        <v>290.06983670313411</v>
       </c>
       <c r="BF25" s="0">
-        <v>302.2951065551984</v>
+        <v>289.39886157004059</v>
       </c>
       <c r="BG25" s="0">
-        <v>301.71232801934372</v>
+        <v>288.77856739042193</v>
       </c>
       <c r="BH25" s="0">
-        <v>301.15469697545257</v>
+        <v>288.20785517158447</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>620.76958323834231</v>
+        <v>667.62880018198587</v>
       </c>
       <c r="B26" s="0">
-        <v>599.72969824280972</v>
+        <v>635.49768178608599</v>
       </c>
       <c r="C26" s="0">
-        <v>570.7637767247611</v>
+        <v>606.66210517342881</v>
       </c>
       <c r="D26" s="0">
-        <v>545.69322444100976</v>
+        <v>580.68187137674124</v>
       </c>
       <c r="E26" s="0">
-        <v>523.83316727750969</v>
+        <v>557.23815528894215</v>
       </c>
       <c r="F26" s="0">
-        <v>504.61897278903939</v>
+        <v>536.05964152933996</v>
       </c>
       <c r="G26" s="0">
-        <v>487.61921967240886</v>
+        <v>516.90398469715308</v>
       </c>
       <c r="H26" s="0">
-        <v>472.49347443922915</v>
+        <v>499.5528786139127</v>
       </c>
       <c r="I26" s="0">
-        <v>458.96756446968379</v>
+        <v>483.8102538078216</v>
       </c>
       <c r="J26" s="0">
-        <v>446.81753540222866</v>
+        <v>469.50084635134073</v>
       </c>
       <c r="K26" s="0">
-        <v>435.85850957793764</v>
+        <v>456.46868969000082</v>
       </c>
       <c r="L26" s="0">
-        <v>425.93647947640153</v>
+        <v>444.57547552185218</v>
       </c>
       <c r="M26" s="0">
-        <v>416.92217195514155</v>
+        <v>433.69884147565051</v>
       </c>
       <c r="N26" s="0">
-        <v>408.70635151924995</v>
+        <v>423.73064649190826</v>
       </c>
       <c r="O26" s="0">
-        <v>401.19609577748002</v>
+        <v>414.57540187638722</v>
       </c>
       <c r="P26" s="0">
-        <v>394.3119222717541</v>
+        <v>406.14877699841486</v>
       </c>
       <c r="Q26" s="0">
-        <v>387.98547617198426</v>
+        <v>398.37627441330164</v>
       </c>
       <c r="R26" s="0">
-        <v>382.15765995025538</v>
+        <v>391.19204237829479</v>
       </c>
       <c r="S26" s="0">
-        <v>376.77715566037222</v>
+        <v>384.53782607471032</v>
       </c>
       <c r="T26" s="0">
-        <v>371.7992080032638</v>
+        <v>378.36203829951319</v>
       </c>
       <c r="U26" s="0">
-        <v>367.18460214523583</v>
+        <v>372.61895100849239</v>
       </c>
       <c r="V26" s="0">
-        <v>362.89885470148431</v>
+        <v>367.26798907057304</v>
       </c>
       <c r="W26" s="0">
-        <v>358.91154837652761</v>
+        <v>362.27310719232759</v>
       </c>
       <c r="X26" s="0">
-        <v>355.19574446199164</v>
+        <v>357.60225102411556</v>
       </c>
       <c r="Y26" s="0">
-        <v>351.72750580318655</v>
+        <v>353.22689069318045</v>
       </c>
       <c r="Z26" s="0">
-        <v>348.48550879810659</v>
+        <v>349.12159855101618</v>
       </c>
       <c r="AA26" s="0">
-        <v>345.45069405092335</v>
+        <v>345.26369155013435</v>
       </c>
       <c r="AB26" s="0">
-        <v>342.60598342741463</v>
+        <v>341.63291398730053</v>
       </c>
       <c r="AC26" s="0">
-        <v>339.93603657915992</v>
+        <v>338.21115976580478</v>
       </c>
       <c r="AD26" s="0">
-        <v>337.42703933143048</v>
+        <v>334.98222822817922</v>
       </c>
       <c r="AE26" s="0">
-        <v>335.0665248999008</v>
+        <v>331.93160957711524</v>
       </c>
       <c r="AF26" s="0">
-        <v>332.84321801235342</v>
+        <v>329.04629580400695</v>
       </c>
       <c r="AG26" s="0">
-        <v>330.74690017345017</v>
+        <v>326.31461407865146</v>
       </c>
       <c r="AH26" s="0">
-        <v>328.76829387069722</v>
+        <v>323.7260819837478</v>
       </c>
       <c r="AI26" s="0">
-        <v>326.89896136584315</v>
+        <v>321.2712702594261</v>
       </c>
       <c r="AJ26" s="0">
-        <v>325.13121117136427</v>
+        <v>318.94169497420012</v>
       </c>
       <c r="AK26" s="0">
-        <v>323.45802539990962</v>
+        <v>316.72971317518528</v>
       </c>
       <c r="AL26" s="0">
-        <v>321.87299082396822</v>
+        <v>314.62843263209396</v>
       </c>
       <c r="AM26" s="0">
-        <v>320.37023572190873</v>
+        <v>312.63163127491327</v>
       </c>
       <c r="AN26" s="0">
-        <v>318.94437775422176</v>
+        <v>310.73368606445155</v>
       </c>
       <c r="AO26" s="0">
-        <v>317.59047652126213</v>
+        <v>308.92950846760789</v>
       </c>
       <c r="AP26" s="0">
-        <v>316.30399166222605</v>
+        <v>307.21449150245036</v>
       </c>
       <c r="AQ26" s="0">
-        <v>315.08074488630547</v>
+        <v>305.58445354454881</v>
       </c>
       <c r="AR26" s="0">
-        <v>313.91688676295513</v>
+        <v>304.03559776701786</v>
       </c>
       <c r="AS26" s="0">
-        <v>312.80886670481266</v>
+        <v>302.56447036710887</v>
       </c>
       <c r="AT26" s="0">
-        <v>311.75340623004183</v>
+        <v>301.16792479699342</v>
       </c>
       <c r="AU26" s="0">
-        <v>310.74747446267702</v>
+        <v>299.84308928326834</v>
       </c>
       <c r="AV26" s="0">
-        <v>309.78826677490144</v>
+        <v>298.58733908548533</v>
       </c>
       <c r="AW26" s="0">
-        <v>308.87318492486673</v>
+        <v>297.39826952943349</v>
       </c>
       <c r="AX26" s="0">
-        <v>307.99981947016755</v>
+        <v>296.27367086296312</v>
       </c>
       <c r="AY26" s="0">
-        <v>307.16593363790912</v>
+        <v>295.21151448808729</v>
       </c>
       <c r="AZ26" s="0">
-        <v>306.36944890641814</v>
+        <v>294.20992753209612</v>
       </c>
       <c r="BA26" s="0">
-        <v>305.60843188444085</v>
+        <v>293.26717765319802</v>
       </c>
       <c r="BB26" s="0">
-        <v>304.88108210111216</v>
+        <v>292.38165825613817</v>
       </c>
       <c r="BC26" s="0">
-        <v>304.18572097442404</v>
+        <v>291.55187491615823</v>
       </c>
       <c r="BD26" s="0">
-        <v>303.5207822846977</v>
+        <v>290.77643290579135</v>
       </c>
       <c r="BE26" s="0">
-        <v>302.88480278288296</v>
+        <v>290.0540260054517</v>
       </c>
       <c r="BF26" s="0">
-        <v>302.2764140127955</v>
+        <v>289.38342692832413</v>
       </c>
       <c r="BG26" s="0">
-        <v>301.69433471178303</v>
+        <v>288.76347770391948</v>
       </c>
       <c r="BH26" s="0">
-        <v>301.13736381325549</v>
+        <v>288.19308156418253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>621.5232504562556</v>
+        <v>666.69270531222435</v>
       </c>
       <c r="B27" s="0">
-        <v>598.70271781568658</v>
+        <v>634.66791038317899</v>
       </c>
       <c r="C27" s="0">
-        <v>569.87184576088873</v>
+        <v>605.92128328811305</v>
       </c>
       <c r="D27" s="0">
-        <v>544.92013088821091</v>
+        <v>580.01925228156165</v>
       </c>
       <c r="E27" s="0">
-        <v>523.15714905875814</v>
+        <v>556.64511564859106</v>
       </c>
       <c r="F27" s="0">
-        <v>504.02367376335349</v>
+        <v>535.52860051532411</v>
       </c>
       <c r="G27" s="0">
-        <v>487.09188358124243</v>
+        <v>516.42812572763171</v>
       </c>
       <c r="H27" s="0">
-        <v>472.02390576775514</v>
+        <v>499.1260681384997</v>
       </c>
       <c r="I27" s="0">
-        <v>458.54748250251185</v>
+        <v>483.42699952283942</v>
       </c>
       <c r="J27" s="0">
-        <v>446.4401349706086</v>
+        <v>469.15625590982535</v>
       </c>
       <c r="K27" s="0">
-        <v>435.51814471840288</v>
+        <v>456.15842346781312</v>
       </c>
       <c r="L27" s="0">
-        <v>425.62842823159326</v>
+        <v>444.29569543683306</v>
       </c>
       <c r="M27" s="0">
-        <v>416.64245666044968</v>
+        <v>433.4461591277672</v>
       </c>
       <c r="N27" s="0">
-        <v>408.45159962107846</v>
+        <v>423.50207325331422</v>
       </c>
       <c r="O27" s="0">
-        <v>400.96343070270274</v>
+        <v>414.36830229552237</v>
       </c>
       <c r="P27" s="0">
-        <v>394.09887679083948</v>
+        <v>405.96082644004264</v>
       </c>
       <c r="Q27" s="0">
-        <v>387.78992329589056</v>
+        <v>398.20542109264414</v>
       </c>
       <c r="R27" s="0">
-        <v>381.97775681567424</v>
+        <v>391.03647371566115</v>
       </c>
       <c r="S27" s="0">
-        <v>376.61129857389028</v>
+        <v>384.39593909169855</v>
       </c>
       <c r="T27" s="0">
-        <v>371.6459954221782</v>
+        <v>378.2324137100494</v>
       </c>
       <c r="U27" s="0">
-        <v>367.04280408251981</v>
+        <v>372.50033059842292</v>
       </c>
       <c r="V27" s="0">
-        <v>362.76738759364031</v>
+        <v>367.15925597569463</v>
       </c>
       <c r="W27" s="0">
-        <v>358.78945483750073</v>
+        <v>362.1732687311939</v>
       </c>
       <c r="X27" s="0">
-        <v>355.0821751496585</v>
+        <v>357.51042374044948</v>
       </c>
       <c r="Y27" s="0">
-        <v>351.62170504129057</v>
+        <v>353.14228730751671</v>
       </c>
       <c r="Z27" s="0">
-        <v>348.38680222230693</v>
+        <v>349.04351660104527</v>
       </c>
       <c r="AA27" s="0">
-        <v>345.35847815578626</v>
+        <v>345.19150346375238</v>
       </c>
       <c r="AB27" s="0">
-        <v>342.51971674889893</v>
+        <v>341.56605840596933</v>
       </c>
       <c r="AC27" s="0">
-        <v>339.85523204232669</v>
+        <v>338.14913394929971</v>
       </c>
       <c r="AD27" s="0">
-        <v>337.35125777731207</v>
+        <v>334.92458139735885</v>
       </c>
       <c r="AE27" s="0">
-        <v>334.99536945862332</v>
+        <v>331.87793707032137</v>
       </c>
       <c r="AF27" s="0">
-        <v>332.77632927749124</v>
+        <v>328.9962339407852</v>
       </c>
       <c r="AG27" s="0">
-        <v>330.68395204400105</v>
+        <v>326.26783563868486</v>
       </c>
       <c r="AH27" s="0">
-        <v>328.70898984442397</v>
+        <v>323.68229221738721</v>
       </c>
       <c r="AI27" s="0">
-        <v>326.84303154006653</v>
+        <v>321.23020338046575</v>
       </c>
       <c r="AJ27" s="0">
-        <v>325.07840895446645</v>
+        <v>318.9031110473087</v>
       </c>
       <c r="AK27" s="0">
-        <v>323.40812582918136</v>
+        <v>316.69339536575086</v>
       </c>
       <c r="AL27" s="0">
-        <v>321.82578785633484</v>
+        <v>314.59418477001378</v>
       </c>
       <c r="AM27" s="0">
-        <v>320.32554052061346</v>
+        <v>312.59927569402629</v>
       </c>
       <c r="AN27" s="0">
-        <v>318.90201701330278</v>
+        <v>310.70306168390005</v>
       </c>
       <c r="AO27" s="0">
-        <v>317.55029096702219</v>
+        <v>308.90046908806863</v>
       </c>
       <c r="AP27" s="0">
-        <v>316.2658347157228</v>
+        <v>307.1869042833502</v>
       </c>
       <c r="AQ27" s="0">
-        <v>315.04448150671192</v>
+        <v>305.55819765788459</v>
       </c>
       <c r="AR27" s="0">
-        <v>313.88239238989786</v>
+        <v>304.01056318947929</v>
       </c>
       <c r="AS27" s="0">
-        <v>312.77602631738995</v>
+        <v>302.5405568042188</v>
       </c>
       <c r="AT27" s="0">
-        <v>311.72211349173733</v>
+        <v>301.1450407218091</v>
       </c>
       <c r="AU27" s="0">
-        <v>310.71763097689995</v>
+        <v>299.82115107733216</v>
       </c>
       <c r="AV27" s="0">
-        <v>309.75978139586402</v>
+        <v>298.56627026799083</v>
       </c>
       <c r="AW27" s="0">
-        <v>308.8459731425279</v>
+        <v>297.37800006854206</v>
       </c>
       <c r="AX27" s="0">
-        <v>307.9738028499238</v>
+        <v>296.25413656175419</v>
       </c>
       <c r="AY27" s="0">
-        <v>307.14103932727522</v>
+        <v>295.19265642153238</v>
       </c>
       <c r="AZ27" s="0">
-        <v>306.34560918059111</v>
+        <v>294.1916915524003</v>
       </c>
       <c r="BA27" s="0">
-        <v>305.58558369532739</v>
+        <v>293.24951394262217</v>
       </c>
       <c r="BB27" s="0">
-        <v>304.85916672594789</v>
+        <v>292.3645209239624</v>
       </c>
       <c r="BC27" s="0">
-        <v>304.16468369719786</v>
+        <v>291.53522163572313</v>
       </c>
       <c r="BD27" s="0">
-        <v>303.50057205319115</v>
+        <v>290.76022458770399</v>
       </c>
       <c r="BE27" s="0">
-        <v>302.86537192582534</v>
+        <v>290.03822650297599</v>
       </c>
       <c r="BF27" s="0">
-        <v>302.25771798627699</v>
+        <v>289.36800277064992</v>
       </c>
       <c r="BG27" s="0">
-        <v>301.67633185563352</v>
+        <v>288.74839785622885</v>
       </c>
       <c r="BH27" s="0">
-        <v>301.12001513789494</v>
+        <v>288.17831721056916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>621.98589233165808</v>
+        <v>665.76009159939463</v>
       </c>
       <c r="B28" s="0">
-        <v>597.67913944173176</v>
+        <v>633.84086361389075</v>
       </c>
       <c r="C28" s="0">
-        <v>568.98435914785125</v>
+        <v>605.1828132970835</v>
       </c>
       <c r="D28" s="0">
-        <v>544.15065422757357</v>
+        <v>579.35871625135019</v>
       </c>
       <c r="E28" s="0">
-        <v>522.48413394366708</v>
+        <v>556.05393042123387</v>
       </c>
       <c r="F28" s="0">
-        <v>503.43090691260511</v>
+        <v>534.99920945096289</v>
       </c>
       <c r="G28" s="0">
-        <v>486.56670707636493</v>
+        <v>515.95373234087992</v>
       </c>
       <c r="H28" s="0">
-        <v>471.55619615465514</v>
+        <v>498.70055762379025</v>
       </c>
       <c r="I28" s="0">
-        <v>458.12901386290702</v>
+        <v>483.04489730822394</v>
       </c>
       <c r="J28" s="0">
-        <v>446.06414477711076</v>
+        <v>468.81268618417113</v>
       </c>
       <c r="K28" s="0">
-        <v>435.17902074995663</v>
+        <v>455.84906175650042</v>
       </c>
       <c r="L28" s="0">
-        <v>425.32147552912721</v>
+        <v>444.0167173317858</v>
       </c>
       <c r="M28" s="0">
-        <v>416.3637193912628</v>
+        <v>433.19418843390957</v>
       </c>
       <c r="N28" s="0">
-        <v>408.19772302902805</v>
+        <v>423.27413214983591</v>
       </c>
       <c r="O28" s="0">
-        <v>400.73155282857681</v>
+        <v>414.16176484843248</v>
       </c>
       <c r="P28" s="0">
-        <v>393.88654248969129</v>
+        <v>405.77337636672473</v>
       </c>
       <c r="Q28" s="0">
-        <v>387.59501561497052</v>
+        <v>398.03501392342741</v>
       </c>
       <c r="R28" s="0">
-        <v>381.79844131764577</v>
+        <v>390.88130327083746</v>
       </c>
       <c r="S28" s="0">
-        <v>376.44597864082374</v>
+        <v>384.25440799085555</v>
       </c>
       <c r="T28" s="0">
-        <v>371.49327548090019</v>
+        <v>378.10310756512388</v>
       </c>
       <c r="U28" s="0">
-        <v>366.90145923507976</v>
+        <v>372.38199548385563</v>
       </c>
       <c r="V28" s="0">
-        <v>362.63633864171533</v>
+        <v>367.05077878599963</v>
       </c>
       <c r="W28" s="0">
-        <v>358.66774807503759</v>
+        <v>362.07366008308935</v>
       </c>
       <c r="X28" s="0">
-        <v>354.96896442499946</v>
+        <v>357.41880307544983</v>
       </c>
       <c r="Y28" s="0">
-        <v>351.51623743075254</v>
+        <v>353.05786989570828</v>
       </c>
       <c r="Z28" s="0">
-        <v>348.2884057448702</v>
+        <v>348.9656022264171</v>
       </c>
       <c r="AA28" s="0">
-        <v>345.26655137842499</v>
+        <v>345.11946653613387</v>
       </c>
       <c r="AB28" s="0">
-        <v>342.43372000696928</v>
+        <v>341.49933931797892</v>
       </c>
       <c r="AC28" s="0">
-        <v>339.7746798339636</v>
+        <v>338.08723151012776</v>
       </c>
       <c r="AD28" s="0">
-        <v>337.2757123187975</v>
+        <v>334.86704620065785</v>
       </c>
       <c r="AE28" s="0">
-        <v>334.92443508825016</v>
+        <v>331.82436567236977</v>
       </c>
       <c r="AF28" s="0">
-        <v>332.70964765170976</v>
+        <v>328.94626374308615</v>
       </c>
       <c r="AG28" s="0">
-        <v>330.62119799492569</v>
+        <v>326.22114038329943</v>
       </c>
       <c r="AH28" s="0">
-        <v>328.64986769751778</v>
+        <v>323.63857801175021</v>
       </c>
       <c r="AI28" s="0">
-        <v>326.78727210677437</v>
+        <v>321.18920520257046</v>
       </c>
       <c r="AJ28" s="0">
-        <v>325.02576631921551</v>
+        <v>318.86458964400742</v>
       </c>
       <c r="AK28" s="0">
-        <v>323.35837558392893</v>
+        <v>316.65713451209388</v>
       </c>
       <c r="AL28" s="0">
-        <v>321.77872446927364</v>
+        <v>314.55998884134164</v>
       </c>
       <c r="AM28" s="0">
-        <v>320.28097560865984</v>
+        <v>312.56696751269919</v>
       </c>
       <c r="AN28" s="0">
-        <v>318.85977767334629</v>
+        <v>310.67248060704713</v>
       </c>
       <c r="AO28" s="0">
-        <v>317.51021828484028</v>
+        <v>308.87146930945198</v>
       </c>
       <c r="AP28" s="0">
-        <v>316.22778243559122</v>
+        <v>307.15935331554488</v>
       </c>
       <c r="AQ28" s="0">
-        <v>315.0083148768814</v>
+        <v>305.53197499045552</v>
       </c>
       <c r="AR28" s="0">
-        <v>313.84798710970921</v>
+        <v>303.98555908496633</v>
       </c>
       <c r="AS28" s="0">
-        <v>312.74326759985684</v>
+        <v>302.51667122569</v>
       </c>
       <c r="AT28" s="0">
-        <v>311.69089521293751</v>
+        <v>301.12218237458154</v>
       </c>
       <c r="AU28" s="0">
-        <v>310.68785493269689</v>
+        <v>299.79923655259307</v>
       </c>
       <c r="AV28" s="0">
-        <v>309.73135661604567</v>
+        <v>298.5452232743441</v>
       </c>
       <c r="AW28" s="0">
-        <v>308.81881527791126</v>
+        <v>297.35775074542818</v>
       </c>
       <c r="AX28" s="0">
-        <v>307.94783361451749</v>
+        <v>296.23462086726533</v>
       </c>
       <c r="AY28" s="0">
-        <v>307.11618600557648</v>
+        <v>295.17381557107529</v>
       </c>
       <c r="AZ28" s="0">
-        <v>306.32180417453935</v>
+        <v>294.17347152551241</v>
       </c>
       <c r="BA28" s="0">
-        <v>305.5627640790716</v>
+        <v>293.2318650371181</v>
       </c>
       <c r="BB28" s="0">
-        <v>304.83727389282365</v>
+        <v>292.34739735407936</v>
       </c>
       <c r="BC28" s="0">
-        <v>304.14366303952045</v>
+        <v>291.5185811702184</v>
       </c>
       <c r="BD28" s="0">
-        <v>303.48037262389488</v>
+        <v>290.74402822400469</v>
       </c>
       <c r="BE28" s="0">
-        <v>302.84594615630323</v>
+        <v>290.02243817341622</v>
       </c>
       <c r="BF28" s="0">
-        <v>302.23902143284414</v>
+        <v>289.35258907649609</v>
       </c>
       <c r="BG28" s="0">
-        <v>301.65832295729155</v>
+        <v>288.73332782842147</v>
       </c>
       <c r="BH28" s="0">
-        <v>301.10265500329297</v>
+        <v>288.16356209325772</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>622.2021214107524</v>
+        <v>664.83092153742109</v>
       </c>
       <c r="B29" s="0">
-        <v>596.65925593686848</v>
+        <v>633.01652743051739</v>
       </c>
       <c r="C29" s="0">
-        <v>568.10128160855243</v>
+        <v>604.44668668126576</v>
       </c>
       <c r="D29" s="0">
-        <v>543.38476471304148</v>
+        <v>578.70025650394848</v>
       </c>
       <c r="E29" s="0">
-        <v>521.8140964803514</v>
+        <v>555.46459363101258</v>
       </c>
       <c r="F29" s="0">
-        <v>502.84064938647862</v>
+        <v>534.47146293838864</v>
       </c>
       <c r="G29" s="0">
-        <v>486.04366905138011</v>
+        <v>515.48079966208559</v>
       </c>
       <c r="H29" s="0">
-        <v>471.09032575252945</v>
+        <v>498.27634269538999</v>
       </c>
       <c r="I29" s="0">
-        <v>457.7121396642429</v>
+        <v>482.66394326462989</v>
       </c>
       <c r="J29" s="0">
-        <v>445.68954670339463</v>
+        <v>468.47013371688837</v>
       </c>
       <c r="K29" s="0">
-        <v>434.84112019092743</v>
+        <v>455.54060150185529</v>
       </c>
       <c r="L29" s="0">
-        <v>425.01560443524215</v>
+        <v>443.73853851521574</v>
       </c>
       <c r="M29" s="0">
-        <v>416.08594369914181</v>
+        <v>432.94292702534989</v>
       </c>
       <c r="N29" s="0">
-        <v>407.94470573615445</v>
+        <v>423.04682109784125</v>
       </c>
       <c r="O29" s="0">
-        <v>400.50044655930395</v>
+        <v>413.95578770206333</v>
       </c>
       <c r="P29" s="0">
-        <v>393.67490416237212</v>
+        <v>405.58642516495456</v>
       </c>
       <c r="Q29" s="0">
-        <v>387.40073830091143</v>
+        <v>397.86505148416762</v>
       </c>
       <c r="R29" s="0">
-        <v>381.61969899398815</v>
+        <v>390.7265297901539</v>
       </c>
       <c r="S29" s="0">
-        <v>376.28118175919212</v>
+        <v>384.11323166516206</v>
       </c>
       <c r="T29" s="0">
-        <v>371.34103443598497</v>
+        <v>377.97411888593433</v>
       </c>
       <c r="U29" s="0">
-        <v>366.76055421563302</v>
+        <v>372.2639447981814</v>
       </c>
       <c r="V29" s="0">
-        <v>362.5056948108346</v>
+        <v>366.94255673315746</v>
       </c>
       <c r="W29" s="0">
-        <v>358.5464154122912</v>
+        <v>361.97428056588279</v>
       </c>
       <c r="X29" s="0">
-        <v>354.85609997171065</v>
+        <v>357.32738842269691</v>
       </c>
       <c r="Y29" s="0">
-        <v>351.41109101904624</v>
+        <v>352.97363791792822</v>
       </c>
       <c r="Z29" s="0">
-        <v>348.19030778076109</v>
+        <v>348.88785494596442</v>
       </c>
       <c r="AA29" s="0">
-        <v>345.17490250508001</v>
+        <v>345.04758033786123</v>
       </c>
       <c r="AB29" s="0">
-        <v>342.34798236398245</v>
+        <v>341.43275633963054</v>
       </c>
       <c r="AC29" s="0">
-        <v>339.69436949736144</v>
+        <v>338.02545210504042</v>
       </c>
       <c r="AD29" s="0">
-        <v>337.20039288532911</v>
+        <v>334.80962233066708</v>
       </c>
       <c r="AE29" s="0">
-        <v>334.85371210951644</v>
+        <v>331.77089510764762</v>
       </c>
       <c r="AF29" s="0">
-        <v>332.64316385220201</v>
+        <v>328.89638496354331</v>
       </c>
       <c r="AG29" s="0">
-        <v>330.5586291455229</v>
+        <v>326.17452809025446</v>
       </c>
       <c r="AH29" s="0">
-        <v>328.59091895652278</v>
+        <v>323.59493916697323</v>
       </c>
       <c r="AI29" s="0">
-        <v>326.73167500708973</v>
+        <v>321.14827554582973</v>
       </c>
       <c r="AJ29" s="0">
-        <v>324.97327562310721</v>
+        <v>318.82613060219836</v>
       </c>
       <c r="AK29" s="0">
-        <v>323.30876744564921</v>
+        <v>316.62093046802971</v>
       </c>
       <c r="AL29" s="0">
-        <v>321.73179387335131</v>
+        <v>314.52584471413337</v>
       </c>
       <c r="AM29" s="0">
-        <v>320.2365346308477</v>
+        <v>312.53470661173327</v>
       </c>
       <c r="AN29" s="0">
-        <v>318.81765381862783</v>
+        <v>310.64194272612252</v>
       </c>
       <c r="AO29" s="0">
-        <v>317.47025300359087</v>
+        <v>308.8425090342385</v>
       </c>
       <c r="AP29" s="0">
-        <v>316.18982980006427</v>
+        <v>307.13183851071898</v>
       </c>
       <c r="AQ29" s="0">
-        <v>314.97224042908033</v>
+        <v>305.5057854622151</v>
       </c>
       <c r="AR29" s="0">
-        <v>313.81366681317229</v>
+        <v>303.96058538086953</v>
       </c>
       <c r="AS29" s="0">
-        <v>312.71058690578752</v>
+        <v>302.49281356560635</v>
       </c>
       <c r="AT29" s="0">
-        <v>311.65974821390773</v>
+        <v>301.09934969541945</v>
       </c>
       <c r="AU29" s="0">
-        <v>310.65814362072354</v>
+        <v>299.77734565459019</v>
       </c>
       <c r="AV29" s="0">
-        <v>309.7029901998863</v>
+        <v>298.52419805497834</v>
       </c>
       <c r="AW29" s="0">
-        <v>308.79170957232526</v>
+        <v>297.33752151494014</v>
       </c>
       <c r="AX29" s="0">
-        <v>307.92191048483193</v>
+        <v>296.21512373832894</v>
       </c>
       <c r="AY29" s="0">
-        <v>307.09137287572173</v>
+        <v>295.15499189914391</v>
       </c>
       <c r="AZ29" s="0">
-        <v>306.29803357540482</v>
+        <v>294.15526741710778</v>
       </c>
       <c r="BA29" s="0">
-        <v>305.53997320850266</v>
+        <v>293.21423090529368</v>
       </c>
       <c r="BB29" s="0">
-        <v>304.81540426128498</v>
+        <v>292.33028751774566</v>
       </c>
       <c r="BC29" s="0">
-        <v>304.12266014857471</v>
+        <v>291.50195349329425</v>
       </c>
       <c r="BD29" s="0">
-        <v>303.46018563201733</v>
+        <v>290.72784379050677</v>
       </c>
       <c r="BE29" s="0">
-        <v>302.82652759742717</v>
+        <v>290.00666099453849</v>
       </c>
       <c r="BF29" s="0">
-        <v>302.22032696295713</v>
+        <v>289.33718582539069</v>
       </c>
       <c r="BG29" s="0">
-        <v>301.64031111350727</v>
+        <v>288.71826760161929</v>
       </c>
       <c r="BH29" s="0">
-        <v>301.08528699097877</v>
+        <v>288.14881619480514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>622.20987121005271</v>
+        <v>663.90515913155127</v>
       </c>
       <c r="B30" s="0">
-        <v>595.64330944474011</v>
+        <v>632.1948880988748</v>
       </c>
       <c r="C30" s="0">
-        <v>567.22257846540833</v>
+        <v>603.71289500632213</v>
       </c>
       <c r="D30" s="0">
-        <v>542.62243366655923</v>
+        <v>578.04386628747432</v>
       </c>
       <c r="E30" s="0">
-        <v>521.14701242178705</v>
+        <v>554.87709931899622</v>
       </c>
       <c r="F30" s="0">
-        <v>502.25287967505426</v>
+        <v>533.94535559375106</v>
       </c>
       <c r="G30" s="0">
-        <v>485.52274985696164</v>
+        <v>515.00932282988595</v>
       </c>
       <c r="H30" s="0">
-        <v>470.62627626484237</v>
+        <v>497.85341899197635</v>
       </c>
       <c r="I30" s="0">
-        <v>457.29684264275858</v>
+        <v>482.28413350514501</v>
       </c>
       <c r="J30" s="0">
-        <v>445.316324306566</v>
+        <v>468.12859506203051</v>
       </c>
       <c r="K30" s="0">
-        <v>434.50442727135709</v>
+        <v>455.23303966017949</v>
       </c>
       <c r="L30" s="0">
-        <v>424.71079975012827</v>
+        <v>443.46115630505807</v>
       </c>
       <c r="M30" s="0">
-        <v>415.8091148802107</v>
+        <v>432.69237254173555</v>
       </c>
       <c r="N30" s="0">
-        <v>407.69253348097169</v>
+        <v>422.82013802108696</v>
       </c>
       <c r="O30" s="0">
-        <v>400.27009803728583</v>
+        <v>413.75036902984692</v>
       </c>
       <c r="P30" s="0">
-        <v>393.46394832712912</v>
+        <v>405.39997122690619</v>
       </c>
       <c r="Q30" s="0">
-        <v>387.20707822960622</v>
+        <v>397.69553235834428</v>
       </c>
       <c r="R30" s="0">
-        <v>381.44151706226125</v>
+        <v>390.57215202427801</v>
       </c>
       <c r="S30" s="0">
-        <v>376.11689547830866</v>
+        <v>383.97240901139043</v>
       </c>
       <c r="T30" s="0">
-        <v>371.18926016327595</v>
+        <v>377.84544669699233</v>
       </c>
       <c r="U30" s="0">
-        <v>366.62007722149701</v>
+        <v>372.14617767768965</v>
       </c>
       <c r="V30" s="0">
-        <v>362.37544461414825</v>
+        <v>366.83458905137724</v>
       </c>
       <c r="W30" s="0">
-        <v>358.42544568127522</v>
+        <v>361.87512949967225</v>
       </c>
       <c r="X30" s="0">
-        <v>354.74357094140311</v>
+        <v>357.23617917772754</v>
       </c>
       <c r="Y30" s="0">
-        <v>351.30625527907699</v>
+        <v>352.88959083607176</v>
       </c>
       <c r="Z30" s="0">
-        <v>348.09249812656606</v>
+        <v>348.81027428003972</v>
       </c>
       <c r="AA30" s="0">
-        <v>345.08352165867558</v>
+        <v>344.97584444085709</v>
       </c>
       <c r="AB30" s="0">
-        <v>342.2624942729754</v>
+        <v>341.36630908841136</v>
       </c>
       <c r="AC30" s="0">
-        <v>339.61429181956737</v>
+        <v>337.96379539183857</v>
       </c>
       <c r="AD30" s="0">
-        <v>337.12529060234016</v>
+        <v>334.75230948090615</v>
       </c>
       <c r="AE30" s="0">
-        <v>334.78319199064123</v>
+        <v>331.71752510136662</v>
       </c>
       <c r="AF30" s="0">
-        <v>332.57686969448594</v>
+        <v>328.84659735552407</v>
       </c>
       <c r="AG30" s="0">
-        <v>330.49623766360577</v>
+        <v>326.12799853796309</v>
       </c>
       <c r="AH30" s="0">
-        <v>328.53213614615947</v>
+        <v>323.55137548377576</v>
       </c>
       <c r="AI30" s="0">
-        <v>326.67623312921779</v>
+        <v>321.10741423085284</v>
       </c>
       <c r="AJ30" s="0">
-        <v>324.92093011958337</v>
+        <v>318.78773376024452</v>
       </c>
       <c r="AK30" s="0">
-        <v>323.25929503992262</v>
+        <v>316.58478308779183</v>
       </c>
       <c r="AL30" s="0">
-        <v>321.68499007096324</v>
+        <v>314.49175225681495</v>
       </c>
       <c r="AM30" s="0">
-        <v>320.19221197116167</v>
+        <v>312.50249287226683</v>
       </c>
       <c r="AN30" s="0">
-        <v>318.77564021957693</v>
+        <v>310.61144793365588</v>
       </c>
       <c r="AO30" s="0">
-        <v>317.43039028490512</v>
+        <v>308.81358816517871</v>
       </c>
       <c r="AP30" s="0">
-        <v>316.15197236641706</v>
+        <v>307.10435978079863</v>
       </c>
       <c r="AQ30" s="0">
-        <v>314.93625412058952</v>
+        <v>305.47962899333635</v>
       </c>
       <c r="AR30" s="0">
-        <v>313.77942786176635</v>
+        <v>303.93564200477658</v>
       </c>
       <c r="AS30" s="0">
-        <v>312.67798100486664</v>
+        <v>302.4689837582269</v>
       </c>
       <c r="AT30" s="0">
-        <v>311.62866967620101</v>
+        <v>301.0765426245917</v>
       </c>
       <c r="AU30" s="0">
-        <v>310.62849463787865</v>
+        <v>299.75547832900548</v>
       </c>
       <c r="AV30" s="0">
-        <v>309.67468016282766</v>
+        <v>298.50319456045725</v>
       </c>
       <c r="AW30" s="0">
-        <v>308.76465446266519</v>
+        <v>297.3173123320442</v>
       </c>
       <c r="AX30" s="0">
-        <v>307.89603232177637</v>
+        <v>296.19564513388377</v>
       </c>
       <c r="AY30" s="0">
-        <v>307.0665992249539</v>
+        <v>295.13618536826334</v>
       </c>
       <c r="AZ30" s="0">
-        <v>306.27429709885189</v>
+        <v>294.13707919294927</v>
       </c>
       <c r="BA30" s="0">
-        <v>305.51721122910715</v>
+        <v>293.1966115158375</v>
       </c>
       <c r="BB30" s="0">
-        <v>304.79355840765066</v>
+        <v>292.31319138629203</v>
       </c>
       <c r="BC30" s="0">
-        <v>304.1016760324016</v>
+        <v>291.48533857866761</v>
       </c>
       <c r="BD30" s="0">
-        <v>303.44001251772119</v>
+        <v>290.71167126308291</v>
       </c>
       <c r="BE30" s="0">
-        <v>302.80711812140703</v>
+        <v>289.99089494416279</v>
       </c>
       <c r="BF30" s="0">
-        <v>302.20163688039923</v>
+        <v>289.32179299691325</v>
       </c>
       <c r="BG30" s="0">
-        <v>301.62229905869043</v>
+        <v>288.70321715698884</v>
       </c>
       <c r="BH30" s="0">
-        <v>301.06791426462252</v>
+        <v>288.13407949780969</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>622.04139295903451</v>
+        <v>662.98276981386823</v>
       </c>
       <c r="B31" s="0">
-        <v>594.63149907806394</v>
+        <v>631.37593218420079</v>
       </c>
       <c r="C31" s="0">
-        <v>566.34821560943112</v>
+        <v>602.98142991945372</v>
       </c>
       <c r="D31" s="0">
-        <v>541.86363335463295</v>
+        <v>577.38953887953619</v>
       </c>
       <c r="E31" s="0">
-        <v>520.48285857281439</v>
+        <v>554.29144154300275</v>
       </c>
       <c r="F31" s="0">
-        <v>501.6675774318083</v>
+        <v>533.42088204719255</v>
       </c>
       <c r="G31" s="0">
-        <v>485.00393110503967</v>
+        <v>514.53929699636694</v>
       </c>
       <c r="H31" s="0">
-        <v>470.16403073590982</v>
+        <v>497.43178216529373</v>
       </c>
       <c r="I31" s="0">
-        <v>456.88310693725208</v>
+        <v>481.90546415527479</v>
       </c>
       <c r="J31" s="0">
-        <v>444.9444625918228</v>
+        <v>467.78806678517122</v>
       </c>
       <c r="K31" s="0">
-        <v>434.16892770123337</v>
+        <v>454.92637319825661</v>
       </c>
       <c r="L31" s="0">
-        <v>424.4070477739175</v>
+        <v>443.18456802865103</v>
       </c>
       <c r="M31" s="0">
-        <v>415.53321974065125</v>
+        <v>432.44252263106449</v>
       </c>
       <c r="N31" s="0">
-        <v>407.44119351387201</v>
+        <v>422.59408085069327</v>
       </c>
       <c r="O31" s="0">
-        <v>400.04049491162863</v>
+        <v>413.54550701167904</v>
       </c>
       <c r="P31" s="0">
-        <v>393.25366299788897</v>
+        <v>405.21401295041147</v>
       </c>
       <c r="Q31" s="0">
-        <v>387.01402375643585</v>
+        <v>397.52645513438455</v>
       </c>
       <c r="R31" s="0">
-        <v>381.26388419940361</v>
+        <v>390.41816872819919</v>
       </c>
       <c r="S31" s="0">
-        <v>375.95310878326262</v>
+        <v>383.83193893008621</v>
       </c>
       <c r="T31" s="0">
-        <v>371.03794194764765</v>
+        <v>377.71709002610947</v>
       </c>
       <c r="U31" s="0">
-        <v>366.48001782987927</v>
+        <v>372.02869326155724</v>
       </c>
       <c r="V31" s="0">
-        <v>362.24557791385587</v>
+        <v>366.72687497739827</v>
       </c>
       <c r="W31" s="0">
-        <v>358.30482902988439</v>
+        <v>361.77620620677499</v>
       </c>
       <c r="X31" s="0">
-        <v>354.63136776678215</v>
+        <v>357.14517473802982</v>
       </c>
       <c r="Y31" s="0">
-        <v>351.20172092864084</v>
+        <v>352.80572811375055</v>
       </c>
       <c r="Z31" s="0">
-        <v>347.99496778631658</v>
+        <v>348.73285975050601</v>
       </c>
       <c r="AA31" s="0">
-        <v>344.99240013109858</v>
+        <v>344.90425841837862</v>
       </c>
       <c r="AB31" s="0">
-        <v>342.17724731645063</v>
+        <v>341.29999718298706</v>
       </c>
       <c r="AC31" s="0">
-        <v>339.53443867672053</v>
+        <v>337.90226102936703</v>
       </c>
       <c r="AD31" s="0">
-        <v>337.0503976431674</v>
+        <v>334.69510734582178</v>
       </c>
       <c r="AE31" s="0">
-        <v>334.71286720585096</v>
+        <v>331.66425537956121</v>
       </c>
       <c r="AF31" s="0">
-        <v>332.51075795754161</v>
+        <v>328.79690067312714</v>
       </c>
       <c r="AG31" s="0">
-        <v>330.43401663727127</v>
+        <v>326.08155150548936</v>
       </c>
       <c r="AH31" s="0">
-        <v>328.4735126677204</v>
+        <v>323.50788676345593</v>
       </c>
       <c r="AI31" s="0">
-        <v>326.62094019350172</v>
+        <v>321.06662107876542</v>
       </c>
       <c r="AJ31" s="0">
-        <v>324.86872384968729</v>
+        <v>318.74939895697509</v>
       </c>
       <c r="AK31" s="0">
-        <v>323.2099527346997</v>
+        <v>316.54869222602525</v>
       </c>
       <c r="AL31" s="0">
-        <v>321.63830776123876</v>
+        <v>314.4577113381834</v>
       </c>
       <c r="AM31" s="0">
-        <v>320.14800266428847</v>
+        <v>312.4703261757702</v>
       </c>
       <c r="AN31" s="0">
-        <v>318.73373225089955</v>
+        <v>310.58099612247668</v>
       </c>
       <c r="AO31" s="0">
-        <v>317.39062584789332</v>
+        <v>308.78470660529092</v>
       </c>
       <c r="AP31" s="0">
-        <v>316.11420620227233</v>
+        <v>307.07691703795166</v>
       </c>
       <c r="AQ31" s="0">
-        <v>314.90035237159344</v>
+        <v>305.45350550420761</v>
       </c>
       <c r="AR31" s="0">
-        <v>313.74526703213155</v>
+        <v>303.91072888446979</v>
       </c>
       <c r="AS31" s="0">
-        <v>312.64544703391408</v>
+        <v>302.44518173798889</v>
       </c>
       <c r="AT31" s="0">
-        <v>311.59765710023652</v>
+        <v>301.05376110252655</v>
       </c>
       <c r="AU31" s="0">
-        <v>310.5989058514283</v>
+        <v>299.73363452166683</v>
       </c>
       <c r="AV31" s="0">
-        <v>309.64642474197393</v>
+        <v>298.48221274147551</v>
       </c>
       <c r="AW31" s="0">
-        <v>308.73764855859883</v>
+        <v>297.29712315182439</v>
       </c>
       <c r="AX31" s="0">
-        <v>307.87019810998788</v>
+        <v>296.17618501297642</v>
       </c>
       <c r="AY31" s="0">
-        <v>307.04186441505749</v>
+        <v>295.11739594105632</v>
       </c>
       <c r="AZ31" s="0">
-        <v>306.2505944857707</v>
+        <v>294.11890681888963</v>
       </c>
       <c r="BA31" s="0">
-        <v>305.49447826222053</v>
+        <v>293.17900683751753</v>
       </c>
       <c r="BB31" s="0">
-        <v>304.77173683467339</v>
+        <v>292.29610893112192</v>
       </c>
       <c r="BC31" s="0">
-        <v>304.08071157602348</v>
+        <v>291.46873640012302</v>
       </c>
       <c r="BD31" s="0">
-        <v>303.41985454869842</v>
+        <v>290.69551061766782</v>
       </c>
       <c r="BE31" s="0">
-        <v>302.78771937856652</v>
+        <v>289.97514000016616</v>
       </c>
       <c r="BF31" s="0">
-        <v>302.18295321771507</v>
+        <v>289.30641057069522</v>
       </c>
       <c r="BG31" s="0">
-        <v>301.60428920675889</v>
+        <v>288.68817647574485</v>
       </c>
       <c r="BH31" s="0">
-        <v>301.0505396182761</v>
+        <v>288.11935198491568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>621.72410377640495</v>
+        <v>662.06371917462172</v>
       </c>
       <c r="B32" s="0">
-        <v>593.6239874168042</v>
+        <v>630.55965036926102</v>
       </c>
       <c r="C32" s="0">
-        <v>565.47816546874731</v>
+        <v>602.25228599863033</v>
       </c>
       <c r="D32" s="0">
-        <v>541.10834153741871</v>
+        <v>576.73726813509802</v>
       </c>
       <c r="E32" s="0">
-        <v>519.82161248385182</v>
+        <v>553.70761608370947</v>
       </c>
       <c r="F32" s="0">
-        <v>501.08472202201222</v>
+        <v>532.89803864708756</v>
       </c>
       <c r="G32" s="0">
-        <v>484.4871953834878</v>
+        <v>514.07071821732336</v>
       </c>
       <c r="H32" s="0">
-        <v>469.7035727592289</v>
+        <v>497.01142746171212</v>
       </c>
       <c r="I32" s="0">
-        <v>456.4709189931138</v>
+        <v>481.52793075908551</v>
       </c>
       <c r="J32" s="0">
-        <v>444.57394867536658</v>
+        <v>467.44854590103239</v>
       </c>
       <c r="K32" s="0">
-        <v>433.83460957707484</v>
+        <v>454.62059945649338</v>
       </c>
       <c r="L32" s="0">
-        <v>424.10433722728402</v>
+        <v>442.9087708988871</v>
       </c>
       <c r="M32" s="0">
-        <v>415.25824687839935</v>
+        <v>432.19337555169881</v>
       </c>
       <c r="N32" s="0">
-        <v>407.19067472330562</v>
+        <v>422.36864788855877</v>
       </c>
       <c r="O32" s="0">
-        <v>399.81162638651028</v>
+        <v>413.34120015023331</v>
       </c>
       <c r="P32" s="0">
-        <v>393.04403769850791</v>
+        <v>405.02854901859325</v>
       </c>
       <c r="Q32" s="0">
-        <v>386.82156518014961</v>
+        <v>397.35781819139658</v>
       </c>
       <c r="R32" s="0">
-        <v>381.08679089834442</v>
+        <v>390.26457857228769</v>
       </c>
       <c r="S32" s="0">
-        <v>375.78981238444658</v>
+        <v>383.69182060546245</v>
       </c>
       <c r="T32" s="0">
-        <v>370.887070637276</v>
+        <v>377.58904813591147</v>
       </c>
       <c r="U32" s="0">
-        <v>366.34036710211575</v>
+        <v>371.91149089808215</v>
       </c>
       <c r="V32" s="0">
-        <v>362.11608558103728</v>
+        <v>366.61941362870914</v>
       </c>
       <c r="W32" s="0">
-        <v>358.1845565959274</v>
+        <v>361.6775099117271</v>
       </c>
       <c r="X32" s="0">
-        <v>354.5194818494773</v>
+        <v>357.05437445952845</v>
       </c>
       <c r="Y32" s="0">
-        <v>351.09747985042355</v>
+        <v>352.72204917089147</v>
       </c>
       <c r="Z32" s="0">
-        <v>347.89770887679839</v>
+        <v>348.65561088391172</v>
       </c>
       <c r="AA32" s="0">
-        <v>344.90153023613459</v>
+        <v>344.83282184816176</v>
       </c>
       <c r="AB32" s="0">
-        <v>342.09223406469312</v>
+        <v>341.23382024633457</v>
       </c>
       <c r="AC32" s="0">
-        <v>339.45480281992133</v>
+        <v>337.84084867987747</v>
       </c>
       <c r="AD32" s="0">
-        <v>336.97570701585539</v>
+        <v>334.63801562433156</v>
       </c>
       <c r="AE32" s="0">
-        <v>334.64273103492684</v>
+        <v>331.61108566553929</v>
       </c>
       <c r="AF32" s="0">
-        <v>332.4448221917753</v>
+        <v>328.74729467359651</v>
       </c>
       <c r="AG32" s="0">
-        <v>330.37195988990868</v>
+        <v>326.0351867719757</v>
       </c>
       <c r="AH32" s="0">
-        <v>328.41504262318722</v>
+        <v>323.464472920123</v>
       </c>
       <c r="AI32" s="0">
-        <v>326.5657905892096</v>
+        <v>321.02589601099299</v>
       </c>
       <c r="AJ32" s="0">
-        <v>324.8166514890724</v>
+        <v>318.71112612072505</v>
       </c>
       <c r="AK32" s="0">
-        <v>323.160735494726</v>
+        <v>316.51265781693684</v>
       </c>
       <c r="AL32" s="0">
-        <v>321.5917422040821</v>
+        <v>314.42372189836368</v>
       </c>
       <c r="AM32" s="0">
-        <v>320.10390226705175</v>
+        <v>312.43820646765408</v>
       </c>
       <c r="AN32" s="0">
-        <v>318.69192577204365</v>
+        <v>310.55058724286096</v>
       </c>
       <c r="AO32" s="0">
-        <v>317.35095587090143</v>
+        <v>308.75586427946604</v>
       </c>
       <c r="AP32" s="0">
-        <v>316.07652779390196</v>
+        <v>307.04951023184515</v>
       </c>
       <c r="AQ32" s="0">
-        <v>314.86453197984014</v>
+        <v>305.42741495820712</v>
       </c>
       <c r="AR32" s="0">
-        <v>313.71118143952452</v>
+        <v>303.88584596920509</v>
       </c>
       <c r="AS32" s="0">
-        <v>312.61298242688588</v>
+        <v>302.42140745935706</v>
       </c>
       <c r="AT32" s="0">
-        <v>311.56670824257304</v>
+        <v>301.03100508870807</v>
       </c>
       <c r="AU32" s="0">
-        <v>310.5693753434137</v>
+        <v>299.71181419617005</v>
       </c>
       <c r="AV32" s="0">
-        <v>309.61822234799649</v>
+        <v>298.46125256567558</v>
       </c>
       <c r="AW32" s="0">
-        <v>308.710690601821</v>
+        <v>297.2769539451744</v>
       </c>
       <c r="AX32" s="0">
-        <v>307.84440692560338</v>
+        <v>296.15674334482895</v>
       </c>
       <c r="AY32" s="0">
-        <v>307.01716785929665</v>
+        <v>295.09862358596985</v>
       </c>
       <c r="AZ32" s="0">
-        <v>306.22692548316087</v>
+        <v>294.10075026920333</v>
       </c>
       <c r="BA32" s="0">
-        <v>305.47177439375565</v>
+        <v>293.16141684786896</v>
       </c>
       <c r="BB32" s="0">
-        <v>304.74993996814197</v>
+        <v>292.27904013346216</v>
       </c>
       <c r="BC32" s="0">
-        <v>304.05976754587698</v>
+        <v>291.45214694096586</v>
       </c>
       <c r="BD32" s="0">
-        <v>303.39971283244921</v>
+        <v>290.67936183901656</v>
       </c>
       <c r="BE32" s="0">
-        <v>302.76833281741631</v>
+        <v>289.95939614583563</v>
       </c>
       <c r="BF32" s="0">
-        <v>302.16427776386854</v>
+        <v>289.29103853232198</v>
       </c>
       <c r="BG32" s="0">
-        <v>301.586283686196</v>
+        <v>288.67314554407955</v>
       </c>
       <c r="BH32" s="0">
-        <v>301.03316551877936</v>
+        <v>288.10463364315854</v>
       </c>
     </row>
   </sheetData>

--- a/code/figure_2_subplots/dynamics2.xlsx
+++ b/code/figure_2_subplots/dynamics2.xlsx
@@ -13,7 +13,727 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+  <si>
+    <t>cycle_1</t>
+  </si>
+  <si>
+    <t>cycle_2</t>
+  </si>
+  <si>
+    <t>cycle_3</t>
+  </si>
+  <si>
+    <t>cycle_4</t>
+  </si>
+  <si>
+    <t>cycle_5</t>
+  </si>
+  <si>
+    <t>cycle_6</t>
+  </si>
+  <si>
+    <t>cycle_7</t>
+  </si>
+  <si>
+    <t>cycle_8</t>
+  </si>
+  <si>
+    <t>cycle_9</t>
+  </si>
+  <si>
+    <t>cycle_10</t>
+  </si>
+  <si>
+    <t>cycle_11</t>
+  </si>
+  <si>
+    <t>cycle_12</t>
+  </si>
+  <si>
+    <t>cycle_13</t>
+  </si>
+  <si>
+    <t>cycle_14</t>
+  </si>
+  <si>
+    <t>cycle_15</t>
+  </si>
+  <si>
+    <t>cycle_16</t>
+  </si>
+  <si>
+    <t>cycle_17</t>
+  </si>
+  <si>
+    <t>cycle_18</t>
+  </si>
+  <si>
+    <t>cycle_19</t>
+  </si>
+  <si>
+    <t>cycle_20</t>
+  </si>
+  <si>
+    <t>cycle_21</t>
+  </si>
+  <si>
+    <t>cycle_22</t>
+  </si>
+  <si>
+    <t>cycle_23</t>
+  </si>
+  <si>
+    <t>cycle_24</t>
+  </si>
+  <si>
+    <t>cycle_25</t>
+  </si>
+  <si>
+    <t>cycle_26</t>
+  </si>
+  <si>
+    <t>cycle_27</t>
+  </si>
+  <si>
+    <t>cycle_28</t>
+  </si>
+  <si>
+    <t>cycle_29</t>
+  </si>
+  <si>
+    <t>cycle_30</t>
+  </si>
+  <si>
+    <t>cycle_31</t>
+  </si>
+  <si>
+    <t>cycle_32</t>
+  </si>
+  <si>
+    <t>cycle_33</t>
+  </si>
+  <si>
+    <t>cycle_34</t>
+  </si>
+  <si>
+    <t>cycle_35</t>
+  </si>
+  <si>
+    <t>cycle_36</t>
+  </si>
+  <si>
+    <t>cycle_37</t>
+  </si>
+  <si>
+    <t>cycle_38</t>
+  </si>
+  <si>
+    <t>cycle_39</t>
+  </si>
+  <si>
+    <t>cycle_40</t>
+  </si>
+  <si>
+    <t>cycle_41</t>
+  </si>
+  <si>
+    <t>cycle_42</t>
+  </si>
+  <si>
+    <t>cycle_43</t>
+  </si>
+  <si>
+    <t>cycle_44</t>
+  </si>
+  <si>
+    <t>cycle_45</t>
+  </si>
+  <si>
+    <t>cycle_46</t>
+  </si>
+  <si>
+    <t>cycle_47</t>
+  </si>
+  <si>
+    <t>cycle_48</t>
+  </si>
+  <si>
+    <t>cycle_49</t>
+  </si>
+  <si>
+    <t>cycle_50</t>
+  </si>
+  <si>
+    <t>cycle_51</t>
+  </si>
+  <si>
+    <t>cycle_52</t>
+  </si>
+  <si>
+    <t>cycle_53</t>
+  </si>
+  <si>
+    <t>cycle_54</t>
+  </si>
+  <si>
+    <t>cycle_55</t>
+  </si>
+  <si>
+    <t>cycle_56</t>
+  </si>
+  <si>
+    <t>cycle_57</t>
+  </si>
+  <si>
+    <t>cycle_58</t>
+  </si>
+  <si>
+    <t>cycle_59</t>
+  </si>
+  <si>
+    <t>cycle_60</t>
+  </si>
+  <si>
+    <t>cycle_1</t>
+  </si>
+  <si>
+    <t>cycle_2</t>
+  </si>
+  <si>
+    <t>cycle_3</t>
+  </si>
+  <si>
+    <t>cycle_4</t>
+  </si>
+  <si>
+    <t>cycle_5</t>
+  </si>
+  <si>
+    <t>cycle_6</t>
+  </si>
+  <si>
+    <t>cycle_7</t>
+  </si>
+  <si>
+    <t>cycle_8</t>
+  </si>
+  <si>
+    <t>cycle_9</t>
+  </si>
+  <si>
+    <t>cycle_10</t>
+  </si>
+  <si>
+    <t>cycle_11</t>
+  </si>
+  <si>
+    <t>cycle_12</t>
+  </si>
+  <si>
+    <t>cycle_13</t>
+  </si>
+  <si>
+    <t>cycle_14</t>
+  </si>
+  <si>
+    <t>cycle_15</t>
+  </si>
+  <si>
+    <t>cycle_16</t>
+  </si>
+  <si>
+    <t>cycle_17</t>
+  </si>
+  <si>
+    <t>cycle_18</t>
+  </si>
+  <si>
+    <t>cycle_19</t>
+  </si>
+  <si>
+    <t>cycle_20</t>
+  </si>
+  <si>
+    <t>cycle_21</t>
+  </si>
+  <si>
+    <t>cycle_22</t>
+  </si>
+  <si>
+    <t>cycle_23</t>
+  </si>
+  <si>
+    <t>cycle_24</t>
+  </si>
+  <si>
+    <t>cycle_25</t>
+  </si>
+  <si>
+    <t>cycle_26</t>
+  </si>
+  <si>
+    <t>cycle_27</t>
+  </si>
+  <si>
+    <t>cycle_28</t>
+  </si>
+  <si>
+    <t>cycle_29</t>
+  </si>
+  <si>
+    <t>cycle_30</t>
+  </si>
+  <si>
+    <t>cycle_31</t>
+  </si>
+  <si>
+    <t>cycle_32</t>
+  </si>
+  <si>
+    <t>cycle_33</t>
+  </si>
+  <si>
+    <t>cycle_34</t>
+  </si>
+  <si>
+    <t>cycle_35</t>
+  </si>
+  <si>
+    <t>cycle_36</t>
+  </si>
+  <si>
+    <t>cycle_37</t>
+  </si>
+  <si>
+    <t>cycle_38</t>
+  </si>
+  <si>
+    <t>cycle_39</t>
+  </si>
+  <si>
+    <t>cycle_40</t>
+  </si>
+  <si>
+    <t>cycle_41</t>
+  </si>
+  <si>
+    <t>cycle_42</t>
+  </si>
+  <si>
+    <t>cycle_43</t>
+  </si>
+  <si>
+    <t>cycle_44</t>
+  </si>
+  <si>
+    <t>cycle_45</t>
+  </si>
+  <si>
+    <t>cycle_46</t>
+  </si>
+  <si>
+    <t>cycle_47</t>
+  </si>
+  <si>
+    <t>cycle_48</t>
+  </si>
+  <si>
+    <t>cycle_49</t>
+  </si>
+  <si>
+    <t>cycle_50</t>
+  </si>
+  <si>
+    <t>cycle_51</t>
+  </si>
+  <si>
+    <t>cycle_52</t>
+  </si>
+  <si>
+    <t>cycle_53</t>
+  </si>
+  <si>
+    <t>cycle_54</t>
+  </si>
+  <si>
+    <t>cycle_55</t>
+  </si>
+  <si>
+    <t>cycle_56</t>
+  </si>
+  <si>
+    <t>cycle_57</t>
+  </si>
+  <si>
+    <t>cycle_58</t>
+  </si>
+  <si>
+    <t>cycle_59</t>
+  </si>
+  <si>
+    <t>cycle_60</t>
+  </si>
+  <si>
+    <t>cycle_1</t>
+  </si>
+  <si>
+    <t>cycle_2</t>
+  </si>
+  <si>
+    <t>cycle_3</t>
+  </si>
+  <si>
+    <t>cycle_4</t>
+  </si>
+  <si>
+    <t>cycle_5</t>
+  </si>
+  <si>
+    <t>cycle_6</t>
+  </si>
+  <si>
+    <t>cycle_7</t>
+  </si>
+  <si>
+    <t>cycle_8</t>
+  </si>
+  <si>
+    <t>cycle_9</t>
+  </si>
+  <si>
+    <t>cycle_10</t>
+  </si>
+  <si>
+    <t>cycle_11</t>
+  </si>
+  <si>
+    <t>cycle_12</t>
+  </si>
+  <si>
+    <t>cycle_13</t>
+  </si>
+  <si>
+    <t>cycle_14</t>
+  </si>
+  <si>
+    <t>cycle_15</t>
+  </si>
+  <si>
+    <t>cycle_16</t>
+  </si>
+  <si>
+    <t>cycle_17</t>
+  </si>
+  <si>
+    <t>cycle_18</t>
+  </si>
+  <si>
+    <t>cycle_19</t>
+  </si>
+  <si>
+    <t>cycle_20</t>
+  </si>
+  <si>
+    <t>cycle_21</t>
+  </si>
+  <si>
+    <t>cycle_22</t>
+  </si>
+  <si>
+    <t>cycle_23</t>
+  </si>
+  <si>
+    <t>cycle_24</t>
+  </si>
+  <si>
+    <t>cycle_25</t>
+  </si>
+  <si>
+    <t>cycle_26</t>
+  </si>
+  <si>
+    <t>cycle_27</t>
+  </si>
+  <si>
+    <t>cycle_28</t>
+  </si>
+  <si>
+    <t>cycle_29</t>
+  </si>
+  <si>
+    <t>cycle_30</t>
+  </si>
+  <si>
+    <t>cycle_31</t>
+  </si>
+  <si>
+    <t>cycle_32</t>
+  </si>
+  <si>
+    <t>cycle_33</t>
+  </si>
+  <si>
+    <t>cycle_34</t>
+  </si>
+  <si>
+    <t>cycle_35</t>
+  </si>
+  <si>
+    <t>cycle_36</t>
+  </si>
+  <si>
+    <t>cycle_37</t>
+  </si>
+  <si>
+    <t>cycle_38</t>
+  </si>
+  <si>
+    <t>cycle_39</t>
+  </si>
+  <si>
+    <t>cycle_40</t>
+  </si>
+  <si>
+    <t>cycle_41</t>
+  </si>
+  <si>
+    <t>cycle_42</t>
+  </si>
+  <si>
+    <t>cycle_43</t>
+  </si>
+  <si>
+    <t>cycle_44</t>
+  </si>
+  <si>
+    <t>cycle_45</t>
+  </si>
+  <si>
+    <t>cycle_46</t>
+  </si>
+  <si>
+    <t>cycle_47</t>
+  </si>
+  <si>
+    <t>cycle_48</t>
+  </si>
+  <si>
+    <t>cycle_49</t>
+  </si>
+  <si>
+    <t>cycle_50</t>
+  </si>
+  <si>
+    <t>cycle_51</t>
+  </si>
+  <si>
+    <t>cycle_52</t>
+  </si>
+  <si>
+    <t>cycle_53</t>
+  </si>
+  <si>
+    <t>cycle_54</t>
+  </si>
+  <si>
+    <t>cycle_55</t>
+  </si>
+  <si>
+    <t>cycle_56</t>
+  </si>
+  <si>
+    <t>cycle_57</t>
+  </si>
+  <si>
+    <t>cycle_58</t>
+  </si>
+  <si>
+    <t>cycle_59</t>
+  </si>
+  <si>
+    <t>cycle_60</t>
+  </si>
+  <si>
+    <t>cycle_1</t>
+  </si>
+  <si>
+    <t>cycle_2</t>
+  </si>
+  <si>
+    <t>cycle_3</t>
+  </si>
+  <si>
+    <t>cycle_4</t>
+  </si>
+  <si>
+    <t>cycle_5</t>
+  </si>
+  <si>
+    <t>cycle_6</t>
+  </si>
+  <si>
+    <t>cycle_7</t>
+  </si>
+  <si>
+    <t>cycle_8</t>
+  </si>
+  <si>
+    <t>cycle_9</t>
+  </si>
+  <si>
+    <t>cycle_10</t>
+  </si>
+  <si>
+    <t>cycle_11</t>
+  </si>
+  <si>
+    <t>cycle_12</t>
+  </si>
+  <si>
+    <t>cycle_13</t>
+  </si>
+  <si>
+    <t>cycle_14</t>
+  </si>
+  <si>
+    <t>cycle_15</t>
+  </si>
+  <si>
+    <t>cycle_16</t>
+  </si>
+  <si>
+    <t>cycle_17</t>
+  </si>
+  <si>
+    <t>cycle_18</t>
+  </si>
+  <si>
+    <t>cycle_19</t>
+  </si>
+  <si>
+    <t>cycle_20</t>
+  </si>
+  <si>
+    <t>cycle_21</t>
+  </si>
+  <si>
+    <t>cycle_22</t>
+  </si>
+  <si>
+    <t>cycle_23</t>
+  </si>
+  <si>
+    <t>cycle_24</t>
+  </si>
+  <si>
+    <t>cycle_25</t>
+  </si>
+  <si>
+    <t>cycle_26</t>
+  </si>
+  <si>
+    <t>cycle_27</t>
+  </si>
+  <si>
+    <t>cycle_28</t>
+  </si>
+  <si>
+    <t>cycle_29</t>
+  </si>
+  <si>
+    <t>cycle_30</t>
+  </si>
+  <si>
+    <t>cycle_31</t>
+  </si>
+  <si>
+    <t>cycle_32</t>
+  </si>
+  <si>
+    <t>cycle_33</t>
+  </si>
+  <si>
+    <t>cycle_34</t>
+  </si>
+  <si>
+    <t>cycle_35</t>
+  </si>
+  <si>
+    <t>cycle_36</t>
+  </si>
+  <si>
+    <t>cycle_37</t>
+  </si>
+  <si>
+    <t>cycle_38</t>
+  </si>
+  <si>
+    <t>cycle_39</t>
+  </si>
+  <si>
+    <t>cycle_40</t>
+  </si>
+  <si>
+    <t>cycle_41</t>
+  </si>
+  <si>
+    <t>cycle_42</t>
+  </si>
+  <si>
+    <t>cycle_43</t>
+  </si>
+  <si>
+    <t>cycle_44</t>
+  </si>
+  <si>
+    <t>cycle_45</t>
+  </si>
+  <si>
+    <t>cycle_46</t>
+  </si>
+  <si>
+    <t>cycle_47</t>
+  </si>
+  <si>
+    <t>cycle_48</t>
+  </si>
+  <si>
+    <t>cycle_49</t>
+  </si>
+  <si>
+    <t>cycle_50</t>
+  </si>
+  <si>
+    <t>cycle_51</t>
+  </si>
+  <si>
+    <t>cycle_52</t>
+  </si>
+  <si>
+    <t>cycle_53</t>
+  </si>
+  <si>
+    <t>cycle_54</t>
+  </si>
+  <si>
+    <t>cycle_55</t>
+  </si>
+  <si>
+    <t>cycle_56</t>
+  </si>
+  <si>
+    <t>cycle_57</t>
+  </si>
+  <si>
+    <t>cycle_58</t>
+  </si>
+  <si>
+    <t>cycle_59</t>
+  </si>
+  <si>
+    <t>cycle_60</t>
+  </si>
   <si>
     <t>cycle_1</t>
   </si>
@@ -305,184 +1025,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>247</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
